--- a/shishuoxinyu.xlsx
+++ b/shishuoxinyu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo-explorer-static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo-explorer-multisheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899D852C-0376-484D-A9E9-268873F3268B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD94973-4E96-44D6-B05A-B8FD3BFABD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="114">
   <si>
     <t>division</t>
   </si>
@@ -97,9 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈穉叔</t>
-  </si>
-  <si>
     <t>陈太丘诣荀朗陵，贫俭无仆役。〈陈寔字仲弓，颍川许昌人。为闻喜令、太丘长，风化宣流。〉乃使元方将车，〈《先贤行状》曰：「陈纪字元方，寔长子也。至德绝俗，与寔髙名并著，而弟谌又配之。毎宰府辟召，羔鴈成群，世号『三君』，百城皆图画。」〉季方持杖后从。长文尚小，载箸车中。既至，荀使叔慈应门，慈明行酒，余六龙下食。〈张璠《汉纪》曰：「淑有八子：俭、鲲、靖、焘、汪、爽、肃、敷。淑居西豪里，县令苑康曰，『昔髙阳氏有才子八人』，遂署其里为『髙阳里』。时人号曰『八龙』。」〉文若亦小，坐箸厀前。于时太史奏：「真人东行。」〈檀道鸾《续晋阳秋》曰：「陈仲弓从诸子姪造荀父子，于时德星聚，太史奏：『五百里贤人聚。』」〉</t>
   </si>
   <si>
@@ -421,6 +418,10 @@
   </si>
   <si>
     <t>吴坦之,吴隐之,韩康伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈寔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,7 +779,7 @@
     <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,10 +876,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="357" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -901,14 +902,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,10 +917,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -931,14 +932,14 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,10 +947,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -961,10 +962,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -976,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -991,10 +992,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1006,10 +1007,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1021,10 +1022,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1036,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1051,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
@@ -1068,10 +1069,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1083,10 +1084,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1098,10 +1099,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1113,13 +1114,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1130,10 +1131,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1145,13 +1146,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
@@ -1162,10 +1163,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1177,10 +1178,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1192,13 +1193,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.2">
@@ -1209,13 +1210,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="204" x14ac:dyDescent="0.2">
@@ -1226,10 +1227,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -1241,10 +1242,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1256,10 +1257,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -1271,13 +1272,13 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -1288,10 +1289,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -1303,14 +1304,14 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1318,13 +1319,13 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1335,10 +1336,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -1350,13 +1351,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -1367,10 +1368,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -1382,13 +1383,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -1399,10 +1400,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -1414,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -1429,13 +1430,13 @@
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
@@ -1446,10 +1447,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -1461,13 +1462,13 @@
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1478,10 +1479,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E45" s="3"/>
     </row>
@@ -1493,10 +1494,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -1508,10 +1509,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -1523,10 +1524,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E48" s="3"/>
     </row>

--- a/shishuoxinyu.xlsx
+++ b/shishuoxinyu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo-explorer-multisheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD94973-4E96-44D6-B05A-B8FD3BFABD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3920C6C-93E6-4CE6-95E8-D126C4D5461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="344">
   <si>
     <t>division</t>
   </si>
@@ -422,6 +423,813 @@
   </si>
   <si>
     <t>陈寔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边文礼见袁奉髙〈闳也〉，失次序。〈《文士传》曰：“边让字文礼，陈留人。才俊辩逸，大将军何进闻其名，召署令史，以礼见之。让占对闲雅，声气如流，坐客皆慕之。让出就曹，时孔融、王朗等並前为掾，共书刺从让，让平衡与交接。後为九江太守，为魏武帝所杀。”〉奉髙曰：“昔尧聘许由，面无怍色；〈皇甫谧曰：“由字武仲，阳城槐里人也。尧舜皆师而学事焉，後隐於沛泽之中，尧乃致天下而让焉。由为人据义履方，邪席不坐，邪膳不食，闻尧让而去。其友巣父闻由为尧所让，以为污己，乃临池洗耳。池主怒曰：‘何以污我水？’由於是遁耕於中嶽颍水之阳，箕山之下，终身无经天下色。死葬箕山之巓，在阳城之南十里。尧因就其墓，号曰‘箕山公神’，以配食五嶽，世世奉祀，至今不绝也。”〉先生何为‘颠倒衣裳’？”文礼答曰：“明府初临，尧德未彰，是以贱民颠倒衣裳耳。”〈按：袁闳卒於太尉掾，未尝为汝南，斯说谬矣。〉</t>
+  </si>
+  <si>
+    <t>边让，袁阆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐孺子〈穉也〉年九歳，尝月下戏，人语之曰：“若令月中无物，当极明邪！”〈《五经通议》曰：“月中有兔、蟾蜍者何？月，阴也；蟾蜍，亦阴也；而与兔並明，阴繫於阳也。”〉徐曰：“不然，譬如人眼中有瞳子，无此必不明。”</t>
+  </si>
+  <si>
+    <t>徐穉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔文举〈融也〉年十歳，随父到洛。时李元礼有盛名，为司隶校尉，诣门者皆隽才淸称，及中表亲戚乃通。文举至门，谓吏曰：“我是李府君亲。”既通，前坐。元礼问曰：“君与僕有何亲？”对曰：“昔先君仲尼与君先人伯阳，有师资之尊；是僕与君奕世为通好也。”元礼及宾客莫不奇之。太中大夫陈韪後至，人以其语语之。韪曰：“小时了了，大未必佳！”文举曰：“想君小时，必当了了！”韪大踧踖。〈《续汉书》曰：“孔融字文举，鲁国人，孔子二十四世孙也。髙祖父尚，巨鹿太守。父宙，泰山都尉。”《融别传》曰：“融四歳，与兄食梨，辄引小者。人问其故？答曰：‘小儿，法当取小者。’年十歳，随父诣京师。河南尹李膺有重名，融欲观其为人，遂造之。膺问：‘髙明父祖，尝与僕周旋乎？’融曰：‘然。先君孔子与君先人李老君，同德比义，而相师友。则融与君累世通家也。’众坐莫不叹息，佥曰：‘异童子也！’太中大夫陈韪後至，同坐以告。韪曰：‘人小时了了者，长大未必能奇。’融应声曰：‘即如所言，君之幼时，岂实慧乎？’膺大笑，顾谓融曰：‘长大必为伟器。’”〉</t>
+  </si>
+  <si>
+    <t>孔融，李膺，陈韪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔文举有二子，大者六歳，小者五歳。昼日父眠，小者床头盗酒饮之。大儿谓曰：“何以不拜？”答曰：“偸，那得行礼！”</t>
+  </si>
+  <si>
+    <t>孔融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔融被收，中外惶怖。时融儿大者九歳，小者八歳。二儿故琢钉戏，了无遽容。融谓使者曰：“冀罪止於身，二儿可得全不？”儿徐进曰：“大人岂见覆巣之下，復有完卵乎？”寻亦收至。〈《魏氏春秋》曰：“融对孙权使有讪谤之言，坐弃市。二子方八歳、九歳，融见收，奕棋端坐不起。左右曰：‘而父见执。’二子曰：‘安有巣覆而卵不破者哉！’遂倶见杀。”《世语》曰：“魏太祖以歳俭禁酒，融谓酒以成礼，不宜禁。由是惑众，太祖收寘法焉。二子龆龀见收，顾谓二子曰：‘何以不辟？’二子曰：‘父尚如此，復何所辟？’”裴松之以为《世语》云融儿不辟，知必倶死，犹差可安。孙盛之言，诚所未譬。八歳小儿，能悬了祸患，聪明特达，卓然既远，则其忧乐之情，固亦有过成人矣。安有见父被执，而无变容，奕棋不起，若在暇豫者乎？昔申生就命，言不忘父，不以己之将死而废念父之情也。父安尚犹若兹，而况颠沛哉！盛以此为美谈，无乃贼夫人之子与？盖由好奇情多，而不知言之伤理也。〉</t>
+  </si>
+  <si>
+    <t>颍川太守髡陈仲弓。〈按，寔之在鄕里，州郡有疑狱不能决者，皆将诣寔，或到而情首，或中途改辞，或託狂悸，皆曰“寧为刑戮所苦，不为陈君所非。”岂有盛德感人若斯之甚，而不自卫，反招刑辟，殆不然乎？此所谓东野之言耳！〉客有问元方：“府君何如？”元方曰：“髙明之君也。”“足下家君何如？”曰：“忠臣孝子也。”客曰：“《易》称‘二人同心，其利断金；同心之言，其臭如兰。’〈王廙注《繫辞》曰：“金，至坚矣，同心者，其利无不入。兰，芳物也，无不乐者。言其同心者，物无不乐也。”〉何有髙明之君而刑忠臣孝子者乎？”元方曰：“足下言何其谬也！故不相荅。”客曰：“足下但因伛为恭不能答。”元方曰：“昔髙宗放孝子孝己，〈《帝王世纪》曰：“殷髙宗武丁有贤子孝己，其母蚤死，髙宗惑後妻之言，放之而死，天下哀之。”〉尹吉甫放孝子伯奇，〈《琴操》曰：“尹吉甫，周卿也，有子伯奇，母死更娶。後妻生子曰伯邽。乃谮伯奇於吉甫，於是放伯奇於野。宣王出遊，吉甫从，伯奇乃作歌，以言感之。宣王闻之曰：‘此孝子之辞也。’吉甫乃求伯奇於野，而射杀後妻。”〉董仲舒放孝子符起〈未详〉。唯此三君，髙明之君；唯此三子，忠臣孝子。”客惭而退。</t>
+  </si>
+  <si>
+    <t>陈纪</t>
+  </si>
+  <si>
+    <t>武丁，尹吉甫，董仲舒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀慈明与汝南袁阆相见，〈荀爽，一名谞。《汉南纪》曰：“谞文章典籍无不渉，时人谚曰：‘荀氏八龙，慈明无双。’潜处笃志，徴聘无所就。”张璠《汉纪》曰：“董卓秉政，復徴爽，爽欲遁去，吏持之急。起布衣，九十五日而至三公。”〉问颍川人士，慈明先及诸兄。阆笑曰：“士但可因亲旧而已乎？”慈明曰：“足下相难，依據者何经？”阆曰：“方问国士而及诸兄，是以尤之耳。”慈明曰：“昔者祁奚内举不失其子，外举不失其讎，以为至公。〈《春秋传》曰：“祁奚为中军尉，请老，晋侯问嗣焉。称解狐，其讎也。将立之而卒。又问焉。对曰：‘午也可。’其子也。君子谓祁奚可谓能举善矣。称其讎不为谄，立其子不为比。”〉公旦《文王》之诗，不论尧舜之德，而颂文武者，亲亲之义也。《春秋》之义，内其国而外诸夏。且不爱其亲而爱他人者，不为悖德乎？”</t>
+  </si>
+  <si>
+    <t>荀爽，袁阆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈奚，周公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祢衡被魏武谪为鼓吏，正月半试鼓。衡扬枹为渔阳掺挝，渊渊有金石声，四坐为之改容。〈《典略》曰：“衡字正平，平原般人也。”《文士传》曰：“衡不知先所出，逸才飘举。少与孔融作尔汝之交，时衡未满二十，融已五十。敬衡才秀，共结殷勤，不能相违。以建安初北遊，或劝其诣京师贵遊者，衡怀一刺，遂至漫灭，竟无所诣。融数与武帝牋，称其才，帝倾心欲见。衡称疾不肯往，而数有言论。帝甚忿之，以其才名不杀，图欲辱之，乃令录为鼓吏。後至八月朝会，大阅试鼓节，作三重阁，列坐宾客。以帛绢製衣，作一岑牟，一单绞及小裈。鼓吏度者，皆当脱其故衣，著此新衣。次传衡，衡撃鼓为渔阳掺檛，蹋地来前，蹑𫘈脚足，容态不常，鼓声甚悲，音节殊妙。坐客莫不慷慨，知必衡也。既度，不肯易衣。吏呵之曰：‘鼓吏何独不易服？’衡便止。当武帝前，先脱裈，次脱餘衣，裸身而立。徐徐乃著岑牟，次著单绞，後乃著裈。毕，復撃鼓掺槌而去，颜色无怍。武帝笑谓四坐曰：‘本欲辱衡，衡反辱孤。’至今有渔阳掺檛，自衡造也。为黄祖所杀。”〉孔融曰：“祢衡罪同胥靡，不能發明王之梦。”〈皇甫谧《帝王世纪》曰：“武丁梦天赐己贤人，使百工写其象，求诸天下。见築者胥靡，衣褐於傅岩之野，是谓傅说。”张晏曰：“胥靡，刑名。胥，相也；靡，从也。谓相从坐轻刑也。”〉魏武惭而赦之。</t>
+  </si>
+  <si>
+    <t>祢衡，孔融，曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南郡庞士元闻司马德操在颍川，故二千里候之。至，遇德操采桑，士元从车中谓曰：“吾闻丈夫处世，当带金佩紫，焉有屈洪流之量，而执丝妇之事。”〈《蜀志》曰：“庞统字士元，襄阳人。少时樸钝，未有识者。颍川司马徽有知人之鑒，士元弱冠往见徽，徽采桑树上，坐士元树下，共语，自昼至夜。徽异之曰：‘生当为南州士人之冠冕。’由是渐显。”《襄阳记》曰：“士元，德公之从子也。年少未有识者，唯德公重之。年十八，使往见德操，与语，叹曰：‘德公诚知人，实盛德也。’後刘备访世事於德操，德操曰：‘俗士岂识时务，此闲自有伏龙、凤雏。’谓诸葛孔明与士元也。”《华阳国志》曰：“刘备引士元为军师中郎将，从攻洛，为流矢所中，卒。时年三十八。”〉德操曰：〈《司马徽别传》曰：“徽字德操，颍川阳翟人。有人伦鑒识，居荆州。知刘表性暗，必害善人，乃括囊不谈议时人。有以人物问徽者，初不辨其髙下，毎辄言‘佳’。其妇谏曰：‘人质所疑，君宜辨论，而一皆言佳，岂人所以咨君之意乎？’徽曰：‘如君所言，亦復佳。’其婉约逊遁如此。尝有妄认徽猪者，便推与之。後得其猪，叩头来还，徽又厚辞谢之。刘表子琮往候徽，遣问在不？会徽自锄园，琮左右问：‘司马君在邪？’徽曰：‘我是也。’琮左右见其醜陋，骂曰：‘死佣，将军诸郎欲求见司马君，汝何等田奴，而自称是邪！’徽归，刈头著帻出见。琮左右见徽故是向老翁，恐，向琮道之。琮起，叩头辞谢。徽乃谓曰：‘卿真不可，然吾甚羞之。此自锄园，唯卿知之耳。’有人临蠶求簇箔者，徽自弃其蠶而与之。或曰：‘凡人损己以赡人者，谓彼急我缓也。今彼此正等，何为与人？’徽曰：‘人未尝求己，求之不与将惭。何有以财物令人惭者！’人谓刘表曰：‘司马德操，奇士也，但未遇耳。’表後见之，曰：‘世闲人为妄语，此直小书生耳。’其智而能愚皆此类。荆州破，为曹操所得，操欲大用，会其病死。”〉“子且下车，子適知邪径之速，不虑失道之迷。昔伯成耦耕，不慕诸侯之荣；〈《庄子》曰：“尧治天下，伯成子髙立为诸侯，禹为天子，伯成辞诸侯而耕於野。禹往见之，趋就下风而问焉。子髙曰：‘昔尧治天下，不赏而民劝，不罚而民畏。今子赏罚而民且不仁，德自此衰，刑自此立。夫子盍行邪？毋落吾事！’”〉原宪桑枢，不易有官之宅。〈《家语》曰：“原宪字子思，宋人，孔子弟子。居鲁，环堵之室，茨以生草，蓬戸不完，桑枢而瓮牖，上漏下湿，坐而絃歌。子贡轩车不容巷，往见之，曰：‘先生何病也？’宪曰：‘宪闻无财谓之贫，学而不能行谓之病。今宪贫也，非病也。夫希世而行，比周而友，学以为人，教以为己。仁义之慝，舆马之饰，宪不忍为也。’”〉何有坐则华屋，行则肥马，侍女数十，然後为奇。此乃许父〈许由、巣父。〉所以忼慨，夷齐所以长叹。〈《孟子》曰：“伯夷、叔齐目不视恶色，耳不聽恶声，与鄕人居，若在涂炭，盖圣人之淸也。”〉虽有窃秦之爵，千驷之富，〈《古史考》曰：“吕不韦为秦子楚行千金货於华阳夫人，请立子楚为嗣。及子楚立，封不韦洛阳十万戸，号文信侯。”以诈获爵，故曰窃也。《论语》曰：“齐景公有马千驷，民无德而称焉。”孔安国曰：“千驷，四千匹。”〉不足贵也！”士元曰：“僕生出边垂，寡见大义。若不一叩洪鐘，伐雷鼓，则不识其音响也。”</t>
+  </si>
+  <si>
+    <t>庞统，司马徽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伯成子高，原思，许由，巢父，伯夷，叔齐，吕不韦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘公幹以失敬罹罪，〈《典略》曰：“刘桢字公幹，东平寧阳人。建安十六年，世子为五官中郎将，妙选文学，使桢随侍太子。酒酣坐欢，乃使夫人甄氏出拜，坐上客多伏，而桢独平视。他日公闻，乃收桢，减死输作部。”《文士传》曰：“桢性辩捷，所问应声而答。坐平视甄夫人，配输作部，使磨石。武帝至尚方观作者，见桢匡坐正色磨石。武帝问曰：‘石何如？’桢因得喩己自理，跪而对曰：‘石出荆山悬岩之巓，外有五色之章，内含卞氏之珍。磨之不加莹，雕之不增文，禀气坚贞，受之自然。顾其理枉屈纡绕而不得申。’帝顾左右大笑，即日赦之。”〉文帝问曰：“卿何以不谨於文宪？”桢荅曰：“臣诚庸短，亦由陛下纲目不疏。”〈《魏志》曰：“帝讳丕，字子桓，受汉禅。”按，诸书或云桢被刑魏武之世，建安二十年病亡。後七年，文帝乃即位。而谓桢得罪黄初之时，谬矣。〉</t>
+  </si>
+  <si>
+    <t>刘桢，曹丕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾毓、鍾会少有令誉。〈《魏书》曰：“毓字穉叔，颍川长社人，相国繇长子也。年十四，为散骑侍郎，機捷谈笑有父风，仕至车骑将军。”〉年十三，魏文帝闻之，语其父鍾繇〈《魏志》曰：“繇字元常，家贫好学，为《周易》、《老子》训。历大理、相国，迁太傅。”〉曰：“可令二子来。”於是敕见。毓面有汗，帝曰：“卿面何以汗？”毓对曰：“战战惶惶，汗出如浆。”復问会：“卿何以不汗？”对曰：“战战栗栗，汗不敢出。”</t>
+  </si>
+  <si>
+    <t>钟毓，钟会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾毓兄弟小时，値父昼寝，因共偸服药酒。其父时觉，且託寐以观之。毓拜而後饮，会饮而不拜。〈《魏志》曰：“会字士季，繇少子也。敏惠夙成。中护军蒋济著论，谓观其眸子，足以知人。会年五歳，繇遣见济。济甚异之，曰：‘非常人也！’及壮，有才数，精练名理，累迁黄门侍郎。诸葛诞反，文王征之，会谋居多，时人谓之子房。拜镇西将军。伐蜀，蜀平，进位司徒。自谓功名盖世，不可復为人下。谓所亲曰：‘我淮南已来，画无遗策，四海共知，持此欲安归乎？’遂谋反，见诛，时年四十。”〉既而问毓何以拜？毓曰：“‘酒以成礼’，不敢不拜。”又问会何以不拜？会曰：“偸本非礼，所以不拜。”</t>
+  </si>
+  <si>
+    <t>魏明帝为外祖母築馆於甄氏。〈《魏本传》曰：“帝讳叡，字元仲，文帝太子。以其母废，未立为嗣。文帝与倶猎，见子母鹿，文帝射其母，应絃而倒。復令帝射其子，帝置弓泣曰：‘陛下已杀其母，臣不忍復杀其子。’文帝曰：‘好语动人心。’遂定为嗣。是为明帝。”《魏书》曰：“文昭甄皇后，明帝母也。父逸，上蔡令。烈宗即位，追封上蔡君。嫡孙象袭爵，象薨，子畅嗣，起大第，车驾亲自临之。”〉既成，自行视，谓左右曰：“馆当以何为名？”侍中缪袭曰：〈《文章叙录》曰：“袭字熙伯，东海兰陵人。有才学，累迁侍中、光禄勋。”〉“陛下圣思齐於哲王；罔极过於曾闵。此馆之兴，情鍾舅氏，宜以‘渭阳’为名。”〈《秦诗》曰：“渭阳，康公念母也。康公之母，晋献公之女。文公遭骊姬之难，未反而秦姬卒。穆公纳文公，康公时为太子，赠送文公於渭之阳，念母之不见也。我见舅氏，如母存焉。”按，《魏书》：“帝於後园为象母起观，名其里曰渭阳。”然则象母即帝之舅母，非外祖母也。且“渭阳”为馆名，亦乖旧史也。〉</t>
+  </si>
+  <si>
+    <t>曹叡，缪袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦康公罃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何平叔云：“服五石散，非唯治病，亦觉神明开朗。”〈《魏略》曰：“何晏字平叔，南阳宛人，汉大将军进孙也。或云何苗孙也。尚主，又好色，故黄初时无所事任。正始中，曹爽用为中书，主选举，宿旧者多得济拔。为司马宣王所诛。”秦丞相《寒食散论》曰：“寒食散之方虽出汉代，而用之者寡，靡有传焉。魏尚书何晏首获神效，由是大行於世，服者相寻也。”〉</t>
+  </si>
+  <si>
+    <t>何晏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵇中散语赵景真：〈嵇绍《赵至叙》曰：“至字景真，代郡人。汉末，其祖流宕客缑氏。令新之官，至年十二，与母共道傍看，母曰：‘汝先世非微贱家也，汝後能如此不？’至曰：‘可尔耳。’归便求师诵书，蚤闻父耕叱牛声，释书而泣。师问之，答曰：‘自伤不能致荣华，而使老父不免勤苦。’年十四，入太学观，时先君在学写石经古文，事讫去。遂随车问先君姓名。先君曰：‘年少何以问我？’至曰：‘观君风器非常，故问耳。’先君具告之。至年十五，阳病，数数狂走五里三里，为家追得，又炙身体十数处。年十六，遂亡命，径至洛阳，求索先君不得。至邺，沛国史仲和是魏领军史涣孙也，至便依之，遂名翼，字阳和。先君到邺，至具道太学中事，便逐先君归山阳经年。至长七尺三寸，洁白黑髮，赤唇明目，鬓鬚不多，闲详安谛，体若不胜衣。先君尝谓之曰：‘卿头小而锐，瞳子白黑分明，视瞻停谛，有白起风。’至论议淸辩，有从横才，然亦不以自长也。孟元基辟为辽东从事，在郡断九狱，见称淸当。自痛弃亲远遊，母亡不见，吐血發病，服未竟而亡。”〉“卿瞳子白黑分明，有白起之风；〈严尤《三将叙》曰：“白起，平原君劝赵孝成王受冯亭，王曰：‘受之，秦兵必至，武安君必将，谁能当之者乎？’对曰：‘渑池之会，臣察武安君小头而面锐，瞳子白黑分明，视瞻不转。小头而面锐者，敢断决也；瞳子白黑分明者，见事明也；视瞻不转者，执志强也。可与持久，难与争锋。廉颇为人，勇鸷而爱士，知难而忍耻，与之野战则不如，持守足以当之。’王从其计。”〉恨量小狭。”赵云：“尺表能审璣衡之度，〈《周髀》曰：“夏至，北方二万六千里，冬至，南方十三万五千里，日中树表则无影矣。周髀长八尺，夏至日，晷尺六寸。髀，股也；晷，句也。正南千里，句尺五寸；正北千里，句尺七寸。周髀之书也。”〉寸管能测往復之气；〈《吕氏春秋》曰：“黄帝使伶伦自大夏之西、崑崙之阴，取竹之嶰谷生，其窍厚薄均者，断两节，闲而吹之，以为黄鐘之管。製十二笛，以聽凤凰之鸣。雄鸣六，雌鸣六，以为律吕。”《续汉书·律暦志》曰：“十二律之变，至於六十，以律候气。候气之法：为室三重，戸闭，涂衅必周，密布缇幔，以木为案，加律其上，以葭莩灰抑其内，为气所动者，其灰散也。以此候之。”〉何必在大？但问识如何耳！”</t>
+  </si>
+  <si>
+    <t>嵇康，赵至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马景王东征，〈《魏书》曰：“司马师字子元，相国宣文侯长子也。以道德淸粹，重於朝廷，为大将军、录尚书事。毋丘俭反，师自征之，薨谥景王。”〉取上党李喜，以为从事中郎。因问喜曰：“昔先公辟君不就，今孤召君，何以来？”喜对曰：“先公以礼见待，故得以礼进退；明公以法见绳，喜畏法而至耳！”〈《晋诸公赞》曰：“喜字季和，上党铜鞮人也。少有髙行，研精艺学。宣帝为相国，辟喜，喜固辞疾。景帝辅政，为从事中郎，累迁光禄大夫，特进。赠太保。”〉</t>
+  </si>
+  <si>
+    <t>司马师，李喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓艾口吃，语称“艾艾……”〈《魏志》曰：“艾字士载，棘阳人，少为农人养犊。年十二，随母至颍川，读故太丘长碑文曰‘言为世範，行为士则’。遂名範，字士则。後宗族有同者，故改焉。毎见髙山大泽，辄规度指画军营处所，时人多笑焉。後见司马宣王，三辟为掾，累迁征西将军。伐蜀，蜀平，进位太尉。为卫瓘所害。”〉。晋文王戏之曰：“卿云‘艾艾……’，为是幾艾？”对曰：“‘凤兮，凤兮’，故是一‘凤’。”〈朱凤《晋纪》曰：“文王讳昭，字子上，宣帝次子也。”《列仙传》曰：“陆通者，楚狂接舆也。好养性，遊诸名山。尝遇孔子而歌曰：‘凤兮凤兮，何德之衰！往者不可谏，来者犹可追。’後入蜀，在峨嵋山中也。”〉</t>
+  </si>
+  <si>
+    <t>邓艾，司马昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵇中散既被诛，向子期举郡计入洛，文王引进，问曰：“闻君有箕山之志，何以在此？”对曰：“巣许狷介之士，不足多慕。”王大咨嗟。〈《向秀别传》曰：“秀字子期，河内人。少为同郡山涛所知，又与谯国嵇康、东平吕安友善，並有拔俗之韵，其进止无不同，而造事营生业亦不异。常与嵇康偶锻於洛邑，与吕安灌园於山阳，不虑家之有无，外物不足怫其心。弱冠著儒道论，弃而不录，好事者或存之。或云是其族人所作，困於不行，乃告秀，欲假其名。秀笑曰：‘可復尔耳。’後康被诛，秀遂失图。乃应歳举，到京师，诣大将军司马文王，文王问曰：‘闻君有箕山之志，何能自屈？’秀曰：‘常谓彼人不达尧意，本非所慕也。’一坐皆说，随次转至黄门侍郎、散骑常侍。”〉</t>
+  </si>
+  <si>
+    <t>向秀，司马昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许由，巢父</t>
+  </si>
+  <si>
+    <t>晋武帝始登阼，探策得“一”。〈《晋世谱》曰：“世祖讳炎，字安宇，咸熙二年受魏禅。”〉王者世数，繫此多少。帝既不说，群臣失色，莫能有言者。侍中裴楷进曰：“臣闻：‘天得一以淸，地得一以寧，侯王得一以为天下贞。’”帝说。群臣叹服。〈王弼《老子注》云：“一者，数之始，物之极也。各是一物，所以为主也。各以其一，致此淸、寧、贞。”〉</t>
+  </si>
+  <si>
+    <t>裴楷，司马炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满奋畏风，在晋武帝坐；北窗作琉璃屏，实密似疏，奋有难色。帝笑之。〈荀绰《冀州记》曰：“奋字武秋，髙平人，魏太尉宠之孙也。性淸平有识，自吏部郎出为冀州刺史。”《晋诸公赞》曰：“奋体量淸雅，有曾祖宠之风，迁尚书令，为荀𫖮所害。”〉奋荅曰：“臣犹呉牛，见月而喘。”〈今之水牛，唯生江淮间，故谓之呉牛也。南土多暑，而此牛畏热，见月疑是日，所以见月则喘。〉</t>
+  </si>
+  <si>
+    <t>满奋，司马炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛靓在呉，於朝堂大会。〈《晋诸公赞》曰：“靓字仲思，琅邪人，司空诞少子也。雅正有才望。诞以寿阳叛，遣靓入质於呉，以靓为右将军、大司马。”〉孙皓问：“卿字仲思，为何所思？”对曰：“在家思孝，事君思忠，朋友思信，如斯而已。”</t>
+  </si>
+  <si>
+    <t>诸葛靓，孙皓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡洪〈《洪集录》曰：“洪字叔开，呉郡人，有才辩，初仕呉朝。太康中，本州从事，举秀才。”王隐《晋书》曰：“洪仕至松滋令。”〉赴洛，洛中人问曰：“幕府初开，群公辟命，求英奇於仄陋，采贤㒞於岩穴。君呉楚之士，亡国之餘，有何异才而应斯举？”蔡荅曰：“夜光之珠，不必出於孟津之河；〈旧说云：“隋侯出行，有蛇斩而中断者，侯连而续之，蛇遂得生而去。後衔明月珠以报其德，光明照夜同昼，因曰‘隋珠’。”左思《蜀都赋》所谓“隋侯鄙其夜光也”。〉盈握之璧，不必采於崑崙之山。大禹生於东夷，文王生於西羌，〈按，《孟子》曰：“舜生於诸冯，东夷人也；文王生於岐周，西戎人也。”则东夷是舜非禹也。〉圣贤所出，何必常处？昔武王伐纣，迁顽民於洛邑，〈《尚书》曰：“成周既成，迁殷顽民，作多士。”孔安国注曰：“殷大夫心不则德义之经，故徙於王都，迩教诲也。”〉得无诸君是其苗裔乎？”〈按，华令思举秀才入洛，与王武子相酬对，皆与此言不异，无容二人同有此辞。疑《世说》穿凿也。〉</t>
+  </si>
+  <si>
+    <t>蔡洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大禹，姬昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸名士共至洛水戏。〈《竹林七贤论》曰：“王济诸人尝至洛水解禊事。明日，或问济曰：‘昨遊，有何语议？’济云云。”〉还，乐令〈广也〉问王夷甫曰：“今日戏，乐乎？”〈虞预《晋书》曰：“王衍字夷甫，琅邪临沂人，司徒戎从弟。父乂，平北将军。夷甫蚤知名，以淸虚通理称，仕至太尉，为石勒所害。”〉王曰：“裴僕射善谈名理，混混有雅致；〈《晋惠帝起居注》曰：“裴𬱟字逸民，河东闻喜人，司空秀之少子也。”《冀州记》曰：“𬱟弘济有淸识，稽古善言名理。履行髙整，自少知名。历侍中、尚书左僕射，为赵王伦所害。”〉张茂先论《史》《汉》，靡靡可聽；〈晋阳秋曰：“华博览洽闻，无不贯综。世祖尝问汉事，及建章千门万戸。华画地成图，应对如流，张安世不能过也。”〉我与王安豐〈戎也〉说延陵、子房，亦超超玄箸。”〈《晋诸公赞》曰：“夷甫好尚谈称，为时人物所宗。”〉</t>
+  </si>
+  <si>
+    <t>乐广，王衍，裴頠，张华，王戎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王武子、〈《晋诸公赞》曰：“王济字武子，太原晋阳人，司徒浑第二子也。有俊才，能淸言。起家中书郎，终太僕。”〉孙子荆、〈《文士传》曰：“孙楚字子荆，太原中都人也。”《晋阳秋》曰：“楚，骠骑将军资之孙，南阳太守弘之子。鄕人王济，豪俊公子，为本州大中正，访问弘为鄕里品状，济曰：‘此人非鄕评所能名，吾自状之曰：“天才英特，亮拔不群。”’仕至冯翊太守。”〉各言其土地人物之美。王云：“其地坦而平，其水淡而淸，其人廉且贞。”孙云：“其山㠑巍以嵯峨，其水㳌渫而扬波，其人磊砢而英多。”〈按，《三秦记》、《语林》载蜀人伊籍称呉土地人物，与此语同。〉</t>
+  </si>
+  <si>
+    <t>王济，孙楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐令女適大将军成都王颖。〈虞预《晋书》曰：“乐广字彦辅，南阳人。淸夷沖旷，加有理识。累迁侍中、河南尹。在朝廷用心虚淡，时人重其贞贵，代王戎为尚书令。”《八王故事》曰：“司马颖字叔度，世祖第十九子，封成都王、大将军。”〉王兄长沙王执权於洛，〈《晋百官名》曰：“司马乂字士度，封长沙王。”《八王故事》曰：“世祖第十七子。”〉遂构兵相图。长沙王亲近小人，远外君子，凡在朝者，人怀危惧。乐令既允朝望，加有婚亲，群小谗於长沙。长沙尝问乐令，乐令神色自若，徐荅曰：“岂以五男易一女？”〈《晋阳秋》曰：“成都王之起兵，长沙王猜广，广曰：‘寧以一女而易五男？’乂犹疑之，遂以忧卒。”〉由是释然，无復疑虑。</t>
+  </si>
+  <si>
+    <t>乐广，司马乂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆機诣王武子，〈《晋阳秋》曰：“機字士衡，呉郡人。祖逊，呉丞相。父抗，大司马。機与弟雲並有俊才。司空张华见而说之，曰：‘平呉之利，在获二俊。’”《機别传》曰：“博学善属文，非礼不动。入晋，仕著作郎，至平原内史。”〉武子前置数斛羊酪，指以示陆曰：“卿江东何以敌此？”陆云：“有千里莼羹，但未下盐豉耳！”</t>
+  </si>
+  <si>
+    <t>陆机，王济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中朝有小儿，父病，行乞药。主人问病，曰：“患疟也。”主人曰：“尊侯明德君子，何以病疟？”〈俗传行疟鬼小，多不病巨人。故光武尝谓景丹曰：“尝闻壮士不病疟，大将军反病疟耶？”〉荅曰：“来病君子，所以为疟耳。”</t>
+  </si>
+  <si>
+    <t>小儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔正熊诣都郡。都郡将姓陈，问正熊：“君去崔杼幾世？”荅曰：“民去崔杼，如明府之去陈恒。”〈《晋百官名》曰：“崔豹字正熊，燕国人，惠帝时官至太傅丞。”〉</t>
+  </si>
+  <si>
+    <t>崔豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元帝始过江，〈朱凤《晋书》曰：“帝讳叡，字景文。祖伷，封琅邪王，父恭王瑾嗣。帝袭爵为琅邪王。少而明惠，因乱过江起义，遂即皇帝位。谥法曰：‘始建国都曰元。’”〉谓顾骠骑曰：“寄人国土，心常怀惭。”荣跪对曰：“臣闻王者以天下为家，是以耿亳无定处，〈《帝王世纪》曰：“殷祖乙徙耿，为河所毁，今河东皮氏耿鄕是也。盘庚五迁，復南居亳，今景亳是也。”〉九鼎迁洛邑。〈《春秋传》曰：“武王克商，迁九鼎於洛邑。”今之偃师是也。〉願陛下勿以迁都为念。”</t>
+  </si>
+  <si>
+    <t>司马睿，顾荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庾公造周伯仁，〈虞预《晋书》曰：“周𫖮字伯仁，汝南安城人，扬州刺史浚长子也。”《晋阳秋》曰：“𫖮有风流才气，少知名，正体嶷然，侪辈不敢媟也。汝南贲泰渊通淸操之士，尝叹曰：‘汝颍固多贤士，自顷陵迟，雅道殆衰，今復见周伯仁。伯仁将祛旧风，淸我邦族矣。’举寒素，累迁尚书僕射，为王敦所害。”〉伯仁曰：“君何所欣说而忽肥？”庾曰：“君復何所忧惨而忽瘦？”伯仁曰：“吾无所忧，直是淸虚日来，滓秽日去耳。”</t>
+  </si>
+  <si>
+    <t>庾亮，周顗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过江诸人，毎至美日，辄相邀新亭，藉卉饮宴。〈《丹阳记》曰：“新亭，呉旧立，先基崩沦。隆安中，丹阳尹司马恢之徙创今地。”〉周侯〈𫖮。〉中坐而叹曰：“风景不殊，正自有山河之异。”皆相视流涕，唯王丞相〈导也〉愀然变色曰：“当共戮力王室，克復神州，何至作楚囚相对邪？”〈《春秋传》曰：“楚伐郑，诸侯救之。郑执郧公鍾仪献晋，景公观军府，见而问之曰：‘南冠而絷者为谁？’有司对曰：‘楚囚也。’使税之。问其族，对曰：‘伶人也。’‘能为乐乎？’曰：‘先父之职，敢有二事。’与之琴，操南音。范文子曰：‘楚囚，君子也。乐操土风，不忘旧也。君盍归之？以合晋楚之成。’”〉</t>
+  </si>
+  <si>
+    <t>周顗，王导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫洗马初欲渡江，形神惨悴，语左右云：“见此芒芒，不觉百端交集。苟未免有情，亦復谁能遣此！”〈《晋诸公赞》曰：“卫玠字叔宝，河东安邑人。祖父瓘，太尉。父恒，黄门侍郎。”《玠别传》曰：“玠颖识通达，天韵标令，陈郡谢幼舆敬以亚父之礼。论者以为出王眉子、平子、武子之右。世咸谓‘诸王三子，不如卫家一儿’。娶乐广女。裴叔道曰：‘妻父有冰淸之姿，婿有璧润之望，所谓秦晋之匹也。’为太子洗马。永嘉四年，南至江夏，与兄别於梁里涧，语曰：‘在三之义，人之所重，今日忠臣致身之道，可不勉乎？’行至豫章，乃卒。”〉</t>
+  </si>
+  <si>
+    <t>卫玠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾司空未知名，诣王丞相。丞相小极，对之疲睡。顾思所以叩会之，〈《顾和别传》曰：“和字君孝，呉郡人。祖容，呉荆州刺史。父相，晋临海太守。和总角知名，族人顾荣雅相器爱，曰‘此吾家之骐骥也，必振衰族。’累迁尚书令。”〉因谓同坐曰：“昔毎闻元公〈顾荣〉、道公协赞中宗，保全江表；〈邓粲《晋纪》曰：“导与元帝有布衣之好，知中国将乱，劝帝渡江，求为安东司马，政皆决之，号‘仲父’。晋中兴之功，导实居其首。”〉体小不安，令人喘息。”丞相因觉，谓顾曰：“此子圭璋特达，機警有锋。”</t>
+  </si>
+  <si>
+    <t>顾和，王导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会稽贺生，体识淸远，言行以礼。〈贺循别见〉不徒东南之美，〈《尔雅》曰：“东南之美者，有会稽之竹箭焉。”〉实为海内之秀。</t>
+  </si>
+  <si>
+    <t>贺循</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘琨虽隔阂寇戎，志存本朝，〈王隐《晋书》曰：“琨字越石，中山魏昌人。祖迈，有经国之才。父璠，光禄大夫。琨少称俊朗，累迁司徒长史、尚书右丞。迎大驾於长安，以有殊勋，封广武侯。年三十五，出为并州刺史，为段日䃅所害。”〉谓温峤曰：“班彪识刘氏之復兴，马援知汉光之可辅。〈《汉书·叙传》曰：“彪字叔皮，扶风人，客於天水。陇西隗嚣有窥觎之志，彪作《王命论》以讽之。”《东观汉记》曰：“马援字文渊，茂陵人。从公孙述、隗嚣遊，後见光武曰：‘天下反复，盗名字者不可胜数，今见陛下寥廓大度，同符髙祖，乃知帝王自有真也。’帝甚壮之。”〉今晋阼虽衰，天命未改。吾欲立功於河北，使卿延誉於江南。子其行乎？”温曰：“峤虽不敏，才非昔人，明公以桓文之姿，建匡立之功，岂敢辞命！”〈虞预《晋书》曰：“峤字太真，太原祁人。少标俊淸彻，英颖显名，为司空刘琨左司马。是时二都倾覆，天下大乱，琨闻元皇受命中兴，慷慨幽朔，志存本朝。使峤奉使，峤喟然对曰：‘峤虽乏管张之才，而明公有桓文之志，敢辞不敏，以违髙旨？’以左长史奉使劝进，累迁骠骑大将军。”〉</t>
+  </si>
+  <si>
+    <t>刘琨，温峤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班彪，马援</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温峤初为刘琨使来过江。於时江左营建始尔，纲纪未举。温新至，深有诸虑。既诣王丞相，陈主上幽越，社稷焚灭，山陵夷毁之酷，有黍离之痛。温忠慨深烈，言与泗倶，丞相亦与之对泣。叙情既毕，便深自陈结，丞相亦厚相酬纳。既出，欢然言曰：“江左自有管夷吾，此復何忧？”〈《史记》曰：“管仲夷吾者，颍上人。相齐桓公，九合诸侯，一匡天下。”《语林》曰：“初温奉使劝进，晋王大集宾客见之。温公始入，姿形甚陋，合坐尽惊。既坐，陈说九服分崩，皇室弛绝，晋王君臣莫不歔欷。及言天下不可以无主，闻者莫不踊跃，植髮穿冠。王丞相深相付託。温公既见丞相，便遊乐不住，曰‘既见管仲，天下事无復忧。’”〉</t>
+  </si>
+  <si>
+    <t>温峤，王导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敦兄含为光禄勋。〈《含别传》曰：“含字处弘，琅邪临沂人。累迁徐州刺史、光禄勋，与弟敦作逆，伏诛。”〉敦既逆谋，屯據南州，含委职奔姑孰。〈邓粲《晋纪》曰：“初，王导协赞中兴，敦有方面之功。敦以刘隗为闲己，举兵讨之。故含南奔武昌，朝廷始警备也。”〉王丞相诣阙谢。〈《中兴书》曰：“导从兄敦，举兵讨刘隗，导率子弟二十餘人，旦旦到公车，泥首谢罪。”〉司徒、丞相、扬州官僚问讯，仓卒不知何辞。顾司空时为扬州别驾，援翰曰：“王光禄远避流言，明公蒙尘路次，群下不寧，不审尊体起居何如？”</t>
+  </si>
+  <si>
+    <t>王导，顾和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郗太尉拜司空，语同坐曰：“平生意不在多，値世故纷纭，遂至臺鼎。朱博翰音，实愧於怀。”〈《汉书》曰：“朱博字子元，杜陵人。为丞相，临拜，延登受策，有大声如鐘鸣。上问扬雄，李寻对曰：‘洪範所谓鼓妖者也。人君不聪，空名得进，则有无形之声。’博後坐事自杀。”《故序传》曰：“博之翰音，鼓妖先作。”《易·中孚》曰：“上九，翰音登於天，贞凶。”王弼注曰：“翰，髙飞也。飞者，音飞而实不从也。”〉</t>
+  </si>
+  <si>
+    <t>郗鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髙坐道人不作汉语，或问此意，简文曰：“以简应对之烦。”〈《髙坐别传》曰：“和尚胡名尸黎密，西域人。传云国王子，以国让弟，遂为沙门。永嘉中，始到此土，止於大市中。和尚天姿髙朗，风韵遒迈。丞相王公一见奇之，以为吾之徒也。周僕射领选，抚其背而叹曰：‘若选得此贤，令人无恨。’俄而周侯遇害，和尚对其灵坐，作胡祝数千言，音声髙畅，既而挥涕收涙，其哀乐废兴皆此类。性髙简，不学晋语。诸公与之言，皆因传译。然神领意得，顿在言前。”《塔寺记》曰：“尸黎密冢曰髙坐，在石子冈。常行头陀，卒於梅冈，即葬焉。晋元帝於冢边立寺，因名髙坐。”〉</t>
+  </si>
+  <si>
+    <t>尸黎密多罗，司马昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周僕射雍容好仪形，诣王公，初下车，隐数人，王公含笑看之。既坐，傲然啸咏。王公曰：“卿欲希嵇阮邪？”荅曰：“何敢近舍明公，远希嵇阮！”〈邓粲《晋纪》曰：“伯仁仪容弘伟，善於俛仰应答，精神足以荫映数人。深自持，能致人，而未尝往焉。”〉</t>
+  </si>
+  <si>
+    <t>嵇康，阮籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庾公尝入佛图，见卧佛，〈《涅槃经》云：“如来背痛，於双树闲北首而卧，故後之图绘者为此象。”〉曰：“此子疲於津梁。”於时以为名言。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挚瞻曾作四郡太守、大将军戸曹参军，復出作内史，〈《挚氏世本》曰：“瞻字景游，京兆长安人，太常虞兄子也。父育，凉州刺史。瞻少善属文，起家著作郎。中朝乱，依王敦为戸曹参军。历安豐、新蔡、西阳太守。见敦以故坏裘赐老病外部都督。瞻谏曰‘尊裘虽故，不宜与小吏。’敦曰：‘何为不可？’瞻时因醉，曰：‘若上服皆可用赐，貂蝉亦可赐下乎？’敦曰：‘非喩，所引如此，不堪二千石。’瞻曰：‘瞻视去西阳，如脱屣耳！’敦反，乃左迁随郡内史。”〉年始二十九。尝别王敦，敦谓瞻曰：“卿年未三十，已为万石，亦太蚤！”瞻曰：“方於将军，少为太蚤；比之甘罗，已为太老。”〈《挚氏世本》曰：“瞻髙亮有气节，故以此答敦。後知敦有异志。建兴四年，与第五琦據荆州以距敦，竟为所害。”《史记》曰：“甘罗，秦相茂之孙也。年十二，而秦相吕不韦欲使张唐相燕，唐不肯行，甘罗说而行之。又请车五乘以使赵，还报秦，秦封甘罗为上卿，赐以甘茂田宅。”〉</t>
+  </si>
+  <si>
+    <t>挚瞻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁国杨氏子，九歳，甚聪惠。孔君平〈王隐《晋书》曰：“孔坦字君平，会稽山阴人。善《春秋》，有文辩。历太子舍人，累迁廷尉卿。”〉诣其父，父不在，乃呼儿出，为设果。果有杨梅，孔指以示儿曰：“此是君家果。”儿应声荅曰：“未闻孔雀是夫子家禽。”</t>
+  </si>
+  <si>
+    <t>孔坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔廷尉以裘与从弟沈，〈《孔氏谱》曰：“沈字德度，会稽山阴人。祖父奕，全椒令。父群，鸿胪卿。沈至琅邪王文学。”〉沈辞不受。廷尉曰：“晏平仲之俭，祠其先人，豚肩不掩豆，犹狐裘数十年，〈《刘向别录》曰：“晏平仲名婴，东莱夷维人。事齐灵公、庄公，以节俭力行重於齐。”《礼记》曰：“晏平仲祀其先人，豚肩不掩豆，君子以为俭也。”又曰：“晏子一狐裘三十年，晏子焉知礼？”注：“豚，俎实也。豆，径尺。言併豚之两肩不能掩豆，喩少也。”〉卿復何辞此？”於是受而服之。</t>
+  </si>
+  <si>
+    <t>孔坦，孔沈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晏婴</t>
+  </si>
+  <si>
+    <t>佛图澄与诸石遊，〈《澄别传》曰：“道人佛图澄，不知何许人，出於炖煌，好佛道，出家为沙门。永嘉中，至洛阳，値京师有难，潜遁草泽间。石勒雄异好杀害，因勒大将军郭默略见勒。以麻油涂掌，占见吉凶。数百里外聽浮图铃声，逆知祸福。勒甚敬信之。虎即位，亦师澄，号大和尚。自知终日，开棺无屍，唯袈裟法服在焉。”〉林公曰：“澄以石虎为海鸥鸟。”〈《赵书》曰：“虎字季龙，勒从弟也。征伐毎斩将搴旗。勒死，诛勒诸儿，袭位。”《庄子》曰：“海上之人好鸥者，毎旦之海上，从鸥遊，鸥之至者数百而不止。其父曰‘吾闻鸥鸟从汝遊，取来玩之。’明日之海上，鸥舞而不下。”〉</t>
+  </si>
+  <si>
+    <t>佛图澄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢仁祖年八歳，谢豫章〈鲲子别见〉将送客，尔时语已神悟，自参上流。诸人咸共叹之曰：“年少一坐之颜回。”仁祖曰：“坐无尼父，焉别颜回？”〈《晋阳秋》曰：“谢尚字仁祖，陈郡人，鲲之子也。龆龀丧兄，哀恸过人。及遭父丧，温峤唁之，尚号叫极哀。既而收涕告诉，有异常童。峤奇之，由是知名，仕至镇西将军、豫州刺史。”〉</t>
+  </si>
+  <si>
+    <t>谢尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶公疾笃，都无献替之言，朝士以为恨。〈《陶氏叙》曰：“侃字士衡，其先鄱阳人，後徙寻阳。侃少有远概纲维宇宙之志。察孝廉入洛，司空张华见而谓曰：‘後来匡主寧民，君其人也。’刘弘镇沔南，取为长史，谓侃曰：‘昔吾为羊太傅参佐，见语云：“君後当居身处。”今相观，亦復然矣。’累迁湘广荆三州刺史，加羽葆鼓吹，封长沙郡公、大将军。赞拜不名，剑履上殿。进太尉，赠大司马，谥桓公。”按，王隐《晋书》载侃临终表曰：“臣少长孤寒，始願有限，过蒙先朝历世异恩。臣年垂八十，位极人臣，启手启足，当復何恨！但以餘寇未诛，山陵未復，所以愤慨兼怀，唯此而已！犹冀犬马之齿，尚可少延，欲为陛下北呑石虎，西诛李雄，势遂不振，良图永息。临书振腕，涕泗横流。伏願遴选代人，使必得良才，足以奉宣王猷，遵成志业。则虽死之日，犹生之年。”有表若此，非无献替。〉仁祖闻之曰：“时无竖刁，故不贻陶公话言。”〈《吕氏春秋》曰：“管仲病，桓公问曰：‘子如不讳，谁代子相者？竖刁何如？’管仲曰‘自宫以事君，非人情，必不可用！’後果乱齐。”〉时贤以为德音。</t>
+  </si>
+  <si>
+    <t>竺法深在简文坐，刘尹问：“道人何以遊朱门？”荅曰：“君自见其朱门，贫道如遊蓬戸。”〈《髙逸沙门传》曰：“法师居会稽，皇帝重其风德，遣使迎焉，法师暂出应命。司徒会稽王天性虚澹，与法师结殷勤之欢。师虽升履丹墀，出入朱邸，泯然旷达，不异蓬宇也。”〉或云卞令。〈别见。〉</t>
+  </si>
+  <si>
+    <t>竺法深，刘尹，卞壸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙盛为庾公记室参军，〈《中兴书》曰：“盛字安国，太原中都人。博学强识，历著作郎，浏阳令。庾亮为荆州，以为征西主簿，累迁祕书监。”〉从獵，将其二儿倶行。庾公不知，忽於獵场见齐庄，时年七八歳。庾谓曰：“君亦復来邪？”应声荅曰：“所谓‘无小无大，从公于迈’。”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">庾亮，孙放                                              </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙齐由、齐庄二人，少时诣庾公，公问：“齐由何字？”荅曰：“字齐由。”公曰：“欲何齐邪？”曰：“齐许由。”〈《晋百官名》曰：“孙潜字齐由，太原人。”《中兴书》曰：“潜，盛长子也。豫章太守殷仲堪下讨王国宝，潜时在郡，逼为咨议参军，固辞不就，遂以忧卒。”〉“齐庄何字？”答曰：“字齐庄。”公曰：“欲何齐？”曰：“齐庄周。”公曰：“何不慕仲尼而慕庄周？”对曰：“圣人生知，故难企慕。”庾公大喜小儿对。〈《孙放别传》曰：“放字齐庄，监君次子也。年八歳，太尉庾公召见之。放淸秀，欲观试，乃授纸笔令书，放便自疏名字。公题後问之曰：‘为欲慕庄周邪？’放书答曰：‘意欲慕之。’公曰：‘何故不慕仲尼而慕庄周？’放曰：‘仲尼生而知之，非希企所及；至於庄周，是其次者，故慕耳。’公谓宾客曰：‘王辅嗣应答，恐不能胜之。’卒长沙王相。”〉</t>
+  </si>
+  <si>
+    <t>庾亮，孙潜，孙放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张玄之、顾敷，是顾和中外孙，皆少而聪惠。和並知之，而常谓顾胜，亲重偏至，张颇不懕。〈敷别见。《续晋阳秋》曰：“张玄之字祖希，呉郡太守澄之孙也。少以学显，历吏部尚书，出为冠军将军、呉兴太守。会稽内史谢玄同时之郡，论者以为南北之望。玄之名亚谢玄，时亦称‘南北二玄’，卒於郡。”〉於时张年九歳，顾年七歳，和与倶至寺中。见佛般泥洹像，弟子有泣者，有不泣者，和以问二孙。玄谓“被亲故泣，不被亲故不泣”。敷曰：“不然，当由忘情故不泣，不能忘情故泣。”〈《大智度论》曰：“佛在阴菴罗双树闲入般涅槃，卧北首，大地震动。诸三学人，佥然不乐，郁伊交涕。诸无学人，但念诸法，一切无常。”〉</t>
+  </si>
+  <si>
+    <t>顾和，张玄之，顾敷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庾法畼造庾太尉，握麈尾至佳，公曰：“此至佳，那得在？”法畼曰：“廉者不求，贪者不与，故得在耳。”〈法畼氏族所出未详。法畼著《人物论》，自叙其美云：“悟锐有神，才辞通辩。”〉</t>
+  </si>
+  <si>
+    <t>康法畅，庾亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庾穉恭为荆州，〈《庾翼别传》曰：“翼字穉恭，颍川鄢陵人也。少有大度、时论以经略许之。兄太尉亮薨、朝议推才，乃以翼都督七州。进征南将军、荆州刺史。”〉以毛扇上武帝。武帝疑是故物。〈傅咸《羽扇赋》序曰：“昔呉人直截鸟翼而摇之，风不减方圆二扇，而功无加，然中国莫有生意者。灭呉之後，翕然贵之，无人不用。”按，庾怿以白羽扇献武帝，帝嫌其非新，反之，不闻翼也。〉侍中刘劭曰：〈《文字志》曰：“劭，字彦祖，彭城丛亭人。祖讷，司隶校尉。父松，成皋令。劭博识好学，多艺能，善草隶。初仕领军参军，太傅出东，劭谓京洛必危，乃单马奔扬州。历侍中、豫章太守。”〉“柏梁雲构，工匠先居其下；管弦繁奏，鍾夔先聽其音。〈鍾，鍾期也。夔，舜乐正。〉穉恭上扇，以好不以新。”庾後闻之曰：“此人宜在帝左右。”</t>
+  </si>
+  <si>
+    <t>庾怿，司马衍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何骠骑亡後，〈何充别见。〉徴褚公入。既至石头，王长史、刘尹同诣褚。褚曰：“真长何以处我？”真长顾王曰：“此子能言。”褚因视王，王曰：“国自有周公。”〈《晋阳秋》曰：“充之卒，议者谓太后父裒宜秉朝政，裒自丹徒入朝。吏部尚书刘遐劝裒曰‘会稽王令德，国之周公也，足下宜以大政付之。’裒长史王胡之亦劝归藩，於是固辞归京。”〉</t>
+  </si>
+  <si>
+    <t>褚裒，王胡之，刘惔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓公北征经金城，见前为琅邪时種柳，皆已十围，慨然曰：“木犹如此，人何以堪！”攀枝执条，泫然流涙。〈《桓温别传》曰：“温字元子，谯国龙亢人，汉五更桓荣後也。父彝，有识鑒。温少有豪迈风气，为温峤所知，累迁琅邪内史，进征西大将军，镇西夏。时逆胡未诛，餘烬假息，温亲勒郡卒，建旗致讨，淸荡伊洛，展敬园陵。薨，谥宣武侯。”〉</t>
+  </si>
+  <si>
+    <t>桓温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简文作抚军时，尝与桓宣武倶入朝，更相让在前。宣武不得已而先之，因曰：“伯也执殳，为王前驱。”〈《卫诗》也。殳，长一丈二尺，无刃。〉简文曰：“所谓‘无小无大，从公于迈’。”</t>
+  </si>
+  <si>
+    <t>司马昱，桓温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾悦与简文同年，而髮蚤白。〈《中兴书》曰：“悦字君叔，晋陵人。初为殷浩扬州别驾。浩卒，上疏理浩。或谏以浩为太宗所废，必不依许，悦固争之，浩果得申，物论称之。後至尚书左丞。”〉简文曰：“卿何以先白？”对曰：“蒲柳之姿，望秋而落；松柏之质，凌霜犹茂。”〈顾凯之为父传曰：“君以直道陵迟於世。入见王，王髮无二毛，而君已斑白，问君年，乃曰：‘卿何偏蚤白？’君曰：‘松柏之姿，经霜犹茂；臣蒲柳之质，望秋先零。受命之异也。’王称善久之。”〉</t>
+  </si>
+  <si>
+    <t>顾悦，司马昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓公入峡，绝壁天悬，腾波迅急。〈《晋阳秋》曰：“温以永和二年，率所领七千餘人伐蜀，拜表辄行。”〉迺叹曰：“既为忠臣，不得为孝子，如何？”〈《汉书》曰：“王阳为益州刺史，行部至邛僰九折阪，叹曰：‘奉先人遗体，奈何数乘此险！’以病去官。後王尊为刺史，至其阪，问吏曰：‘非王阳所畏之道邪？’吏曰：‘是！’叱其驭曰：‘驱之，王阳为孝子，王尊为忠臣。’”〉</t>
+  </si>
+  <si>
+    <t>初，荧惑入太微，寻废海西。〈《晋阳秋》曰：“泰和六年闰十月，荧惑守太微端门。十一月，大司马桓温废帝为海西公。”《晋安帝纪》曰：“桓温於枋头奔败，知民望之去也，乃屠袁真於寿阳。既而谓郗超曰：‘足以雪枋头之耻乎？’超曰：‘未厌有识之情也。公六十之年，败於大举，不建髙世之勋，未足以镇厌民望。’因说温以废立之事。时温夙有此谋，深纳超言，遂废海西。”〉简文登阼，復入太微，帝恶之。〈徐广《晋纪》曰：“咸安元年十二月，荧惑逆行入太微，至二年七月，犹在焉。帝惩海西之事，心甚忧之。”〉时郗超为中书在直。〈《中兴书》曰：“超字景兴，髙平人，司空愔之子也。少而卓荦不羁，有旷世之度。累迁中书郎、司徒左长史。”〉引超入曰：“天命脩短，故非所计，政当无復近日事不？”超曰：“大司马方将外固封疆，内镇社稷，必无若此之虑。臣为陛下以百口保之。”帝因诵庾仲初诗〈庾阐《从征诗》也〉曰：“志士痛朝危，忠臣哀主辱。”声甚凄厉。郗受假还东，帝曰：“致意尊公，家国之事，遂至於此！由是身不能以道匡卫，思患预防，愧叹之深，言何能喩？”因泣下流襟。〈《续晋阳秋》曰：“帝外压彊臣，忧愤不得志，在位二年而崩。”〉</t>
+  </si>
+  <si>
+    <t>司马昱，郗超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庾阐</t>
+  </si>
+  <si>
+    <t>简文在暗室中坐，召宣武。宣武至，问上何在？简文曰：“某在斯。”时人以为能。〈《论语》曰：“师冕见，及阶，子曰：‘阶也。’及席，子曰：‘席也。’皆坐，子告之曰：‘某在斯，某在斯。’”注：“历告坐中人也。”〉</t>
+  </si>
+  <si>
+    <t>简文入华林园，顾谓左右曰：“会心处，不必在远。翳然林水，便自有濠濮闲想也。〈濠濮，二水名也。《庄子》曰：“庄子与惠子遊濠梁水上，庄子曰：‘倏鱼出游从容，是鱼乐也。’惠子曰：‘子非鱼，安知鱼之乐邪？’庄子曰：‘子非我，安知我之不知鱼之乐也？’”“庄周钓在濮水，楚王使二大夫造焉，曰：‘願以境内累庄子。’庄子持竿不顾，曰：‘吾闻楚有神龟者，死已三千年矣，巾笥而藏於庙。此寧曳尾於塗中，寧留骨而贵乎？’二大夫曰：‘寧曳尾於塗中。’庄子曰：‘往矣！吾亦寧曳尾於塗中。’”〉觉鸟兽禽鱼，自来亲人。”</t>
+  </si>
+  <si>
+    <t>谢太傅语王右军曰：“中年伤於哀乐，与亲友别，辄作数日恶。”王曰：〈《文字志》曰：“王羲之字逸少，琅邪临沂人。父矿，淮南太守。羲之少朗拔，为叔父廙所赏。善草隶，累迁江州刺史、右军将军、会稽内史。”〉“年在桑楡，自然至此，正赖丝竹陶写。恒恐儿辈觉，损欣乐之趣。”</t>
+  </si>
+  <si>
+    <t>谢安，王羲之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支道林常养数匹马。或言，道人畜马不韵，支曰：“贫道重其神骏。”〈《髙逸沙门传》曰：“支遁字道林，河内林虑人，或曰陈留人，本姓关氏。少而任心独往，风期髙亮，家世奉法。尝於餘杭山沈思道行，泠然独畅。年二十五始释形入道。年五十三终於洛阳。”〉</t>
+  </si>
+  <si>
+    <t>支道林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘尹与桓宣武共聽讲《礼记》。桓云：“时有入心处，便觉咫尺玄门。”刘曰：“此未关至极，自是金华殿之语。”〈《汉书·叙传》曰：“班伯少受诗於师丹。大将军王凤薦伯於成帝，宜劝学，召见宴昵，拜为中常侍。时上方向学，郑宽中、张禹朝夕入说《尚书》、《论语》於金华殿，诏伯受之。”〉</t>
+  </si>
+  <si>
+    <t>刘惔，桓温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊秉为抚军参军，少亡，有令誉。夏侯孝若为之叙，极相讚悼。〈《羊秉叙》曰：“秉字长达，太山平阳人。汉南阳太守续曾孙。大父魏郡府君，即车骑掾元子也。府君夫人郑氏无子，乃养秉。龆龀而佳，小心敬愼。十歳而郑夫人薨，秉思容尽哀，俄而公府掾及夫人並卒，秉群从父率礼相承，人不闲其亲，雍雍如也。仕参抚军将军事，将奋千里之足，挥沖天之翼，惜乎春秋三十有二而卒。昔罕虎死，子产以为无与为善，自夫子之没，有子产之叹矣！亡後有子男又不育，是何行善而祸繁也？岂非司马生之所惑欤？”〉羊权为黄门侍郎，侍简文坐。帝问曰：“夏侯湛〈别见〉作《羊秉叙》绝可想。是卿何物？有後不？”〈羊氏谱曰：“权字道舆，徐州刺史悦之子也。仕至尚书左丞。”〉权潸然对曰：“亡伯令问夙彰，而无有继嗣。虽名播天聽，然胤绝圣世。”帝嗟慨久之。</t>
+  </si>
+  <si>
+    <t>羊权，司马昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊秉，夏侯湛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王长史与刘真长别後相见，〈《王长史别传》曰：“濛字仲祖，太原晋阳人。其先出自周室，经汉魏，世为大族。祖父佐，北军中候。父讷，葉令。濛神气淸韶，年十餘歳，放迈不群。弱冠检尚，风流雅正，外绝荣竞，内寡私慾。辟司徒掾、中书郎，以后父赠光禄大夫。”〉王谓刘曰：“卿更长进。”荅曰：“此若天之自髙耳。”〈《语林》曰：“仲祖语真长曰：‘卿近大进。’刘曰‘卿仰看邪？’王问何意？刘曰：‘不尔，何由测天之髙也。’”〉</t>
+  </si>
+  <si>
+    <t>王濛，刘惔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘尹云：“人想王荆产佳，此想长松下当有淸风耳。”〈荆产，王微小字也。《王氏谱》曰：“微字幼仁，琅邪人。祖父乂，平北将军。父澄，荆州刺史。微历尚书郎、右军司马。”〉</t>
+  </si>
+  <si>
+    <t>刘惔，王微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王仲祖闻蛮语不解，茫然曰：“若使介葛卢来朝，故当不昧此语。”〈《春秋传》曰：“介葛卢来朝鲁，闻牛鸣曰：‘是生三牺，皆用之矣。其音云。’问之而信。”杜预注曰：“介，东夷国。葛卢，其君名也。”〉</t>
+  </si>
+  <si>
+    <t>王濛</t>
+  </si>
+  <si>
+    <t>葛卢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘真长为丹阳尹，许玄度出都就刘宿，〈《续晋阳秋》曰：“许询字玄度，髙阳人，魏中领军允玄孙。总角秀惠，众称神童，长而风情简素，司徒掾辟，不就，蚤卒。”〉床帷新丽，饮食豐甘。许曰：“若保全此处，殊胜东山。”刘曰：“卿若知吉凶由人，吾安得不保此！”〈《春秋传》曰：“吉凶无门，唯人所召。”〉王逸少在坐曰：“令巣许遇稷契，当无此言。”二人並有愧色。</t>
+  </si>
+  <si>
+    <t>刘惔，许询，王羲之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巢父，许由，稷弃，契</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王右军与谢太傅共登冶城。〈《扬州记》曰：“冶城，呉时鼓铸之所。呉平，犹不废。王茂弘所治也。”〉谢悠然远想，有髙世之志。王谓谢曰：“夏禹勤王，手足胼胝；〈《帝王世纪》曰：“禹治洪水，手足胼胝。世传禹病偏枯，足不相过，今称禹歩是也。”〉文王旰食，日不暇给。〈《尚书》曰：“文王自朝至於日昃，不遑暇食。”〉今四郊多垒，〈《礼记》曰：“四郊多垒，卿大夫之辱也。”〉宜人人自效。而虚谈废务，浮文妨要，恐非当今所宜。”谢荅曰：“秦任商鞅，二世而亡，〈《战国策》曰：“卫商鞅，诸庶孽子，名鞅，姓公孙氏。少好刑名学，为秦孝公相，封於商。”〉岂淸言致患邪？”</t>
+  </si>
+  <si>
+    <t>王羲之，谢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏禹，姬昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢太傅寒雪日内集，与儿女讲论文义。俄而雪骤，公欣然曰：“白雪纷纷何所似？”兄子胡儿曰：〈胡儿，谢朗小字也。《续晋阳秋》曰：“朗字长度，安次兄據之长子。安蚤知之。文义艳發，名亚於玄，仕至东阳太守。”〉“撒盐空中差可拟。”兄女曰：“未若柳絮因风起。”公大笑乐。即公大兄无奕女，左将军王凝之妻也。〈《王氏谱》曰：“凝之字叔平，右将军羲之第二子也。历江州刺史、左将军、会稽内史。”《晋安帝纪》曰：“凝之事五斗米道。孙恩之攻会稽，凝之谓民吏曰：‘不须备防，吾已请大道，许遣鬼兵相助，贼自破矣。’既不设备，遂为恩所害。”《妇人集》曰：“谢夫人名道蕴，有文才。所著诗、赋、诔、颂传於世。”〉</t>
+  </si>
+  <si>
+    <t>谢安，谢朗，谢道韫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王中郎令伏玄度、习凿齿〈《王中郎传》曰：“坦之字文度，太原晋阳人。祖东海太守承，淸淡平远。父述，贞贵简正。坦之器度淳深，孝友天至，誉辑朝野，标的当时。累迁侍中、中书令，领北中郎将，徐兖二州刺史。”《中兴书》曰：“伏滔，字玄度，平昌安丘人。少有才学，举秀才。大司马桓温参军，领大著作，掌国史，遊撃将军，卒。习凿齿，字彦威，襄阳人。少以文称，善尺牍。桓温在荆州，辟为从事。历治中别驾，迁荥阳太守。”〉论靑楚人物。〈滔集载其论略曰：“滔以春秋时鲍叔、管仲、隰朋、召忽、轮扁、甯戚、麦丘人、逢丑父、晏婴、涓子；战国时公羊髙、孟轲、邹衍、田单、荀卿、邹奭、莒大夫、田子方、檀子、鲁连、淳于髡、盻子、田光、颜歜、黔子、於陵仲子、王叔、即墨大夫；前汉时伏徴君、终军、东郭先生、叔孙通、万石君、东方朔、安期先生；後汉时大司徒伏三老、江革、逢萌、禽庆、承幼子、徐防、薛方、郑康成、周孟玉、刘祖荣、临孝存、侍其、元矩、孙宾硕、刘仲谋、刘公山、王仪伯、郎宗、祢正平、刘成国；魏时管幼安、邴根矩、华子鱼、徐伟长、任昭先、伏髙阳。此皆靑士有才德者也。凿齿以神农生於黔中，《邵南》咏其美化，春秋称其多才，《汉广》之风，不同《鸡鸣》之篇，子文、叔敖，羞与管仲比德。接舆之歌《凤兮》，《渔父》之咏沧浪，汉阴丈人之折子贡，市南宜僚、屠羊说之不为利回，鲁仲连不及老莱夫妻，田光之於屈原，邓禹、卓茂无敌於天下，管幼安不胜庞公，庞士元不推华子鱼，何邓二尚书，独歩於魏朝，乐令无对於晋世。昔伏羲葬南郡，少昊葬长沙，舜葬零陵。比其人，则准的如此；论其土，则群圣之所葬；考其风，则诗人之所歌；寻其事，则未有赤眉、黄巾之贼。此何如靑州邪？”滔与相往反，凿齿无以对也。〉临成，以示韩康伯。康伯都无言，王曰：“何故不言？”韩曰：“无可无不可。”〈马融注《论语》曰：“唯义所在。”〉</t>
+  </si>
+  <si>
+    <t>王坦之，韩伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏滔，习凿齿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘尹云：“淸风朗月，辄思玄度。”〈《晋中兴士人书》曰：“许珣能淸言，於时士人皆钦慕仰爱之。”〉</t>
+  </si>
+  <si>
+    <t>刘惔，许询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀中郎在京口，〈《晋阳秋》曰：“荀羡字令则，颍川人，光禄大夫崧之子也。淸和有识裁，少以主婿为驸马都尉。是时殷浩参谋百揆，引羡为援，频莅义兴、呉郡，超授北中郎将、徐州刺史，以蕃屏焉。”《中兴书》曰：“羡年二十八，出为徐兖二州。中兴方伯之少，未有若羡者也。”〉登北固望海云：〈《南徐州记》曰：“城西北有别岭入江，三面临水，髙数十丈，号曰北固。”〉“虽未睹三山，便自使人有凌雲意。若秦汉之君，必当褰裳濡足。”〈《史记·封禅书》曰：“蓬莱、方丈、瀛洲此三山，世传在海中，去人不远。尝有至者，言诸仙人不死药在焉。黄金白银为宫阙，草物禽兽尽白，望之如雲。及至，反居水下。欲到，即风引船而去，终莫能至。秦始皇登会稽，並海上，冀遇三神山之奇药。汉武帝既封泰山，无风雨变至，方士更言蓬莱诸药可得，於是上欣然东至海，冀获蓬莱者。”〉</t>
+  </si>
+  <si>
+    <t>荀羡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢公云：“贤圣去人，其间亦迩。”子姪未之许。公叹曰：“若郗超闻此语，必不至河汉。”〈《超别传》曰：“超精於理义，沙门支道林以为一时之俊。”《庄子》曰：“肩吾问於连叔曰：‘吾闻言於接舆，大而无当，往而不反。怪怖其言，犹河汉而无极也。’”〉</t>
+  </si>
+  <si>
+    <t>谢安，郗超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支公好鹤，住剡东𡵙山，〈《支公书》曰：“山去会稽二百里。”〉有人遗其双鹤；少时，翅长欲飞。支意惜之，乃铩其翮。鹤轩翥不能復起，乃舒翼反头视之，如有懊丧意。林曰：“既有凌霄之姿，何肯为人作耳目近玩？”养令翮成，置使飞去。</t>
+  </si>
+  <si>
+    <t>谢中郎经曲阿後湖，问左右：“此是何水？”〈《中兴书》曰：“谢万字万石，太傅安弟也。才气髙俊，蚤知名，历吏部郎、西中郎将、豫州刺史、散骑常侍。”〉荅曰：“曲阿湖。”〈《太康地记》曰：“曲阿本名雲阳，秦始皇以有王气，凿北坑山以败其势，截其直道，使其阿曲，故曰曲阿也。呉还为雲阳，今復名曲阿。”〉谢曰：“故当渊注渟著，纳而不流。”</t>
+  </si>
+  <si>
+    <t>谢万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋武帝毎饷山涛恒少。谢太傅〈安也〉以问子弟，车骑〈玄也〉荅曰：“当由欲者不多，而使与者忘少。”〈谢车骑家传曰：“玄字幼度，镇西奕第三子也。神理明俊，善微言。叔父太傅尝与子姪燕集，问：‘武帝任山公以三事，任以官人。至於赐予，不过斤合。当有旨不？’玄答：‘有辞致也。’”〉</t>
+  </si>
+  <si>
+    <t>谢安，谢玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马炎，山涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢胡儿语庾道季：〈道季，庾龢小字。徐广《晋纪》曰：“龢字道季，太尉亮子也。风情率悟，以文谈致称於时。历仕至丹阳尹，兼中领军。”〉“诸人莫当就卿谈，可坚城垒。”庾曰：“若文度来，我以偏师待之；康伯来，济河焚舟。”〈《春秋传》曰：“秦伯伐晋，济河焚舟。”杜预曰：“示必死。”〉</t>
+  </si>
+  <si>
+    <t>谢朗，庾龢，王坦之，韩伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李弘度常叹不被遇。〈《中兴书》曰：“李充字弘度，江夏郢人也。祖康、父矩，皆有美名。充初辟丞相掾、记室参军，以贫，求剡县，迁大著作、中书郎。”〉殷扬州〈殷浩别见〉知其家贫，问：“君能屈志百里不？”李荅曰：“北门之叹，久已上闻；〈《卫诗》：“北门，刺仕不得志也。”〉穷猿奔林，岂暇择木？”遂授剡县。</t>
+  </si>
+  <si>
+    <t>李充，殷浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王司州至呉兴印渚中看，〈《王胡之别传》曰：“胡之字脩龄，琅邪临沂人，王廙之子也。历呉兴太守，徴侍中、丹阳尹、祕书监，並不就。拜使持节，都督司州诸军事、西中郎将、司州刺史。”《呉兴记》曰：“於潜县东七十里，有印渚，渚傍有白石山，峻壁四十丈。印渚盖众溪之下流也。印渚已上至县，悉石濑恶道，不可行船；印渚已下，水道无险，故行旅集焉。”〉叹曰：“非唯使人情开涤，亦觉日月淸朗。”</t>
+  </si>
+  <si>
+    <t>王胡之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢万作豫州都督，新拜，当西之都邑，相送累日，谢疲顿。於是髙侍中往，〈《中兴书》曰：“髙崧字茂琰，广陵人。父悝，光禄大夫。崧少好学，善史传，累迁吏部郎、侍中，以公累免官。”〉径就谢坐，因问：“卿今仗节方州，当疆理西蕃，何以为政？”谢粗道其意。髙便为谢道形势，作数百语。谢遂起坐。髙去後，谢追曰：“阿酃故麤有才具。”〈阿酃，崧小字也。〉谢因此得终坐。</t>
+  </si>
+  <si>
+    <t>谢万，高崧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁彦伯为谢安南司马，〈安南，谢奉，别见。〉都下诸人送至濑鄕。将别，既自凄惘，叹曰：“江山辽落，居然有万里之势。”〈《续晋阳秋》曰：“袁宏字彦伯，陈郡人，魏郎中令焕六世孙也。祖猷，侍中。父勖，临汝令。宏起家建威参军，安南司马记室。太傅谢安赏宏機捷辩速，自吏部郎出为东阳郡，乃祖之於冶亭，时贤皆集。安欲卒迫试之，执手将别，顾左右取一扇而赠之。宏应声答曰：‘辄当奉扬仁风，慰彼黎庶。’合坐叹其要捷。性直亮，故位不显也。在郡卒。”〉</t>
+  </si>
+  <si>
+    <t>袁宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙绰赋《遂初》，築室畎川，自言见止足之分。〈《中兴书》曰：“绰字兴公，太原中都人。少以文称，历太学博士、大著作、散骑常侍。”《遂初赋》叙曰：“余少慕老庄之道，仰其风流久矣。却感於陵贤妻之言，怅然悟之。乃经始东山，建五亩之宅，带长阜，倚茂林，孰与坐华幕撃鐘鼓者同年而语其乐哉！”〉斋前種一株松，恒自手壅治之。髙世远时亦邻居，〈世远，髙柔字也。别见。〉语孙曰：“松树子非不楚楚可怜，但永无栋梁用耳！”孙曰：“枫柳虽合抱，亦何所施？”</t>
+  </si>
+  <si>
+    <t>孙绰，高柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓征西治江陵城甚丽，〈盛弘之《荆州记》曰：“荆州城临汉江，临江王所治。王被徴，出城北门而车轴折，父老泣曰：‘吾王去不还矣！’从此不开北门。”〉会宾僚出江津望之，云：“若能目此城者有赏。”顾长康时为客，在坐，目曰：“遥望层城，丹楼如霞。”桓即赏以二婢。</t>
+  </si>
+  <si>
+    <t>桓温，顾恺之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子敬语王孝伯曰：“羊叔子自復佳耳，然亦何与人事？”〈《晋诸公赞》曰：“羊祜字叔子，太山平阳人也。世长吏二千石，至祜九世，以淸德称。为儿时，遊汶滨，有行父止而观焉，叹息曰：‘处士大好相，善为之，未六十，当有重功於天下。即富贵，无相忘。’遂去，莫知所在。累迁都督荆州诸军事。自在南夏，呉人说服，称曰羊公，莫敢名者。南州人闻公丧，号哭罢市。”〉故不如铜雀臺上妓。”〈魏武遗令曰：“以吾妾与妓人皆著铜雀臺上，施六尺床穗帷，月朝十五日，辄使向帐作伎。”〉</t>
+  </si>
+  <si>
+    <t>王恭，羊祜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林公见东阳长山曰：“何其坦迤！”〈《会稽土地志》曰：“山靡迤而长，县因山得名。”〉</t>
+  </si>
+  <si>
+    <t>顾长康从会稽还，人问山川之美。顾云：“千岩竞秀，万壑争流，草木蒙笼其上，若雲兴霞蔚。”〈丘渊之《文章录》曰：“顾恺之字长康，晋陵人。父说，尚书左丞。恺之，义熙初为散骑常侍。”〉</t>
+  </si>
+  <si>
+    <t>顾恺之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简文崩，孝武年十餘歳立，至暝不临。〈宋明帝《文章志》曰：“孝武皇帝讳昌明，简文第三子也。初，简文观谶书曰：‘晋氏阼尽昌明。’及帝诞育，东方始明，故因生时以为讳，而相与忘告。简文问之，乃以讳对。简文流涕曰：‘不意我家昌明便出。’帝聪惠，推贤任才，年三十五崩。”〉左右启“依常应临”。帝曰：“哀至则哭，何常之有！”</t>
+  </si>
+  <si>
+    <t>司马曜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孝武将讲《孝经》，谢公兄弟与诸人私庭讲习，〈《续晋阳秋》曰：“寧康三年九月九日，帝讲《孝经》。僕射谢安侍坐，吏部尚书陆纳兼侍中卞耽读，黄门侍郎谢石、吏部袁宏兼执经，中书郎车胤、丹阳尹王混摘句。”〉车武子难苦问谢，〈车胤别见。〉谓袁羊曰：“不问则德音有遗；多问则重劳二谢。”〈袁羊，乔小字也。《袁氏家传》曰：“乔字彦升，陈郡人。父瑰，光禄大夫。乔历尚书郎、江夏相。从桓温平蜀，封湘西伯、益州刺史。”〉袁曰：“必无此嫌。”车曰：“何以知尔？”袁曰：“何尝见明镜疲於屡照，淸流惮於惠风？”</t>
+  </si>
+  <si>
+    <t>车胤，袁乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢安，谢石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子敬云：“从山阴道上行，〈《会稽土地志》曰：“邑在山阴，故以名焉。”〉山川自相映發，使人应接不暇；若秋冬之际，尤难为坏。”〈《会稽郡记》曰：“会稽境特多名山水，峰崿隆峻，吐纳雲雾。松栝枫柏，擢榦竦条，潭壑镜彻，淸流泻注。王子敬见之曰：‘山水之美，使人应接不暇。’”〉</t>
+  </si>
+  <si>
+    <t>谢太傅问诸子姪：“子弟亦何预人事，而正欲使其佳？”诸人莫有言者，车骑荅曰：〈谢玄〉“譬如芝兰玉树，欲使其生於阶庭耳。”</t>
+  </si>
+  <si>
+    <t>道壹道人好整饰音辞，〈王珣《遊严陵濑诗》叙曰：“道壹姓竺氏，名德。”沙门题目曰：“道壹文锋富赡，孙绰为之赞曰：‘驰骋遊说，言固不虚。唯兹壹公，绰然有餘。譬若春圃，载芬载敷。条柯猗蔚，枝榦扶疏。’”〉从都下还东山，经呉中。已而会雪下，未甚寒。诸道人问在道所经。壹公曰：“风霜固所不论，乃先集其惨淡。郊邑正自飘瞥，林岫便已皓然。”</t>
+  </si>
+  <si>
+    <t>竺道壹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张天锡为凉州刺史，称制西隅。既为苻坚所禽，用为侍中。後於寿阳倶败，至都，〈张资《凉州记》曰：“天锡字纯嘏，安定乌氏人，张耳後也。曾祖轨，永嘉中为凉州刺史，値京师大乱，遂據凉土。天锡篡位，自立为凉州牧。苻坚使将姚苌攻没凉州，天锡归长安，坚以为侍中、比部尚书、归义侯。从坚至寿阳，坚军败，遂南归。拜散骑常侍、西平公。”《中兴书》曰：“天锡後以贫拜庐江太守。薨，赠侍中。”〉为孝武所器；毎入，言论无不竟日。颇有嫉之者，於坐问张：“北方何物可贵？”张曰：“桑椹甘香，鸱鸮革响；〈《诗·鲁颂》曰：“翩彼飞鸮，集於泮林。食我桑椹，怀我好音。”〉淳酪养性，人无嫉心。”〈《西河旧事》曰：“河西牛羊肥，酪过精好，但写酪置革上，都不解散也。”〉</t>
+  </si>
+  <si>
+    <t>张天锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾长康拜桓宣武墓，作诗云：“山崩溟海竭，鱼鸟将何依。”〈宋明帝《文章志》曰：“恺之为桓温参军，甚被亲昵。”〉人问之曰：“卿凭重桓乃尔，哭之状其可见乎？”顾曰：“鼻如广莫长风，眼如悬河决溜。”〈《春秋考异邮》曰：“距不周风四十五日，广莫风至。广莫者，精大备也。盖北风也，一日寒风。”〉或曰：“声如震雷破山，涙如倾河注海。”</t>
+  </si>
+  <si>
+    <t>毛伯成既负其才气，常称：“寧为兰摧玉折，不作萧敷艾荣。”〈《征西寮属名》曰：“毛玄字伯成，颍川人。仕至征西行军参军。”〉</t>
+  </si>
+  <si>
+    <t>毛玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范甯作豫章，〈《中兴书》曰：“甯字武子，愼阳县人。博学通览，累迁中书郎、豫章太守。”〉八日请佛有板。众僧疑，或欲作荅。有小沙弥在坐末曰：“世尊默然，则为许可。”众从其义。</t>
+  </si>
+  <si>
+    <t>范宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马太傅斋中夜坐，〈《孝文王传》曰：“王讳道子，简文皇帝第五子也。封会稽王，领司徒、扬州刺史，进太傅。为桓玄所害，赠丞相。”〉於时天月明净，都无纖翳；太傅叹以为佳。谢景重在坐，〈《续晋阳秋》曰：“谢重字景重，陈郡人。父朗，东阳太守。重明秀有才会，终骠骑长史。”〉荅曰：“意谓乃不如微雲点缀。”太傅因戏谢曰：“卿居心不净，乃復强欲滓秽太淸邪？”</t>
+  </si>
+  <si>
+    <t>司马道子，谢重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王中郎甚爱张天锡，问之曰：“卿观过江诸人经纬，江左轨辙，有何伟异？後来之彦，復何如中原？”张曰：“研求幽邃，自王何以还；因时脩制，荀乐之风。”〈荀𫖮、荀勗脩定法制，乐则未闻。〉王曰：“卿知见有餘，何故为苻坚所制？”〈张资《凉州记》曰：“天锡明鑒颖發，英声少著。”〉荅曰：“阳消阴息，故天歩屯蹇；否剥成象，岂足多讥？”</t>
+  </si>
+  <si>
+    <t>王坦之，张天锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何晏，王弼，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢景重女適王孝伯儿，二门公甚相爱美。〈《谢女谱》曰：“重女月镜，適王恭子愔之。”〉谢为太傅长史，被弹；王即取作长史，带晋陵郡。太傅已构嫌孝伯，不欲使其得谢，还取作咨议。外示絷维，而实以乖闲之。及孝伯败後，太傅绕东府城行散，〈《丹阳记》曰：“东府城西，有简文为会稽王时第，东则孝文王道子府。道子领扬州，仍住先舍，故俗称东府。”〉僚属悉在南门要望候拜，时谓谢曰：“王甯异谋，〈阿甯，王恭小字也。〉云是卿为其计。”谢曾无惧色，敛笏对曰：“乐彦辅有言：‘岂以五男易一女？’”太傅善其对，因举酒劝之曰：“故自佳！故自佳！”</t>
+  </si>
+  <si>
+    <t>谢重，司马道子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王恭，乐广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓玄义兴还後，见司马太傅，太傅已醉，坐上多客，问人云：“桓温来欲作贼，如何？”〈《晋安帝纪》曰：“温在姑孰，讽朝廷，求九锡。谢安使吏部郎袁宏具其草，以示僕射王彪之。彪之作色曰：‘丈夫岂可以此事语人邪？’安徐问其计。彪之曰：‘闻其疾已笃，且可缓其事。’安从之，故不行。”〉桓玄伏不得起。谢景重时为长史，举板荅曰：“故宣武公黜昏暗，登圣明，功超伊霍。纷纭之议，裁之圣鑒。”太傅曰：“我知！我知！”即举酒云：“桓义兴，劝卿酒。”桓出谢过。〈檀道鸾论之曰：“道子可谓易於由言，谢重能解纷纭矣。”〉</t>
+  </si>
+  <si>
+    <t>桓玄，司马道子，谢重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣武移镇南州，制街衢平直。人谓王东亭曰：〈《王司徒传》曰：“王珣字元琳，丞相导之孙，领军洽之子也。少以淸秀称。大司马桓温辟为主簿，从讨袁真，封交趾望海县东亭侯，累迁尚书左僕射、领选、进尚书令。”〉“丞相初营建康，无所因承，而制置纡曲，方此为劣。”〈《晋阳秋》曰：“苏峻既诛，大事克平之後，都邑残荒。温峤议徙都豫章，以即豐全。朝士及三呉豪杰，谓可迁都会稽，王导独谓‘不宜迁都。建业，往之秣陵，古者既有帝王所治之表，又孙仲谋、刘玄德倶谓是王者之宅。今虽凋残，宜修劳来旋定之道，镇静群情。且百堵皆作，何患不克復乎！’终至康寧，导之策也。”〉东亭曰：“此丞相乃所以为巧。江左地促，不如中国；若使阡陌条畅，则一览而尽；故纡餘委曲，若不可测。”</t>
+  </si>
+  <si>
+    <t>王珣，王导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓玄诣殷荆州，殷在妾房昼眠，左右辞不之通。桓後言及此事，殷云：“初不眠，纵有此，岂不以‘贤贤易色’也。”〈孔安国注《论语》曰：“言以好色之心好贤人则善。”〉</t>
+  </si>
+  <si>
+    <t>桓玄，殷仲堪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓玄问羊孚：〈《羊氏谱》曰：“孚字子道，泰山人。祖楷，尚书郎。父绥，中书郎。孚历太学博士、州别驾、太尉参军。年四十六卒。”〉“何以共重呉声？”羊曰：“当以其妖而浮。”</t>
+  </si>
+  <si>
+    <t>桓玄，羊孚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢混问羊孚：“何以器举瑚琏？”〈《晋安帝纪》曰：“混字叔源，陈郡人，司空琰少子也。文学砥砺立名。累迁中书令、尚书左僕射。坐党刘毅伏诛。”《论语》：“子贡问曰：‘赐也何如？’子曰：‘汝器也。’曰：‘何器也？’曰：‘瑚琏也。’”郑玄注曰：“黍稷器。夏曰瑚，殷曰琏。”〉羊曰：“故当以为接神之器。”</t>
+  </si>
+  <si>
+    <t>谢混，羊孚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓玄既篡位，後御床微陷，群臣失色。侍中殷仲文进曰：〈《续晋阳秋》曰：“仲文字仲文，陈郡人。祖融，太常。父康，呉兴太守。仲文闻玄平京邑，弃郡投焉。玄甚说之，引为咨议参军。时王谧见礼而不亲，卞範之被亲而少礼。其宠遇隆重，兼於王卞矣。及玄篡位，以佐命亲贵，厚自封崇。舆马器服，穷极绮丽，後房妓妾数十，丝竹不绝音。性甚贪吝，多纳贿赂，家累千金，常若不足。玄既败，先投义军。累迁侍中尚书。以罪伏诛。”〉“当由圣德渊重，厚地所以不能载。”时人善之。</t>
+  </si>
+  <si>
+    <t>桓玄，殷仲文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓玄既篡位，将改置直馆，问左右：“虎贲中郎省，应在何处？”有人荅曰：“无省。”当时殊忤旨。问：“何以知无？”荅曰：“潘岳《秋兴赋》叙曰：‘余兼虎贲中郎将，寓直散骑之省。’〈岳别见。其赋叙曰：“晋十有四年，余年三十二始见二毛，以太尉掾兼虎贲中郎将，寓直散骑之省。髙阁连雲，阳景罕曜。僕野人也，猥厕朝列，譬犹池鱼笼鸟！有江湖山薮之思。於是染翰操纸，慨然而赋。於时秋至，故以秋兴命篇。”〉玄咨嗟称善。〈刘谦之《晋纪》曰：“玄欲復虎贲中郎将，疑应直与不，访之僚佐，咸莫能定。参军刘简之对曰：‘昔潘岳《秋兴赋》叙云：“余兼虎贲中郎将，寓直於散骑之省。”以此言之，是应直也。’玄欢然从之。”此语微异，又答者未知姓名，故详载之。〉</t>
+  </si>
+  <si>
+    <t>桓玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢灵运好戴曲柄笠，〈丘渊之《新集录》曰：“灵运，陈郡阳夏人。祖玄，车骑将军。父涣，祕书郎。灵运历祕书监、侍中、临川内史。以罪伏诛。”〉孔隐士谓曰：“卿欲希心髙远，何不能遗曲盖之貌？”〈宋书曰：“孔淳之字彦深，鲁国人。少以辞荣就约，徴聘无所就。元嘉初，散骑郎徴，不到，隐上虞山。”〉谢荅曰：“将不畏影者，未能忘怀。”〈《庄子》云：“渔父谓孔子曰：‘人有畏影恶迹而去之走者，举足逾数而迹逾多，走逾疾而影不离，自以尚迟，疾走不休，绝力而死。不知处阴以休影，处静以息迹，愚亦甚矣！子脩心守真，还以物与人，则无异矣。不脩身而求之人，不亦外事者乎？’”〉</t>
+  </si>
+  <si>
+    <t>谢灵运，孔淳之</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +1237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +1254,14 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -473,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,6 +1299,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,20 +1597,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="173.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="22.58203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +1627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="200" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -813,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,7 +1661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="175" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,7 +1678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -862,7 +1693,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -879,7 +1710,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,7 +1725,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -909,7 +1740,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,7 +1755,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -939,7 +1770,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -954,7 +1785,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -969,7 +1800,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -984,7 +1815,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="125" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1830,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="175" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1845,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="200" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1860,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="125" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1875,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="200" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="125" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1076,7 +1907,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="50" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1922,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="50" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1937,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="50" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1954,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1969,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +1986,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="175" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +2001,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="150" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +2016,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="175" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +2033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="250" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +2050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="200" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1234,7 +2065,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="125" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +2080,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="125" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1264,7 +2095,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="175" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1281,7 +2112,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +2127,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +2142,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +2159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1343,7 +2174,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1360,7 +2191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +2206,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="175" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +2223,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1407,7 +2238,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +2253,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="175" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +2270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="125" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1454,7 +2285,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="375" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +2302,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="150" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -1486,7 +2317,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="100" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +2332,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +2347,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="250" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -1530,6 +2361,2020 @@
         <v>112</v>
       </c>
       <c r="E48" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3EF012-E510-45EB-BAF8-1A1BA8893935}">
+  <dimension ref="A1:H108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="6">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="6">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="6">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="6">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="6">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="6">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="6">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="6">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="6">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="6">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="6">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="6">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="6">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="6">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="6">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="6">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="6">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="6">
+        <v>28</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="6">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="6">
+        <v>30</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="6">
+        <v>31</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="6">
+        <v>32</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="6">
+        <v>33</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="6">
+        <v>34</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="6">
+        <v>35</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="6">
+        <v>36</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="6">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="6">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="6">
+        <v>39</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="6">
+        <v>40</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="6">
+        <v>41</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="6">
+        <v>42</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="6">
+        <v>43</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="6">
+        <v>45</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="6">
+        <v>46</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="6">
+        <v>47</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="6">
+        <v>48</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="6">
+        <v>49</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="6">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="6">
+        <v>51</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="6">
+        <v>52</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="6">
+        <v>53</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="6">
+        <v>54</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="6">
+        <v>55</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="6">
+        <v>56</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="6">
+        <v>57</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="6">
+        <v>58</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="6">
+        <v>59</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="6">
+        <v>60</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="6">
+        <v>61</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="6">
+        <v>62</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="6">
+        <v>63</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="6">
+        <v>64</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="6">
+        <v>65</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="6">
+        <v>66</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="6">
+        <v>67</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="6">
+        <v>68</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="6">
+        <v>69</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="6">
+        <v>70</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="6">
+        <v>71</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="6">
+        <v>72</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="6">
+        <v>73</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="6">
+        <v>74</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="6">
+        <v>75</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="6">
+        <v>76</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="6">
+        <v>77</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="6">
+        <v>78</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="6">
+        <v>79</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="6">
+        <v>80</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="6">
+        <v>81</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="6">
+        <v>82</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="6">
+        <v>83</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="6">
+        <v>84</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="6">
+        <v>85</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="6">
+        <v>86</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="6">
+        <v>87</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="6">
+        <v>88</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="6">
+        <v>89</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="6">
+        <v>90</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="6">
+        <v>91</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="6">
+        <v>92</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="6">
+        <v>93</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="6">
+        <v>94</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="6">
+        <v>95</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="6">
+        <v>96</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="6">
+        <v>97</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="6">
+        <v>98</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="6">
+        <v>99</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="6">
+        <v>100</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="6">
+        <v>101</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="6">
+        <v>102</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="6">
+        <v>103</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="6">
+        <v>104</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="6">
+        <v>105</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="6">
+        <v>106</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="6">
+        <v>107</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="6">
+        <v>108</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H108" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/shishuoxinyu.xlsx
+++ b/shishuoxinyu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo-explorer-multisheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3920C6C-93E6-4CE6-95E8-D126C4D5461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35842C63-1273-44B8-A664-B9FCE3DAD495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="344">
   <si>
     <t>division</t>
   </si>
@@ -1289,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,9 +1308,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1597,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2370,48 +2367,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3EF012-E510-45EB-BAF8-1A1BA8893935}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H108"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="237.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="4">
+    <row r="1" spans="1:8" ht="100" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="4"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>117</v>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2419,17 +2424,17 @@
         <v>114</v>
       </c>
       <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2437,17 +2442,17 @@
         <v>114</v>
       </c>
       <c r="B4" s="6">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>121</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2455,17 +2460,17 @@
         <v>114</v>
       </c>
       <c r="B5" s="6">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2473,97 +2478,97 @@
         <v>114</v>
       </c>
       <c r="B6" s="6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>124</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="6">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="6">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="6">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="6">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2571,17 +2576,17 @@
         <v>114</v>
       </c>
       <c r="B11" s="6">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2589,17 +2594,17 @@
         <v>114</v>
       </c>
       <c r="B12" s="6">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>140</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2607,37 +2612,37 @@
         <v>114</v>
       </c>
       <c r="B13" s="6">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>141</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B14" s="6">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2645,37 +2650,37 @@
         <v>114</v>
       </c>
       <c r="B15" s="6">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="6">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2683,17 +2688,17 @@
         <v>114</v>
       </c>
       <c r="B17" s="6">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>151</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2701,37 +2706,37 @@
         <v>114</v>
       </c>
       <c r="B18" s="6">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>153</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B19" s="6">
-        <v>19</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2739,17 +2744,17 @@
         <v>114</v>
       </c>
       <c r="B20" s="6">
-        <v>20</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>158</v>
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2757,17 +2762,17 @@
         <v>114</v>
       </c>
       <c r="B21" s="6">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>160</v>
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2775,37 +2780,37 @@
         <v>114</v>
       </c>
       <c r="B22" s="6">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>162</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="6">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2813,17 +2818,17 @@
         <v>114</v>
       </c>
       <c r="B24" s="6">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>167</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2831,17 +2836,17 @@
         <v>114</v>
       </c>
       <c r="B25" s="6">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>169</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2849,17 +2854,17 @@
         <v>114</v>
       </c>
       <c r="B26" s="6">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>171</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2867,37 +2872,37 @@
         <v>114</v>
       </c>
       <c r="B27" s="6">
-        <v>27</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>173</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B28" s="6">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2905,17 +2910,17 @@
         <v>114</v>
       </c>
       <c r="B29" s="6">
-        <v>29</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>178</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2923,17 +2928,17 @@
         <v>114</v>
       </c>
       <c r="B30" s="6">
-        <v>30</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>180</v>
+        <v>29</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2941,37 +2946,37 @@
         <v>114</v>
       </c>
       <c r="B31" s="6">
-        <v>31</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>182</v>
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B32" s="6">
-        <v>32</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2979,17 +2984,17 @@
         <v>114</v>
       </c>
       <c r="B33" s="6">
-        <v>33</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>187</v>
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -2997,17 +3002,17 @@
         <v>114</v>
       </c>
       <c r="B34" s="6">
-        <v>34</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>189</v>
+        <v>33</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3015,37 +3020,37 @@
         <v>114</v>
       </c>
       <c r="B35" s="6">
-        <v>35</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>191</v>
+        <v>34</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B36" s="6">
-        <v>36</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3053,17 +3058,17 @@
         <v>114</v>
       </c>
       <c r="B37" s="6">
-        <v>37</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>196</v>
+        <v>36</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3071,37 +3076,37 @@
         <v>114</v>
       </c>
       <c r="B38" s="6">
-        <v>38</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>198</v>
+        <v>37</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B39" s="6">
-        <v>39</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>202</v>
-      </c>
+      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3109,57 +3114,57 @@
         <v>114</v>
       </c>
       <c r="B40" s="6">
-        <v>40</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>203</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B41" s="6">
-        <v>41</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B42" s="6">
-        <v>42</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>208</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3167,17 +3172,17 @@
         <v>114</v>
       </c>
       <c r="B43" s="6">
-        <v>43</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>209</v>
+        <v>42</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3185,37 +3190,37 @@
         <v>114</v>
       </c>
       <c r="B44" s="6">
-        <v>44</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>211</v>
+        <v>43</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B45" s="6">
-        <v>45</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3223,17 +3228,17 @@
         <v>114</v>
       </c>
       <c r="B46" s="6">
-        <v>46</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5" t="s">
-        <v>216</v>
+        <v>45</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3241,17 +3246,17 @@
         <v>114</v>
       </c>
       <c r="B47" s="6">
-        <v>47</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>218</v>
+        <v>46</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3259,17 +3264,17 @@
         <v>114</v>
       </c>
       <c r="B48" s="6">
-        <v>48</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3277,17 +3282,17 @@
         <v>114</v>
       </c>
       <c r="B49" s="6">
-        <v>49</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="3" t="s">
-        <v>222</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3295,17 +3300,17 @@
         <v>114</v>
       </c>
       <c r="B50" s="6">
-        <v>50</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="3" t="s">
-        <v>224</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3313,17 +3318,17 @@
         <v>114</v>
       </c>
       <c r="B51" s="6">
-        <v>51</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="3" t="s">
-        <v>226</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3331,17 +3336,17 @@
         <v>114</v>
       </c>
       <c r="B52" s="6">
-        <v>52</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="3" t="s">
-        <v>228</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3349,17 +3354,17 @@
         <v>114</v>
       </c>
       <c r="B53" s="6">
-        <v>53</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="3" t="s">
-        <v>230</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3367,17 +3372,17 @@
         <v>114</v>
       </c>
       <c r="B54" s="6">
-        <v>54</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3385,17 +3390,17 @@
         <v>114</v>
       </c>
       <c r="B55" s="6">
-        <v>55</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3403,17 +3408,17 @@
         <v>114</v>
       </c>
       <c r="B56" s="6">
-        <v>56</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="3" t="s">
-        <v>236</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3421,17 +3426,17 @@
         <v>114</v>
       </c>
       <c r="B57" s="6">
-        <v>57</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="3" t="s">
-        <v>238</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3439,17 +3444,17 @@
         <v>114</v>
       </c>
       <c r="B58" s="6">
-        <v>58</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3457,37 +3462,37 @@
         <v>114</v>
       </c>
       <c r="B59" s="6">
-        <v>59</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>242</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B60" s="6">
-        <v>60</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="3" t="s">
-        <v>236</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3495,17 +3500,17 @@
         <v>114</v>
       </c>
       <c r="B61" s="6">
-        <v>61</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3513,17 +3518,17 @@
         <v>114</v>
       </c>
       <c r="B62" s="6">
-        <v>62</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="3" t="s">
-        <v>246</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3531,17 +3536,17 @@
         <v>114</v>
       </c>
       <c r="B63" s="6">
-        <v>63</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="3" t="s">
-        <v>248</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3549,17 +3554,17 @@
         <v>114</v>
       </c>
       <c r="B64" s="6">
-        <v>64</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="3" t="s">
-        <v>250</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3567,37 +3572,37 @@
         <v>114</v>
       </c>
       <c r="B65" s="6">
-        <v>65</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>253</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B66" s="6">
-        <v>66</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="3" t="s">
-        <v>255</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3605,17 +3610,17 @@
         <v>114</v>
       </c>
       <c r="B67" s="6">
-        <v>67</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="3" t="s">
-        <v>257</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3623,77 +3628,77 @@
         <v>114</v>
       </c>
       <c r="B68" s="6">
-        <v>68</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>260</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B69" s="6">
-        <v>69</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B70" s="6">
-        <v>70</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>266</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B71" s="6">
-        <v>71</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="3" t="s">
-        <v>268</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3701,37 +3706,37 @@
         <v>114</v>
       </c>
       <c r="B72" s="6">
-        <v>72</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="6">
-        <v>73</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="3" t="s">
-        <v>273</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3739,17 +3744,17 @@
         <v>114</v>
       </c>
       <c r="B74" s="6">
-        <v>74</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="3" t="s">
-        <v>275</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3757,17 +3762,17 @@
         <v>114</v>
       </c>
       <c r="B75" s="6">
-        <v>75</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="3" t="s">
-        <v>277</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3775,17 +3780,17 @@
         <v>114</v>
       </c>
       <c r="B76" s="6">
-        <v>76</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="3" t="s">
-        <v>248</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3793,17 +3798,17 @@
         <v>114</v>
       </c>
       <c r="B77" s="6">
-        <v>77</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="3" t="s">
-        <v>280</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3811,37 +3816,37 @@
         <v>114</v>
       </c>
       <c r="B78" s="6">
-        <v>78</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>283</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B79" s="6">
-        <v>79</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="3" t="s">
-        <v>285</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3849,17 +3854,17 @@
         <v>114</v>
       </c>
       <c r="B80" s="6">
-        <v>80</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="3" t="s">
-        <v>287</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3867,17 +3872,17 @@
         <v>114</v>
       </c>
       <c r="B81" s="6">
-        <v>81</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="3" t="s">
-        <v>289</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3885,17 +3890,17 @@
         <v>114</v>
       </c>
       <c r="B82" s="6">
-        <v>82</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="3" t="s">
-        <v>291</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3903,17 +3908,17 @@
         <v>114</v>
       </c>
       <c r="B83" s="6">
-        <v>83</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="3" t="s">
-        <v>293</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3921,17 +3926,17 @@
         <v>114</v>
       </c>
       <c r="B84" s="6">
-        <v>84</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="3" t="s">
-        <v>295</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3939,17 +3944,17 @@
         <v>114</v>
       </c>
       <c r="B85" s="6">
-        <v>85</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="3" t="s">
-        <v>297</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3957,37 +3962,37 @@
         <v>114</v>
       </c>
       <c r="B86" s="6">
-        <v>86</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>299</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B87" s="6">
-        <v>87</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="3" t="s">
-        <v>248</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -3995,17 +4000,17 @@
         <v>114</v>
       </c>
       <c r="B88" s="6">
-        <v>88</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="3" t="s">
-        <v>302</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4013,17 +4018,17 @@
         <v>114</v>
       </c>
       <c r="B89" s="6">
-        <v>89</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="3" t="s">
-        <v>304</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4031,37 +4036,37 @@
         <v>114</v>
       </c>
       <c r="B90" s="6">
-        <v>90</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>307</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B91" s="6">
-        <v>91</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4069,17 +4074,17 @@
         <v>114</v>
       </c>
       <c r="B92" s="6">
-        <v>92</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="3" t="s">
-        <v>282</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4087,17 +4092,17 @@
         <v>114</v>
       </c>
       <c r="B93" s="6">
-        <v>93</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="3" t="s">
-        <v>311</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4105,17 +4110,17 @@
         <v>114</v>
       </c>
       <c r="B94" s="6">
-        <v>94</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4123,17 +4128,17 @@
         <v>114</v>
       </c>
       <c r="B95" s="6">
-        <v>95</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="3" t="s">
-        <v>302</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4141,17 +4146,17 @@
         <v>114</v>
       </c>
       <c r="B96" s="6">
-        <v>96</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="3" t="s">
-        <v>316</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4159,17 +4164,17 @@
         <v>114</v>
       </c>
       <c r="B97" s="6">
-        <v>97</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="3" t="s">
-        <v>318</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4177,17 +4182,17 @@
         <v>114</v>
       </c>
       <c r="B98" s="6">
-        <v>98</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="3" t="s">
-        <v>320</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4195,57 +4200,57 @@
         <v>114</v>
       </c>
       <c r="B99" s="6">
-        <v>99</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>323</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B100" s="6">
-        <v>100</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>326</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B101" s="6">
-        <v>101</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="3" t="s">
-        <v>328</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4253,17 +4258,17 @@
         <v>114</v>
       </c>
       <c r="B102" s="6">
-        <v>102</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4271,17 +4276,17 @@
         <v>114</v>
       </c>
       <c r="B103" s="6">
-        <v>103</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="3" t="s">
-        <v>332</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4289,17 +4294,17 @@
         <v>114</v>
       </c>
       <c r="B104" s="6">
-        <v>104</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="3" t="s">
-        <v>334</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4307,17 +4312,17 @@
         <v>114</v>
       </c>
       <c r="B105" s="6">
-        <v>105</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="3" t="s">
-        <v>336</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4325,17 +4330,17 @@
         <v>114</v>
       </c>
       <c r="B106" s="6">
-        <v>106</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="3" t="s">
-        <v>338</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -4343,38 +4348,53 @@
         <v>114</v>
       </c>
       <c r="B107" s="6">
-        <v>107</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>341</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B108" s="6">
+        <v>107</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="6">
         <v>108</v>
       </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="H108" s="3"/>
+      <c r="E109" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/shishuoxinyu.xlsx
+++ b/shishuoxinyu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo-explorer-multisheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35842C63-1273-44B8-A664-B9FCE3DAD495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816EEA1D-74C9-4839-8ECA-0BE2C1C2E2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈寔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>言语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1231,6 +1227,9 @@
   <si>
     <t>谢灵运，孔淳之</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈穉叔</t>
   </si>
 </sst>
 </file>
@@ -1594,20 +1593,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="173.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.58203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="200" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="175" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1689,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1704,10 +1703,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1721,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1737,7 +1736,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1751,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1767,7 +1766,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1782,7 +1781,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1797,7 +1796,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1811,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="125" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +1826,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="175" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1841,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="200" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +1856,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="125" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1872,7 +1871,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="200" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="125" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1904,7 +1903,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +1918,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1933,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1965,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="175" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1998,7 +1997,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="150" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2012,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="175" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="250" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="200" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2061,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="125" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2076,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="125" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2091,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="175" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +2123,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2138,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2170,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2202,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="175" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +2234,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -2250,7 +2249,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="175" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="125" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2281,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="375" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="150" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -2314,7 +2313,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="100" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -2329,7 +2328,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2343,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="250" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -2369,19 +2368,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3EF012-E510-45EB-BAF8-1A1BA8893935}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="237.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="100" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2401,1127 +2400,1127 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="279" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="209.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="7"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="6">
         <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="7"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="7"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="7"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="7"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" s="6">
         <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="7"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="7"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" s="6">
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="7"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="7"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" s="6">
         <v>56</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="7"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="7"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="6">
         <v>58</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="7"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="6">
         <v>60</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="7"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>89</v>
@@ -3531,553 +3530,553 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" s="6">
         <v>62</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="7"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="7"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" s="6">
         <v>64</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="7"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="7"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="7"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B69" s="6">
         <v>68</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" s="6">
         <v>70</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="7"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="232.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" s="6">
         <v>72</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="7"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" s="6">
         <v>74</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="7"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="7"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="6">
         <v>76</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="7"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="7"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" s="6">
         <v>78</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="7"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B81" s="6">
         <v>80</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="7"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" s="6">
         <v>81</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="7"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" s="6">
         <v>82</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="7"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="6">
         <v>83</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="7"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" s="6">
         <v>84</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="7"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86" s="6">
         <v>85</v>
       </c>
       <c r="C86" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="7"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B87" s="6">
         <v>86</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" s="6">
         <v>87</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="7"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="6">
         <v>88</v>
       </c>
       <c r="C89" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="7"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="6">
         <v>89</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="7"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="6">
         <v>90</v>
       </c>
       <c r="C91" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" s="6">
         <v>91</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>94</v>
@@ -4087,312 +4086,312 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" s="6">
         <v>92</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="7"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B94" s="6">
         <v>93</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="7"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="6">
         <v>94</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="7"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" s="6">
         <v>95</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="7"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="6">
         <v>96</v>
       </c>
       <c r="C97" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="7"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" s="6">
         <v>97</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="7"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="6">
         <v>98</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="7"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="6">
         <v>99</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" s="6">
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" s="6">
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="7"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" s="6">
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="7"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" s="6">
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="7"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" s="6">
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="7"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" s="6">
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="7"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" s="6">
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="7"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="6">
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="6">
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="E109" s="4"/>
     </row>

--- a/shishuoxinyu.xlsx
+++ b/shishuoxinyu.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo-explorer-multisheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816EEA1D-74C9-4839-8ECA-0BE2C1C2E2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA23820-FD15-4636-ABBE-F973CA9103AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-1750" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="402">
   <si>
     <t>division</t>
   </si>
@@ -1230,6 +1231,226 @@
   </si>
   <si>
     <t>陈穉叔</t>
+  </si>
+  <si>
+    <t>政事</t>
+  </si>
+  <si>
+    <t>陈仲弓为太丘长，时吏有诈称母病求假，事觉收之，令吏杀焉。主簿请付狱，考众奸。仲弓曰：「欺君不忠，病母不孝；不忠不孝，其罪莫大。考求众奸，岂复过此？」〈陈寔已别见。〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈仲弓为太丘长，有劫贼杀财主，主者捕之。未至发所，道闻民有在草不起子者，回车往治之。主簿曰：「贼大，宜先按讨。」仲弓曰：「盗杀财主，何如骨肉相残？」〈按，后汉时贾彪有此事，不闻寔也。〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈寔</t>
+  </si>
+  <si>
+    <t>贾彪</t>
+  </si>
+  <si>
+    <t>陈元方年十一时，〈陈纪已见。〉候袁公。袁公问曰：「贤家君在太丘，远近称之，何所履行？」元方曰：「老父在太丘，彊者绥之以德，弱者抚之以仁，恣其所安，久而益敬。」〈袁宏《汉纪》曰：「寔为太丘，其政不严而治，百姓敬之。」〉袁公曰：「孤往者尝为邺令，正行此事。不知卿家君法孤？孤法卿父？」〈检众《汉书》，袁氏诸公，未知谁为邺令？故阙其文以待通识者。〉元方曰：「周公、孔子，异世而出，周旋动静，万里如一；周公不师孔子，孔子亦不师周公。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈纪,陈寔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺太傅作呉郡，初不出门。呉中诸强族轻之，乃题府门云：「会稽鸡，不能啼。」〈环济《呉纪》曰：「贺邵字兴伯，会稽山阴人。祖齐，父景，并歴美官。邵歴散骑常侍，出为呉郡太守。后迁太子太傅。」〉贺闻故出行，至门反顾，索笔足之曰：「不可啼，杀呉儿！」于是至诸屯邸，检校诸顾陆役使官兵及藏逋亡，悉以事言上，罪者甚众。陆抗时为江陵都督，〈《呉录》曰：「抗字幼节，呉郡人，丞相逊子，孙策外孙也。为江陵都督，累迁大司马、荆州牧。」〉故下请孙皓，然后得释。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺邵,陆抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山公以器重朝望，年逾七十，犹知管时任。〈虞预《晋书》曰：「山涛字巨源，河内怀人。祖本，郡孝廉。父曜，冤句令。涛蚤孤而贫，少有器量，宿士犹不慢之。年十七，宗人谓宣帝曰：『涛当与景文共纲纪天下者也。』帝戏曰：『卿小族，那得此快人邪？』好庄老，与嵇康善。为河内从事，与石鉴共传宿，涛夜起蹋鉴曰：『今何等时而眠也！知太傅卧何意？』鉴曰：『宰相三日不朝，与尺一令归第，君何虑焉？』涛曰：『咄！石生，无事马蹄闲也。』投传而去，果有曹爽事，遂隐身不交世务。累迁吏部尚书、仆射、太子少傅、司徒。年七十九薨，谥康侯。」〉贵胜年少，若和、裴、王之徒，并共言咏。有署阁柱曰：「阁东，有大牛，和峤鞅，裴楷秋，王济剔嬲不得休。」〈王隐《晋书》曰：「初，涛领吏部，潘岳内非之，密为作谣曰：『阁东，有大牛，王济鞅，裴楷秋，和峤刺促不得休。』」《竹林七贤论》曰：「涛之处选，非望路绝，故贻是言。」〉或云：潘尼作之。〈《文士传》曰：「尼字正叔，荥阳人。祖最，尚书左丞。父满，平原太守。并以文学称。尼少有淸才，文词温雅。初应州辟，终太常卿。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山涛,和峤，裴楷，王济,潘尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾充初定律令，〈《晋诸公赞》曰：「充字公闾，襄陵人。父逵，魏豫州刺史。充起家为尚书，迁廷尉，听讼称平。晋受禅，封鲁郡公。充有才识，明达治体，加善刑法，由此与散骑常侍裴楷共定科令，蠲除密网，以为晋律。薨，赠太宰。」〉与羊祜共咨太傅郑冲。〈王隐《晋书》曰：「冲字文和，荥阳开封人。有核练才，淸虚寡欲，喜论经史，草衣缊袍，不以为忧。累迁司徒、太保。晋受禅，进太傅。」〉冲曰：「皋陶严明之旨，非仆暗懦所探。」羊曰：「上意欲令小加弘润。」冲乃粗下意。〈《续晋阳秋》曰：「初，文帝命荀朂、贾充、裴秀等分定礼仪律令，皆先咨郑冲，然后施行也。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾充，羊祜，郑冲</t>
+  </si>
+  <si>
+    <t>山司徒前后选，殆周遍百官，举无失才。凡所题目，皆如其言。唯用陆亮，是诏所用，与公意异，争之不从。亮亦寻为贿败。〈《晋诸公赞》曰：「亮字长兴，河内野王人，太常陆乂兄也。性髙明而率至，为贾充所亲待。山涛为左仆射领选，涛行业即与充异，自以为世祖所敬，选用之事，与充咨论，充毎不得其所欲。好事者说充：『宜授心腹人为吏部尚书，参同选举。若意不齐，事不得谐，可不召公与选，而实得叙所怀。』充以为然。乃启亮公忠无私。涛以亮将与己异，又恐其协情不允，累启亮可为左丞相，非选官才。世祖不许，涛乃辞疾还家。亮在职果不能允，坐事免官。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山涛，陆亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵇康被诛后，山公举康子绍为秘书丞。〈《山公启事》曰：「诏选秘书丞。涛荐曰：『绍平简温敏，有文思，又晓音，当成济也。犹宜先作秘书郎。』诏曰：『绍如此，便可为丞，不足复为郎也。』」《晋诸公赞》曰：「康遇事后二十年，绍乃为涛所拔。」王隐《晋书》曰：「时以绍父康被法，选官不敢举。年二十八，山涛启用之，世祖发诏，以为秘书丞。」〉绍咨公出处，〈《竹林七贤论》曰：「绍惧不自容，将解褐，故咨之于涛。」〉公曰：「为君思之久矣！天地四时，犹有消息，而况人乎？」〈王隐《晋书》曰：「绍字延祖，雅有文才，山涛启武帝云云。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山涛，嵇绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安期为东海郡，〈《名士传》曰：「王承字安期，太原晋阳人。父湛，汝南太守。承冲淡寡欲，无所循尚。累迁东海内史，为政淸静，吏民怀之。避乱渡江，是时道路寇盗，人怀忧惧，承毎遇艰险，处之怡然。元皇为镇东，引为从事中郎。」〉小吏盗池中鱼，纲纪推之。王曰：「文王之囿，与众共之。〈《孟子》曰：「齐宣王问：『文王之囿，方七十里，有诸？若是其大乎？』对曰：『民犹以为小也。』王曰：『寡人之囿，方四十里，民犹以为大，何邪？』孟子曰：『文王之囿，刍荛者往焉，与民同之，民以为小，不亦宜乎？今王之囿，杀糜鹿者如杀人罪，是以四十里为阱于国中也，民以为大，不亦宜乎？』」〉池鱼复何足惜！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王承</t>
+  </si>
+  <si>
+    <t>姬昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安期作东海郡，吏录一犯夜人来。王问：「何处来？」云：「从师家受书还，不觉日晩。」王曰：「鞭挞宁越以立威名，恐非致理之本。」〈《吕氏春秋》曰：「宁越者，中牟鄙人也。苦耕稼之劳，谓其友曰：『何为可以免此苦也？』其友曰：『莫如学也。学三十歳，则可以达矣。』宁越曰：『请以十五歳。人将休，吾不敢休；人将卧，吾不敢卧。』学十五歳而为周威公之师也。」〉使吏送令归家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁越</t>
+  </si>
+  <si>
+    <t>成帝在石头，〈《晋世谱》曰：「帝讳衍，字世根，明帝太子。年二十二崩。」〉任让在帝前戮侍中钟雅、〈《晋阳秋》曰：「让，乐安人，诸任之后。随苏峻作乱。」《雅别传》曰：「雅字彦胄，颍川长社人，魏太傅钟繇弟仲常曾孙也。少有才志，累迁至侍中。」〉右衞将军刘超，〈《晋阳秋》曰：「超字世逾，琅邪人，汉成阳景王六世孙。封临沂慈鄕侯，遂家焉。父徴为琅邪国上将军。超为县小吏，稍迁记室掾、安东舍人。忠淸愼密，为中宗所拔。自以职在中书，绝不与人交关书疎，闭门不通宾客，家无儋石之储。讨王敦有功，封零阳伯，为义兴太守。而受拜及往还朝，莫有知者，其愼默如此。迁右衞大将军。」〉帝泣曰：「还我侍中！」让不奉诏，遂斩超、雅。〈《雅别传》曰：「苏峻逼主上幸石头，雅与刘超并侍帝侧匡衞，与石头中人密期拔至尊出，事觉被害。」〉事平之后，陶公与让有旧，欲宥之。许柳〈《许氏谱》曰:「柳字季祖，髙阳人。祖允，魏中领军。父猛，吏部郎。」刘谦之《晋纪》曰：「柳妻，祖逖子涣女。苏峻招祖约为逆，约遣柳以众会峻。既克京师，拜丹阳尹。后以罪诛。」〉儿思妣者至佳，诸公欲全之。〈《许氏谱》曰：「永字思妣。」〉若全思妣，则不得不为陶全让，于是欲并宥之。事奏，帝曰：「让是杀我侍中者，不可宥！」诸公以少主不可违，并斩二人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马衍，任让，陶侃，许永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟雅,刘超，许柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王丞相拜扬州，宾客数百人并加沾接，人人有说色。唯有临海一客姓任〈《语林》曰：「任名颙，时官在都，预王公坐。」〉及数胡人为未洽，公因便还到过任边云：「君出，临海便无复人。」任大喜说。因过胡人前弹指云：「兰阇，兰阇。」群胡同笑，四坐并懽。〈《晋阳秋》曰：「王导接诱应会，少有牾者。虽疎交常宾，一见多输写款诚，自谓为导所遇，同之旧暱。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆太尉诣王丞相咨事，过后輙翻异。王公怪其如此，后以问陆。〈《陆玩别传》曰：「玩字士瑶，呉郡呉人。祖瑁，父英，仕郡有誉。玩器量淹雅，累迁侍中、尚书左仆射、尚书令，赠太尉。」〉陆曰：「公长民短，临时不知所言，既后觉其不可耳。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆玩，王导</t>
+  </si>
+  <si>
+    <t>丞相尝夏月至石头看庾公。庾公正料事，丞相云：「暑可小简之。」庾公曰：「公之遗事，天下亦未以为允。」〈《殷羡言行》曰：「王公薨后，庾冰代相，网密刑峻。羡时行，遇收捕者于途，慨然叹曰：『丙吉问牛喘，似不尔！』尝从容谓冰曰：『卿辈自是网目不失，皆是小道小善耳。至如王公，故能行无理事。』谢安石毎叹咏此唱。庾赤玉曾问羡：『王公治何似？讵是所长？』羡曰：『其余令绩，不复称论。然三捉三治，三休三败。』」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王导,庾冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷羡,丙吉,谢安,庾赤玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丞相末年，略不复省事，正封箓诺之。自叹曰：「人言我愦愦，后人当思此愦愦。」〈徐广《歴纪》曰：「导阿衡三世，经纶夷险，政务宽恕，事从简易，故垂遗爱之誉也。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶公性检厉，勤于事。〈《晋阳秋》曰：「侃练核庶事，勤务稼穑，虽戎陈武士，皆劝厉之。有奉馈者，皆问其所由。若力役所致，懽喜慰赐；若他所得，则呵辱还之。是以军民勤于农稼，家给人足。性纤密好问，颇类赵广汉。尝课营种柳，都尉夏施盗拔武昌郡西门所种。侃后自出，驻车施门，问：『此是武昌西门柳，何以盗之？』施惶怖首伏，三军称其明察。侃勤而整，自强不息。又好督劝于人，常云：『民生在勤，大禹圣人，犹惜寸阴，至于凡俗，当惜分阴。岂可游逸，生无益于时，死无闻于后，是自弃也。又老庄浮华，非先王之法言而不敢行。君子当正其衣冠，摄以威仪，何有乱头养望，自谓宏达邪？』」《中兴书》曰：「侃尝检校佐吏，若得樗蒲博弈之具，投之曰：『樗蒲，老子入胡所作，外国戏耳。围棋，尧舜以教愚子。博弈，纣所造。诸君国器，何以为此？若王事之暇，患邑邑者，文士何不读书？武士何不射弓？』谈者无以易也。」〉作荆州时，敕船官悉录锯木屑，不限多少，咸不解此意。后正会，値积雪始晴，听事前除雪后犹湿，于是悉用木屑覆之，都无所妨。官用竹，皆令录厚头，积之如山。后桓宣武伐蜀，装船，悉以作钉。又云：尝发所在竹篙，有一官长连根取之，仍当足，乃超两阶用之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶侃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何骠骑作会稽，〈《晋阳秋》曰：「何充字次道，庐江人。思韵淹通，有文义才情。累迁会稽内史、侍中、骠骑将军、扬州刺史。赠司徒。」〉虞存弟謇作郡主簿，〈《孙统存诔叙》曰：「存字道长，会稽山阴人也。祖阳，散骑常侍。父伟，州西曹。存幼而卓拔，风情髙逸，歴衞军长史、尚书吏部郎。」范汪《棋品》曰：「謇字道真，仕至郡功曹。」〉以何见客劳损，欲白断常客，使家人节量，择可通者作白事成，以见存。存时为何上佐，正与謇共食，语云：「白事甚好，待我食毕作教。」食竟，取笔题白事后云：「若得门庭长如郭林宗者，〈《泰别传》曰：「泰字林宗，有人伦鉴识。题品海内之士，或在幼童，或在里肆，后皆成英彦六十余人。自著书一巻，论取士之本，未行，遭乱亡失。」〉当如所白。汝何处得此人？」謇于是止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何充,虞存,虞謇,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭泰</t>
+  </si>
+  <si>
+    <t>王刘与深公共看何骠骑，骠骑看文书不顾之。〈《晋阳秋》曰：「何充与王蒙、刘惔好尚不同，由此见讥于当世。」〉王谓何曰：「我今故与深公来相看，望卿摆拨常务，应对共言，哪得方低头看此邪？」何曰：「我不看此，卿等何以得存？」诸人以为佳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王濛，刘惔,支道林,何充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓公在荆州，全欲以德被江汉，耻以威刑肃物。〈《温别传》曰：「温以永和元年自徐州迁荆州刺史，在州宽和，百姓安之。」〉令史受杖，正从朱衣上过。桓式年少，从外来，〈式，桓歆小字也。《桓氏谱》曰：「歆字叔道，温第三子，仕至尚书。」〉云：「向从阁下过，见令史受杖，上捎云根，下拂地足。」意讥不著。桓公云：「我犹患其重。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓温,桓歆</t>
+  </si>
+  <si>
+    <t>简文为相，事动经年，然后得过。桓公甚患其迟，常加劝免。太宗曰：「一日万机，那得速！」〈《尚书·皋陶谟》：「一日万机。」孔安国曰：「几，微也。言当戒惧万事之微。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马昱,桓温</t>
+  </si>
+  <si>
+    <t>山遐去东阳，王长史就简文索东阳云：「承藉猛政，故可以和静致治。」〈《东阳记》云：「遐字彦林，河内人。祖涛，司徒。父简，仪同三司。遐歴武陵王友、东阳太守。」《江惇传》曰：「山遐为东阳，风政严苛，多任刑杀，郡内苦之。惇隐东阳，以仁恕怀物，遐感其德，为微损威猛。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王濛，司马昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山遐</t>
+  </si>
+  <si>
+    <t>殷浩始作扬州，〈《浩别传》曰：「浩字渊源，陈郡长平人。祖识，濮阳相。父羡，光禄勋。浩少有重名，仕至扬州刺史、中军将军。」《中兴书》曰：「建元初，庾亮兄弟、何充等相寻薨，太宗以抚军辅政，徴浩为扬州，从民誉也。」〉刘尹行，日小欲晩，便使左右取襆，人问其故？荅曰：「刺史严，不敢夜行。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷浩，刘惔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢公时，兵厮逋亡，多近窜南塘，下诸舫中。或欲求一时搜索，谢公不许，云：「若不容置此辈，何以为京都？」〈《续晋阳秋》曰：「自中原丧乱，民离本域，江左造创，豪族并兼，或客寓流离，名籍不立。太元中，外御强氐，搜简民实，三呉颇加澄检，正其里伍。其中时有山湖遁逸，往来都邑者。后将军安方接客，时人有于坐言：『宜纠舍藏之失者。』安毎以厚德化物，去其烦细。又以强寇入境，不宜加动人情。乃答之云：『卿所忧，在于客耳！然不尔，何以为京都？』言者有惭色。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢安</t>
+  </si>
+  <si>
+    <t>王大为吏部郎，〈王忱已见。〉尝作选草，临当奏，王僧弥来，聊出示之。〈僧弥，王珉小字也。《珉别传》曰：「珉字季琰，琅邪人，丞相导孙，中领军洽少子。有才蓺，善行书，名出兄珣右，累迁侍中、中书令。赠太常。」〉僧弥得便以己意改易所选者近半，王大甚以为佳，更写即奏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王忱,王珉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王东亭与张冠军善。〈张玄已见。〉王既作呉郡，人问小令曰：〈《续晋阳秋》曰：「王献之为中书令，王珉代之，时人曰『大小王令』。」〉「东亭作郡，风政何似？」答曰：「不知治化何如，唯与张祖希情好日隆耳。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王珣，张玄之，王珉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷仲堪当之荆州，王东亭问曰：「德以居全为称，仁以不害物为名。方今宰牧华夏，处杀戮之职，与本操将不乖乎？」殷答曰：「皋陶造刑辟之制，不为不贤；〈《古史考》曰：「庭坚号曰皋陶，舜谋臣也。舜举之于尧，尧令作士，主刑。」〉孔丘居司寇之任，未为不仁。」〈《家语》曰：「孔子自鲁司空为大司寇，三日而诛乱法大夫少正卯。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷仲堪，王珣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皋陶，孔丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1593,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2365,6 +2586,450 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE9305-C10F-44E2-8466-D0787367732C}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="128.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3EF012-E510-45EB-BAF8-1A1BA8893935}">
   <dimension ref="A1:H109"/>
   <sheetViews>

--- a/shishuoxinyu.xlsx
+++ b/shishuoxinyu.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo-explorer-multisheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA23820-FD15-4636-ABBE-F973CA9103AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5AC68F-B0C2-451C-9750-E0445FB99D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-1750" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-1750" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,9 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>德行</t>
-  </si>
-  <si>
     <t>陈仲举言为士则，行为世范，登车揽辔，有澄淸天下之志。〈《汝南先贤传》曰：「陈蕃字仲举，汝南平舆人。有室荒芜不扫除，曰：『大丈夫当为国家扫天下。』値汉桓之末，阉竖用事，外戚豪横。及拜太傅，与大将军窦武谋诛宦官，反为所害。」〉为豫章太守，至，〈《海内先贤传》曰：「蕃为尚书，以忠正忤贵戚，不得在台，迁豫章太守。」〉便问徐孺子所在，欲先看之。〈谢承《后汉书》曰：「徐穉字孺子，豫章南昌人。淸妙髙跱，超世绝俗。前后为诸公所辟，虽不就，及其死，万里赴吊。常豫炙鸡一只，以绵渍酒中，㬥干以裹鸡，径到所赴冢隧外，以水渍绵，斗米饭，白茅为藉，以鸡置前。酹酒毕，留谒即去，不见丧主。」〉主簿白：「群情欲府君先入廨。」陈曰：「武王式商容之闾，席不暇煖。〈许叔重曰：「商容，殷之贤人，老子师也。」车上跽曰式。」〉吾之礼贤，有何不可？」〈袁宏《汉纪》曰：「蕃在豫章，为穉独设一榻，去则悬之，见礼如此。」〉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>言语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>边文礼见袁奉髙〈闳也〉，失次序。〈《文士传》曰：“边让字文礼，陈留人。才俊辩逸，大将军何进闻其名，召署令史，以礼见之。让占对闲雅，声气如流，坐客皆慕之。让出就曹，时孔融、王朗等並前为掾，共书刺从让，让平衡与交接。後为九江太守，为魏武帝所杀。”〉奉髙曰：“昔尧聘许由，面无怍色；〈皇甫谧曰：“由字武仲，阳城槐里人也。尧舜皆师而学事焉，後隐於沛泽之中，尧乃致天下而让焉。由为人据义履方，邪席不坐，邪膳不食，闻尧让而去。其友巣父闻由为尧所让，以为污己，乃临池洗耳。池主怒曰：‘何以污我水？’由於是遁耕於中嶽颍水之阳，箕山之下，终身无经天下色。死葬箕山之巓，在阳城之南十里。尧因就其墓，号曰‘箕山公神’，以配食五嶽，世世奉祀，至今不绝也。”〉先生何为‘颠倒衣裳’？”文礼答曰：“明府初临，尧德未彰，是以贱民颠倒衣裳耳。”〈按：袁闳卒於太尉掾，未尝为汝南，斯说谬矣。〉</t>
   </si>
   <si>
@@ -1233,9 +1226,6 @@
     <t>陈穉叔</t>
   </si>
   <si>
-    <t>政事</t>
-  </si>
-  <si>
     <t>陈仲弓为太丘长，时吏有诈称母病求假，事觉收之，令吏杀焉。主簿请付狱，考众奸。仲弓曰：「欺君不忠，病母不孝；不忠不孝，其罪莫大。考求众奸，岂复过此？」〈陈寔已别见。〉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1450,6 +1440,18 @@
   </si>
   <si>
     <t>皋陶，孔丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政事第三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语第二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德行第一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1814,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1846,736 +1848,736 @@
     </row>
     <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>401</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
+      <c r="A9" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
+      <c r="A10" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
+      <c r="A11" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
+      <c r="A12" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
+      <c r="A13" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
+      <c r="A14" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
+      <c r="A15" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
+      <c r="A16" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
+      <c r="A17" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
+      <c r="A18" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="19" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
+      <c r="A19" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
+      <c r="A20" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
+      <c r="A21" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
+      <c r="A22" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
+      <c r="A23" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
+      <c r="A24" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="25" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
+      <c r="A25" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
+      <c r="A26" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
+      <c r="A27" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
+      <c r="A28" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="29" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
+      <c r="A29" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
+      <c r="A30" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
+      <c r="A31" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
+      <c r="A32" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
+      <c r="A33" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
+      <c r="A34" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
+      <c r="A35" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
+      <c r="A36" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
+      <c r="A37" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="38" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
+      <c r="A38" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>5</v>
+      <c r="A39" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
+      <c r="A40" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
+      <c r="A41" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
+      <c r="A42" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="43" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>5</v>
+      <c r="A43" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="382.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
+      <c r="A44" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="45" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
+      <c r="A45" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>5</v>
+      <c r="A46" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>5</v>
+      <c r="A47" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>5</v>
+      <c r="A48" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -2586,455 +2588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE9305-C10F-44E2-8466-D0787367732C}">
-  <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B16" s="3">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B17" s="3">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B18" s="3">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B20" s="3">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B21" s="3">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B22" s="3">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="3">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" s="3">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B25" s="3">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B26" s="3">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B27" s="3">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3EF012-E510-45EB-BAF8-1A1BA8893935}">
   <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="A2" sqref="A2:A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3067,16 +2625,16 @@
     </row>
     <row r="2" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3085,16 +2643,16 @@
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3103,16 +2661,16 @@
     </row>
     <row r="4" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3121,16 +2679,16 @@
     </row>
     <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3139,16 +2697,16 @@
     </row>
     <row r="6" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3157,19 +2715,19 @@
     </row>
     <row r="7" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -3177,19 +2735,19 @@
     </row>
     <row r="8" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3197,19 +2755,19 @@
     </row>
     <row r="9" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3217,19 +2775,19 @@
     </row>
     <row r="10" spans="1:8" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3237,16 +2795,16 @@
     </row>
     <row r="11" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3255,16 +2813,16 @@
     </row>
     <row r="12" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3273,16 +2831,16 @@
     </row>
     <row r="13" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -3291,19 +2849,19 @@
     </row>
     <row r="14" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3311,16 +2869,16 @@
     </row>
     <row r="15" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3329,19 +2887,19 @@
     </row>
     <row r="16" spans="1:8" ht="279" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -3349,16 +2907,16 @@
     </row>
     <row r="17" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -3367,16 +2925,16 @@
     </row>
     <row r="18" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3385,19 +2943,19 @@
     </row>
     <row r="19" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -3405,16 +2963,16 @@
     </row>
     <row r="20" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -3423,16 +2981,16 @@
     </row>
     <row r="21" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3441,16 +2999,16 @@
     </row>
     <row r="22" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -3459,19 +3017,19 @@
     </row>
     <row r="23" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -3479,16 +3037,16 @@
     </row>
     <row r="24" spans="1:8" ht="209.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3497,16 +3055,16 @@
     </row>
     <row r="25" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3515,16 +3073,16 @@
     </row>
     <row r="26" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3533,16 +3091,16 @@
     </row>
     <row r="27" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3551,19 +3109,19 @@
     </row>
     <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3571,16 +3129,16 @@
     </row>
     <row r="29" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3589,16 +3147,16 @@
     </row>
     <row r="30" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3607,16 +3165,16 @@
     </row>
     <row r="31" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3625,19 +3183,19 @@
     </row>
     <row r="32" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -3645,16 +3203,16 @@
     </row>
     <row r="33" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -3663,16 +3221,16 @@
     </row>
     <row r="34" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3681,16 +3239,16 @@
     </row>
     <row r="35" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3699,19 +3257,19 @@
     </row>
     <row r="36" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -3719,16 +3277,16 @@
     </row>
     <row r="37" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3737,16 +3295,16 @@
     </row>
     <row r="38" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3755,19 +3313,19 @@
     </row>
     <row r="39" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -3775,16 +3333,16 @@
     </row>
     <row r="40" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3793,19 +3351,19 @@
     </row>
     <row r="41" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3813,19 +3371,19 @@
     </row>
     <row r="42" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3833,16 +3391,16 @@
     </row>
     <row r="43" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3851,16 +3409,16 @@
     </row>
     <row r="44" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3869,19 +3427,19 @@
     </row>
     <row r="45" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -3889,16 +3447,16 @@
     </row>
     <row r="46" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3907,16 +3465,16 @@
     </row>
     <row r="47" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3925,16 +3483,16 @@
     </row>
     <row r="48" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="7"/>
@@ -3943,16 +3501,16 @@
     </row>
     <row r="49" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B49" s="6">
         <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="7"/>
@@ -3961,16 +3519,16 @@
     </row>
     <row r="50" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="7"/>
@@ -3979,16 +3537,16 @@
     </row>
     <row r="51" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="7"/>
@@ -3997,16 +3555,16 @@
     </row>
     <row r="52" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="7"/>
@@ -4015,16 +3573,16 @@
     </row>
     <row r="53" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B53" s="6">
         <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="7"/>
@@ -4033,16 +3591,16 @@
     </row>
     <row r="54" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="7"/>
@@ -4051,16 +3609,16 @@
     </row>
     <row r="55" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B55" s="6">
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="7"/>
@@ -4069,16 +3627,16 @@
     </row>
     <row r="56" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="7"/>
@@ -4087,16 +3645,16 @@
     </row>
     <row r="57" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B57" s="6">
         <v>56</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="7"/>
@@ -4105,16 +3663,16 @@
     </row>
     <row r="58" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="7"/>
@@ -4123,16 +3681,16 @@
     </row>
     <row r="59" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B59" s="6">
         <v>58</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="7"/>
@@ -4141,19 +3699,19 @@
     </row>
     <row r="60" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="3"/>
@@ -4161,16 +3719,16 @@
     </row>
     <row r="61" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B61" s="6">
         <v>60</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="7"/>
@@ -4179,16 +3737,16 @@
     </row>
     <row r="62" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="7"/>
@@ -4197,16 +3755,16 @@
     </row>
     <row r="63" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B63" s="6">
         <v>62</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="7"/>
@@ -4215,16 +3773,16 @@
     </row>
     <row r="64" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="7"/>
@@ -4233,16 +3791,16 @@
     </row>
     <row r="65" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B65" s="6">
         <v>64</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="7"/>
@@ -4251,19 +3809,19 @@
     </row>
     <row r="66" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="3"/>
@@ -4271,16 +3829,16 @@
     </row>
     <row r="67" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="7"/>
@@ -4289,16 +3847,16 @@
     </row>
     <row r="68" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="7"/>
@@ -4307,19 +3865,19 @@
     </row>
     <row r="69" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B69" s="6">
         <v>68</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="3"/>
@@ -4327,19 +3885,19 @@
     </row>
     <row r="70" spans="1:8" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="3"/>
@@ -4347,19 +3905,19 @@
     </row>
     <row r="71" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B71" s="6">
         <v>70</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="3"/>
@@ -4367,16 +3925,16 @@
     </row>
     <row r="72" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="7"/>
@@ -4385,19 +3943,19 @@
     </row>
     <row r="73" spans="1:8" ht="232.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B73" s="6">
         <v>72</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="3"/>
@@ -4405,16 +3963,16 @@
     </row>
     <row r="74" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="7"/>
@@ -4423,16 +3981,16 @@
     </row>
     <row r="75" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B75" s="6">
         <v>74</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="7"/>
@@ -4441,16 +3999,16 @@
     </row>
     <row r="76" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="7"/>
@@ -4459,16 +4017,16 @@
     </row>
     <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B77" s="6">
         <v>76</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="7"/>
@@ -4477,16 +4035,16 @@
     </row>
     <row r="78" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="7"/>
@@ -4495,19 +4053,19 @@
     </row>
     <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B79" s="6">
         <v>78</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="3"/>
@@ -4515,16 +4073,16 @@
     </row>
     <row r="80" spans="1:8" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="7"/>
@@ -4533,16 +4091,16 @@
     </row>
     <row r="81" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B81" s="6">
         <v>80</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="7"/>
@@ -4551,16 +4109,16 @@
     </row>
     <row r="82" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B82" s="6">
         <v>81</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="7"/>
@@ -4569,16 +4127,16 @@
     </row>
     <row r="83" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B83" s="6">
         <v>82</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="7"/>
@@ -4587,16 +4145,16 @@
     </row>
     <row r="84" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B84" s="6">
         <v>83</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="7"/>
@@ -4605,16 +4163,16 @@
     </row>
     <row r="85" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B85" s="6">
         <v>84</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="7"/>
@@ -4623,16 +4181,16 @@
     </row>
     <row r="86" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B86" s="6">
         <v>85</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="7"/>
@@ -4641,19 +4199,19 @@
     </row>
     <row r="87" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B87" s="6">
         <v>86</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="3"/>
@@ -4661,16 +4219,16 @@
     </row>
     <row r="88" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B88" s="6">
         <v>87</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="7"/>
@@ -4679,16 +4237,16 @@
     </row>
     <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B89" s="6">
         <v>88</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="7"/>
@@ -4697,16 +4255,16 @@
     </row>
     <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B90" s="6">
         <v>89</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="7"/>
@@ -4715,19 +4273,19 @@
     </row>
     <row r="91" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B91" s="6">
         <v>90</v>
       </c>
       <c r="C91" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="3"/>
@@ -4735,16 +4293,16 @@
     </row>
     <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B92" s="6">
         <v>91</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="7"/>
@@ -4753,16 +4311,16 @@
     </row>
     <row r="93" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B93" s="6">
         <v>92</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="7"/>
@@ -4771,16 +4329,16 @@
     </row>
     <row r="94" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B94" s="6">
         <v>93</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="7"/>
@@ -4789,16 +4347,16 @@
     </row>
     <row r="95" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B95" s="6">
         <v>94</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="7"/>
@@ -4807,16 +4365,16 @@
     </row>
     <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B96" s="6">
         <v>95</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="7"/>
@@ -4825,16 +4383,16 @@
     </row>
     <row r="97" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B97" s="6">
         <v>96</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="7"/>
@@ -4843,16 +4401,16 @@
     </row>
     <row r="98" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B98" s="6">
         <v>97</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="7"/>
@@ -4861,16 +4419,16 @@
     </row>
     <row r="99" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B99" s="6">
         <v>98</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="7"/>
@@ -4879,19 +4437,19 @@
     </row>
     <row r="100" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B100" s="6">
         <v>99</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="3"/>
@@ -4899,19 +4457,19 @@
     </row>
     <row r="101" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B101" s="6">
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="3"/>
@@ -4919,16 +4477,16 @@
     </row>
     <row r="102" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B102" s="6">
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="7"/>
@@ -4937,16 +4495,16 @@
     </row>
     <row r="103" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B103" s="6">
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="7"/>
@@ -4955,16 +4513,16 @@
     </row>
     <row r="104" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B104" s="6">
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="7"/>
@@ -4973,16 +4531,16 @@
     </row>
     <row r="105" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B105" s="6">
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="7"/>
@@ -4991,16 +4549,16 @@
     </row>
     <row r="106" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B106" s="6">
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="7"/>
@@ -5009,16 +4567,16 @@
     </row>
     <row r="107" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B107" s="6">
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="7"/>
@@ -5027,19 +4585,19 @@
     </row>
     <row r="108" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B108" s="6">
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="3"/>
@@ -5047,18 +4605,462 @@
     </row>
     <row r="109" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B109" s="6">
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E109" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE9305-C10F-44E2-8466-D0787367732C}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="128.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E109" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="331.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="382.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="357" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>398</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/shishuoxinyu.xlsx
+++ b/shishuoxinyu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo-explorer-multisheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5AC68F-B0C2-451C-9750-E0445FB99D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011213CD-1CED-4F49-9483-9F083624BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-1750" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,10 +277,6 @@
     <t>桓常侍闻人道深公者，辄曰：「此公既有宿名，加先达知称，又与先人至交，不宜说之。」〈《桓彝别传》曰：「彝字茂伦，谯国龙亢人，汉五更桓荣十世孙也。父颖，有髙名。彝少孤，识鉴明朗，避乱渡江，累迁散骑常侍。」僧法深，不知其俗姓，盖衣冠之胤也。道徽髙扇，誉播山东，为中州刘公弟子。値永嘉乱，投迹杨土，居止京邑，内持法纲，外允具瞻，弘道之法师也。以业慈淸净，而不耐风尘，考室剡县东二百里𡵙山中，同游十余人，髙栖浩然。支道林宗其风范，与髙丽道人书，称其德行。年七十有九，终于山中也。」〉</t>
   </si>
   <si>
-    <t>桓常侍，僧法深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>庾公乘马有的卢，〈《晋阳秋》曰：「庾亮字元规，颍川鄢陵人，明穆皇后长兄也。渊雅有德量，时人方之夏侯太初、陈长文之伦。侍从父琛，避地会稽，端拱嶷然，郡人严惮之。觐接之者，数人而已。累迁征西大将军、荆州刺史。」《伯乐相马经》曰：「马白頟入口至齿者，名曰楡鴈，一名的卢。奴乘客死，主乘弃市，凶马也。」〉或语令卖去。〈《语林》曰：「殷浩劝公卖马。」〉庾云：「卖之必有买者，即复害其主。宁可不安己而移于他人哉？」昔孙叔敖杀两头蛇以为后人，古之美谈，〈贾谊《新书》曰：「孙叔敖为儿时，出道上，见两头蛇，杀而埋之。归见其母，泣。问其故，对曰：『夫见两头蛇者，必死。今出见之，故尔。』母曰：『蛇今安在？』对曰：『恐后人见，杀而埋之矣。』母曰：『夫有阴德，必有阳报，尔无忧也。』后遂兴于楚朝。及长，为楚令尹。」〉效之，不亦达乎！」</t>
   </si>
   <si>
@@ -1452,6 +1448,10 @@
   </si>
   <si>
     <t>德行第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓彝，僧法深</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1816,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="4" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1926,12 +1926,12 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="13" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="14" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="15" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="16" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="17" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="18" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="19" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="24" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="25" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="27" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="29" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="30" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="31" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
@@ -2310,274 +2310,274 @@
         <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>401</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -2625,16 +2625,16 @@
     </row>
     <row r="2" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2643,16 +2643,16 @@
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2661,16 +2661,16 @@
     </row>
     <row r="4" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2679,16 +2679,16 @@
     </row>
     <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="6" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2715,19 +2715,19 @@
     </row>
     <row r="7" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2735,19 +2735,19 @@
     </row>
     <row r="8" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2755,19 +2755,19 @@
     </row>
     <row r="9" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2775,19 +2775,19 @@
     </row>
     <row r="10" spans="1:8" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2795,16 +2795,16 @@
     </row>
     <row r="11" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2813,16 +2813,16 @@
     </row>
     <row r="12" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2831,16 +2831,16 @@
     </row>
     <row r="13" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2849,19 +2849,19 @@
     </row>
     <row r="14" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2869,16 +2869,16 @@
     </row>
     <row r="15" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="16" spans="1:8" ht="279" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2907,16 +2907,16 @@
     </row>
     <row r="17" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2925,16 +2925,16 @@
     </row>
     <row r="18" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2943,19 +2943,19 @@
     </row>
     <row r="19" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2963,16 +2963,16 @@
     </row>
     <row r="20" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="21" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2999,16 +2999,16 @@
     </row>
     <row r="22" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -3017,19 +3017,19 @@
     </row>
     <row r="23" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="24" spans="1:8" ht="209.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3055,16 +3055,16 @@
     </row>
     <row r="25" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3073,16 +3073,16 @@
     </row>
     <row r="26" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3091,16 +3091,16 @@
     </row>
     <row r="27" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3109,19 +3109,19 @@
     </row>
     <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="29" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3147,16 +3147,16 @@
     </row>
     <row r="30" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3165,16 +3165,16 @@
     </row>
     <row r="31" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3183,19 +3183,19 @@
     </row>
     <row r="32" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -3203,16 +3203,16 @@
     </row>
     <row r="33" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -3221,16 +3221,16 @@
     </row>
     <row r="34" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3239,16 +3239,16 @@
     </row>
     <row r="35" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3257,19 +3257,19 @@
     </row>
     <row r="36" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="37" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="38" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3313,19 +3313,19 @@
     </row>
     <row r="39" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -3333,16 +3333,16 @@
     </row>
     <row r="40" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3351,19 +3351,19 @@
     </row>
     <row r="41" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3371,19 +3371,19 @@
     </row>
     <row r="42" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3391,16 +3391,16 @@
     </row>
     <row r="43" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3409,16 +3409,16 @@
     </row>
     <row r="44" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3427,19 +3427,19 @@
     </row>
     <row r="45" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -3447,16 +3447,16 @@
     </row>
     <row r="46" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3465,16 +3465,16 @@
     </row>
     <row r="47" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3483,16 +3483,16 @@
     </row>
     <row r="48" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="7"/>
@@ -3501,16 +3501,16 @@
     </row>
     <row r="49" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B49" s="6">
         <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="7"/>
@@ -3519,16 +3519,16 @@
     </row>
     <row r="50" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="7"/>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="51" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="7"/>
@@ -3555,16 +3555,16 @@
     </row>
     <row r="52" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="7"/>
@@ -3573,16 +3573,16 @@
     </row>
     <row r="53" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B53" s="6">
         <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="7"/>
@@ -3591,16 +3591,16 @@
     </row>
     <row r="54" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="7"/>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="55" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B55" s="6">
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="7"/>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="56" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="7"/>
@@ -3645,16 +3645,16 @@
     </row>
     <row r="57" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B57" s="6">
         <v>56</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="7"/>
@@ -3663,16 +3663,16 @@
     </row>
     <row r="58" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="7"/>
@@ -3681,16 +3681,16 @@
     </row>
     <row r="59" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B59" s="6">
         <v>58</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="7"/>
@@ -3699,19 +3699,19 @@
     </row>
     <row r="60" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="3"/>
@@ -3719,16 +3719,16 @@
     </row>
     <row r="61" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B61" s="6">
         <v>60</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="7"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="62" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="7"/>
@@ -3755,16 +3755,16 @@
     </row>
     <row r="63" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B63" s="6">
         <v>62</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="7"/>
@@ -3773,16 +3773,16 @@
     </row>
     <row r="64" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="7"/>
@@ -3791,16 +3791,16 @@
     </row>
     <row r="65" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B65" s="6">
         <v>64</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="7"/>
@@ -3809,19 +3809,19 @@
     </row>
     <row r="66" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="3"/>
@@ -3829,16 +3829,16 @@
     </row>
     <row r="67" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="7"/>
@@ -3847,16 +3847,16 @@
     </row>
     <row r="68" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="7"/>
@@ -3865,19 +3865,19 @@
     </row>
     <row r="69" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B69" s="6">
         <v>68</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="3"/>
@@ -3885,19 +3885,19 @@
     </row>
     <row r="70" spans="1:8" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="3"/>
@@ -3905,19 +3905,19 @@
     </row>
     <row r="71" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B71" s="6">
         <v>70</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="3"/>
@@ -3925,16 +3925,16 @@
     </row>
     <row r="72" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="7"/>
@@ -3943,19 +3943,19 @@
     </row>
     <row r="73" spans="1:8" ht="232.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B73" s="6">
         <v>72</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="3"/>
@@ -3963,16 +3963,16 @@
     </row>
     <row r="74" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="7"/>
@@ -3981,16 +3981,16 @@
     </row>
     <row r="75" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B75" s="6">
         <v>74</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="7"/>
@@ -3999,16 +3999,16 @@
     </row>
     <row r="76" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="7"/>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B77" s="6">
         <v>76</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="7"/>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="78" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="7"/>
@@ -4053,19 +4053,19 @@
     </row>
     <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B79" s="6">
         <v>78</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="3"/>
@@ -4073,16 +4073,16 @@
     </row>
     <row r="80" spans="1:8" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="7"/>
@@ -4091,16 +4091,16 @@
     </row>
     <row r="81" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B81" s="6">
         <v>80</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="7"/>
@@ -4109,16 +4109,16 @@
     </row>
     <row r="82" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B82" s="6">
         <v>81</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="7"/>
@@ -4127,16 +4127,16 @@
     </row>
     <row r="83" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B83" s="6">
         <v>82</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="7"/>
@@ -4145,16 +4145,16 @@
     </row>
     <row r="84" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B84" s="6">
         <v>83</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="7"/>
@@ -4163,16 +4163,16 @@
     </row>
     <row r="85" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B85" s="6">
         <v>84</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="7"/>
@@ -4181,16 +4181,16 @@
     </row>
     <row r="86" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B86" s="6">
         <v>85</v>
       </c>
       <c r="C86" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="7"/>
@@ -4199,19 +4199,19 @@
     </row>
     <row r="87" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B87" s="6">
         <v>86</v>
       </c>
       <c r="C87" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="3"/>
@@ -4219,16 +4219,16 @@
     </row>
     <row r="88" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B88" s="6">
         <v>87</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="7"/>
@@ -4237,16 +4237,16 @@
     </row>
     <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B89" s="6">
         <v>88</v>
       </c>
       <c r="C89" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="7"/>
@@ -4255,16 +4255,16 @@
     </row>
     <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B90" s="6">
         <v>89</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="7"/>
@@ -4273,19 +4273,19 @@
     </row>
     <row r="91" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B91" s="6">
         <v>90</v>
       </c>
       <c r="C91" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="3"/>
@@ -4293,16 +4293,16 @@
     </row>
     <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B92" s="6">
         <v>91</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="7"/>
@@ -4311,16 +4311,16 @@
     </row>
     <row r="93" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B93" s="6">
         <v>92</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="7"/>
@@ -4329,16 +4329,16 @@
     </row>
     <row r="94" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B94" s="6">
         <v>93</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="7"/>
@@ -4347,16 +4347,16 @@
     </row>
     <row r="95" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B95" s="6">
         <v>94</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="7"/>
@@ -4365,16 +4365,16 @@
     </row>
     <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B96" s="6">
         <v>95</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="7"/>
@@ -4383,16 +4383,16 @@
     </row>
     <row r="97" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B97" s="6">
         <v>96</v>
       </c>
       <c r="C97" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="7"/>
@@ -4401,16 +4401,16 @@
     </row>
     <row r="98" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B98" s="6">
         <v>97</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="7"/>
@@ -4419,16 +4419,16 @@
     </row>
     <row r="99" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B99" s="6">
         <v>98</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="7"/>
@@ -4437,19 +4437,19 @@
     </row>
     <row r="100" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B100" s="6">
         <v>99</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="3"/>
@@ -4457,19 +4457,19 @@
     </row>
     <row r="101" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B101" s="6">
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="3"/>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="102" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B102" s="6">
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="7"/>
@@ -4495,16 +4495,16 @@
     </row>
     <row r="103" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B103" s="6">
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="7"/>
@@ -4513,16 +4513,16 @@
     </row>
     <row r="104" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B104" s="6">
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="7"/>
@@ -4531,16 +4531,16 @@
     </row>
     <row r="105" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B105" s="6">
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="7"/>
@@ -4549,16 +4549,16 @@
     </row>
     <row r="106" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B106" s="6">
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="7"/>
@@ -4567,16 +4567,16 @@
     </row>
     <row r="107" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B107" s="6">
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="7"/>
@@ -4585,19 +4585,19 @@
     </row>
     <row r="108" spans="1:8" ht="93" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B108" s="6">
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="3"/>
@@ -4605,16 +4605,16 @@
     </row>
     <row r="109" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B109" s="6">
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="E109" s="4"/>
     </row>
@@ -4658,408 +4658,408 @@
     </row>
     <row r="2" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B16" s="3">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="357" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B18" s="3">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B23" s="3">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B24" s="3">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25" s="3">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B26" s="3">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B27" s="3">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/shishuoxinyu.xlsx
+++ b/shishuoxinyu.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo-explorer-multisheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011213CD-1CED-4F49-9483-9F083624BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B6D04-A315-4B41-BB8A-564FF26639E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-1750" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="554">
   <si>
     <t>division</t>
   </si>
@@ -1452,6 +1453,563 @@
   </si>
   <si>
     <t>桓彝，僧法深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文學第四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑玄在马融门下，〈《融自叙》曰：「融字季长，右扶风茂陵人。少而好问，学无常师。大将军邓骘召为舍人，弃，游武都。会羌虏起，自关以西道断。融以谓古人有言：『左手据天下之图，而右手刎其喉，愚夫不为。何则？生贵于天下也。岂以曲俗咫尺为羞，灭无限之身哉？』因往应之，为校书郎，出为南郡太守。」〉三年不得相见，髙足弟子传授而已。尝算浑天不合，诸弟子莫能解。或言玄能者，融召令算，一转便决，众咸骇服。及玄业成，辞归，既而融有「礼乐皆东」之叹。〈《髙士传》曰：「玄字康成，北海髙密人。八世祖崇，汉尚书。」《玄别传》曰：「玄少好学书数，十三诵五经，好天文占候，风角隐术。年十七，见大风起，诣县曰：『某时当有火灾。』至时果然，智者异之。年二十一，博极群书，精暦数图纬之言，兼精算术。遂去吏，师故兖州刺史第五元。先就东郡张恭祖受《周礼》、《礼记》、《春秋传》。周流博观，毎经歴山川，及接颜一见，皆终身不忘。扶风马季长以英儒著名，玄往从之，参考同异。季长后戚，嫚于待士，玄不得见，住左右，自起精庐，既因绍介得通。时涿郡卢子干为门人冠首，季长又不解剖裂七事，玄思得五，子干得二。季长谓子干曰：『吾与汝皆弗如也。』季长临别，执玄手曰：『大道东矣，子勉之！』后遇党锢，隐居著述，凡百余万言。大将军何进辟玄，乃缝掖相见。玄长八尺余，须眉美秀，姿容甚伟。进待以宾礼，授以几杖。玄多所匡正，不用而退。袁绍辟玄，及去，饯之城东，欲玄必醉。会者三百余人，皆离席奉觞，自旦及莫，度玄饮三百余桮，而温克之容，终日无怠。献帝在许都，徴为大司农，行至元城卒。」〉恐玄擅名而心忌焉。玄亦疑有追，乃坐桥下，在水上据屐。融果转式逐之，告左右曰：「玄在土下水上而据木，此必死矣。」遂罢追，玄竟以得免。〈马融海内大儒，被服仁义。郑玄名列门人，亲传其业，何猜忌而行鸩毒乎？委巷之言，贼夫人之子。〉</t>
+  </si>
+  <si>
+    <t>郑玄欲注《春秋传》，尚未成时，行与服子愼遇宿客舍，先未相识，服在外车上与人说己注传意。〈《汉南纪》曰：「服虔字子愼，河南荥阳人。少行淸苦，为诸生，尤明《春秋左氏传》，为作训解。举孝廉，为尚书郎、九江太守。」〉玄听之良久，多与己同。玄就车与语曰：「吾久欲注，尚未了。听君向言，多与吾同。今当尽以所注与君。」遂为服氏注。</t>
+  </si>
+  <si>
+    <t>郑玄家奴婢皆读书。尝使一婢，不称旨，将挞之。方自陈说，玄怒，使人曳箸泥中。须臾，复有一婢来，问曰：「胡为乎泥中？」〈《衞·式微》诗也。毛公曰：「泥中，衞邑名也。」〉荅曰：「薄言往愬，逢彼之怒。」〈衞邶《柏舟》之诗。〉</t>
+  </si>
+  <si>
+    <t>服虔既善《春秋》，将为注，欲参考同异，闻崔烈集门生讲传，〈挚虞《文章志》曰：「烈字威考，髙阳安平人，骃之孙，瑗之兄子也。灵帝时，官至司徒、太尉，封阳平亭侯。」〉遂匿姓名，为烈门人赁作食。毎当至讲时，輙窃听戸壁间。既知不能逾己，稍共诸生叙其短长。烈闻，不测何人，然素闻虔名，意疑之。明蚤往，及未寤，便呼：「子愼！子愼！」虔不觉惊应，遂相与友善。</t>
+  </si>
+  <si>
+    <t>钟会撰《四本论》，始毕，甚欲使嵇公一见。置怀中，既定，畏其难，怀不敢出，于戸外遥掷，便回急走。〈《三国志·魏志》曰：「会论才性同异，传于世。『四本』者：言才性同，才性异，才性合，才性离也。尚书傅嘏论同，中书令李丰论异，侍郎钟会论合，屯骑校尉王广论离。文多不载。」〉</t>
+  </si>
+  <si>
+    <t>何晏为吏部尚书，有位望，时谈客盈坐，〈《文章叙录》曰：「晏能淸言，而当时权势，天下谈士，多宗尚之。」《魏氏春秋》曰：「晏少有异才，善谈《易》《老》。」〉王弼未弱冠，往见之。晏闻弼名，〈《弼别传》曰：「弼字辅嗣，山阳髙平人。少而察惠，十余歳便好《庄》《老》。通辩能言，为傅嘏所知。吏部尚书何晏甚奇之，题之曰：『后生可畏。若斯人者，可与言天人之际矣！』以弼补台郎。弼事功雅非所长，益不留意，颇以所长笑人，故为时士所嫉。又为人浅而不识物情。初与王黎、荀融善，黎夺其黄门郎，于是恨黎，与融亦不终好。正始中以公事免。其秋遇疠疾亡，时年二十四。弼之卒也，晋景帝嗟叹之累日，曰：『天丧予！』其为髙识悼惜如此。」〉因条向者胜理语弼曰：「此理仆以为极，可得复难不？」弼便作难，一坐人便以为屈，于是弼自为客主数番，皆一坐所不及。</t>
+  </si>
+  <si>
+    <t>何平叔注《老子》，始成，诣王辅嗣。见王注精奇，迺神伏曰：「若斯人，可与论天人之际矣！」因以所注为《道德二论》。〈《魏氏春秋》曰：「弼论道约美不如晏，自然出拔过之。」〉</t>
+  </si>
+  <si>
+    <t>王辅嗣弱冠诣裴徽，〈《永嘉流人名》曰：「徽字文季，河东闻喜人，太常潜少弟也。仕至冀州刺史。」〉徽问曰：「夫无者，诚万物之所资，圣人莫肯致言，而老子申之无已，何邪？」〈《弼别传》曰：「弼父为尚书郎，裴徽为吏部郎，徽见异之，故问。」〉弼曰：「圣人体无，无又不可以训，故言必及有；《老》《庄》未免于有，恒训，其所不足。」</t>
+  </si>
+  <si>
+    <t>傅嘏善言虚胜，〈《魏志》曰：「嘏字兰硕，北地泥阳人，傅介子之后也。累迁河南尹、尚书。嘏尝论才性同异，钟会集而论之。」《傅子》曰：「嘏既达治好正，而有淸理识要，如论才性，原本精微，鲜能及之。司隶钟会年甚少，嘏以明知交会。」〉荀粲谈尚玄远。〈《粲别传》曰：「粲字奉倩，颍川颍阴人，太尉彧少子也。粲诸兄儒术论议各知名。粲能言玄远，常以子贡称『夫子之言性与天道，不可得而闻也』，然则六籍虽存，固圣人之糠秕。能言者不能屈。」〉毎至共语，有争而不相喩。裴冀州释二家之义，通彼我之怀，常使两情皆得，彼此倶畅。〈《粲别传》曰：「粲太和初到京邑，与傅嘏谈，嘏善名理，而粲尚玄远，宗致虽同，仓卒时或格而不相得意。裴徽通彼我之怀，为二家释。顷之，粲与嘏善。」《管辂传》曰：「裴使君有髙才逸度，善言玄妙也。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何晏注《老子》未毕，见王弼自说注《老子》旨。何意多所短，不复得作声，但应诺诺。遂不复注，因作《道德论》。〈《文章叙录》曰：「自儒者论以老子非圣人，绝礼弃学。晏说与圣人同，著论行于世也。」〉</t>
+  </si>
+  <si>
+    <t>中朝时，有怀道之流，有诣王夷甫咨疑者。値王昨已语多，小极，不复相酬荅，乃谓客曰：「身今少恶，裴逸民亦近在此，君可往问。」〈《晋诸公赞》曰：「裴𬱟谈理，与王夷甫不相推下。」〉</t>
+  </si>
+  <si>
+    <t>裴成公作《崇有论》，时人攻难之，莫能折。唯王夷甫来，如小屈。时人即以王理难裴，理还复申。〈《晋诸公赞》曰：「自魏太常夏侯玄、歩兵校尉阮籍等，皆著《道德论》。于时侍中乐广、吏部郎刘汉亦体道而言约，尚书令王夷甫讲理而才虚，散骑常侍戴奥以学道为业，后进庾敳之徒皆希慕简旷。𬱟疾世俗尚虚无之理，故著《崇有》二论以折之。才博喩广，学者不能究。后乐广与𬱟淸闲欲说理，而𬱟辞喩丰博，广自以体虚无，笑而不复言。」《惠帝起居注》曰：「𬱟著二论以规虚诞之弊。文词精富，为世名论。」〉</t>
+  </si>
+  <si>
+    <t>诸葛厷年少不肯学问。始与王夷甫谈，便已超诣。王叹曰：「卿天才卓出，若复小加研寻，一无所愧。」厷后看《庄》《老》，更与王语，便足相抗衡。〈王隐《晋书》曰：「厷字茂远，琅邪人，魏雍州刺史绪之子。有逸才，仕至司空主簿。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衞玠总角时问乐令「梦」，乐云：「是想。」衞曰：「形神所不接，而梦岂是想邪？」乐云：「因也。未尝梦乘车入鼠穴，捣噉铁杵，皆无想无因故也。」〈《周礼》有六梦：一曰正梦，谓无所感动，平安而梦也。二曰噩梦，谓惊愕而梦也。三曰思梦，谓觉时所思念也。四曰寤梦，谓觉时道之而梦也。五曰喜梦，谓喜说而梦也。六曰惧梦，谓恐惧而梦也。按，乐所言「想」者，盖思梦也。「因」者，盖正梦也。〉衞思因，经日不得，遂成病。乐闻，故命驾为剖析之。衞即小差。乐叹曰：「此儿胸中当必无膏肓之疾！」〈《春秋传》曰：「晋景公有疾，求医于秦，秦伯使医缓为之。未至，公梦疾为二竖子。曰：『彼，良医也。惧伤我焉！』其一曰：『居肓之上，膏之下，若我何？』医至，曰：『疾不可为也！在肓之上，膏之下，攻之不可达，刺之不可及，药不至焉。』公曰：『良医也。』」注：「肓，鬲也。心下为膏。」〉</t>
+  </si>
+  <si>
+    <t>庾子嵩读《庄子》，开巻一尺许便放去，曰：「了不异人意。」〈《晋阳秋》曰：「庾敳字子嵩，颍川人，侍中峻第三子。恢廓有度量，自谓是老庄之徒。曰：『昔未读此书，意尝谓至理如此。今见之，正与人意暗同。』仕至豫州长史。」〉</t>
+  </si>
+  <si>
+    <t>客问乐令旨「不至」者，乐亦不复剖析文句，直以麈尾柄确几曰：「至不？」客曰：「至！」乐因又举麈尾曰：「若至者，那得去？」〈夫藏舟潜往，交臂恒谢，一息不留，忽焉生灭。故飞鸟之影，莫见其移；驰车之轮，曾不掩地。是以去不去矣，庸有至乎？至不至矣，庸有去乎？然则前至不异后至，至名所以生；前去不异后去，去名所以立。今天下无去矣，而去者非假哉？既为假矣，而至者岂实哉？〉于是客乃悟服。乐辞约而旨达，皆此类。</t>
+  </si>
+  <si>
+    <t>初，注《庄子》者数十家，莫能究其旨要。向秀于旧注外为解义，妙析奇致，大畅玄风。〈《秀别传》曰：「秀与嵇康、吕安为友，趣舍不同。嵇康傲世不羁，安放逸迈俗，而秀雅好读书。二子颇以此嗤之。后秀将注《庄子》，先以告康安，康安咸曰：『此书讵复须注？徒弃人作乐事耳！』及成，以示二子。康曰：『尔故复胜不？』安乃惊曰：『庄周不死矣！』后注《周易》，大义可观，而与汉世诸儒互有彼此，未若隐庄之绝伦也。」《秀本传》或言，秀游托数贤，萧屑卒歳，都无注述。唯好《庄子》，聊应崔譔所注，以备遗忘云。《竹林七贤论》云：「秀为此义，读之者无不超然，若已出尘埃而窥绝冥，始了视听之表。有神德玄哲，能遗天下，外万物。虽复使动竞之人顾观所徇，皆怅然自有振拔之情矣。」〉唯《秋水》、《至乐》二篇未竟而秀卒。秀子幼，义遂零落，然犹有别本。郭象者，为人薄行，有隽才。〈《文士传》曰：「象字子玄，河南人。少有才理，慕道好学，托志《老》《庄》。时人咸以为王弼之亚，辟司空掾、太傅主簿。」〉见秀义不传于世，遂窃以为己注。乃自注《秋水》、《至乐》二篇，又易《马蹄》一篇，其余众篇，或定点文句而已。〈《文士传》曰：「象作《庄子注》，最有淸辞遒旨。」〉后秀义别本出，故今有向郭二《庄》，其义一也。</t>
+  </si>
+  <si>
+    <t>阮宣子有令闻，太尉王夷甫见而问曰：「《老》《庄》与圣教同异？」对曰：「将无同！」太尉善其言，辟之为掾。世谓「三语掾」。衞玠嘲之曰：「一言可辟，何假于三？」宣子曰：「苟是天下人望，亦可无言而辟，复何假一？」遂相与为友。〈《名士传》曰：「阮修字宣子，陈留尉氏人。好《老》《易》，能言理。不喜见俗人，时误相逢，即舍去。傲然无营，家无儋石之储，晏如也。琅邪王处仲为鸿胪卿，谓曰：『鸿胪丞差有禄，卿常无食，能作不？』修曰：『为复可耳。』遂为鸿胪丞、太子洗马。」〉</t>
+  </si>
+  <si>
+    <t>裴散骑娶王太尉女。婚后三日，诸壻大会，〈《晋诸公赞》曰：「裴遐字叔道，河东人。父纬，长水校尉。遐少有理称，辟司空掾、散骑郎。」《永嘉流人名》：「衍字夷甫，第四女适遐也。」〉当时名士，王裴子弟悉集。郭子玄在坐，挑与裴谈。子玄才甚丰瞻，始数交未快。郭陈张甚盛，裴徐理前语，理致甚微，四坐咨嗟称快。〈邓粲《晋纪》曰：「遐以辩论为业，善叙名理，辞气淸畅，泠然若琴瑟。闻其言者，知与不知，无不叹服。」〉王亦以为奇，谓诸人曰：「君辈勿为尔，将受困寡人女壻！」</t>
+  </si>
+  <si>
+    <t>衞玠始度江，见王大将军。〈《敦别传》曰：「敦字处仲，琅邪临沂人。少有名理，累迁靑州刺史。避地江左，歴侍中、丞相、大将军、扬州牧。以罪伏诛。」〉因夜坐，大将军命谢幼舆。〈《晋阳秋》曰：「谢鲲字幼舆，陈郡人。父衡，晋硕儒。鲲性通简，好《老》《易》，善音乐，以琴书为业。避乱江东，为豫章太守，王敦引为长史。」《鲲别传》曰：「鲲四十三卒，赠太常。」〉玠见谢，甚说之，都不复顾王，遂达旦微言。王永夕不得豫。玠体素羸，恒为母所禁。尔夕忽极，于此病笃，遂不起。〈《玠别传》曰：「玠少有名理，善《易》《老》，自抱羸疾，初不于外擅相酬对。时友叹曰：『衞君不言，言必入真。』武昌见大将军王敦，敦与谈论，咨嗟不能自已。」〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧云：王丞相过江左，止道《声无哀乐》、〈嵇康《声无哀乐论略》曰：「夫殊方异俗，歌笑不同。使错而用之，或闻哭而懽，或听歌而戚，然哀乐之情均也。今用均同之情，发万殊之声，斯非音声之无常乎？」〉《养生》、〈嵇叔夜《养生论》曰：「夫虱箸头而黑，麝食柏而香，颈处险而瘿，齿居晋而黄。岂唯蒸之使重无使轾，芬之使香无使延哉？诚能蒸以灵芝，润以醴泉，无为自得，体妙心玄。庶与羡门比寿，王乔争年。何为不可养生哉？」〉《言尽意》，〈欧阳坚《石言尽意论略》曰：「夫理得于心，非言不畅。物定于彼，非名不辨。名逐物而迁，言因理而变，不得相与为二矣。苟无其二，言无不尽矣。」〉三理而已。然宛转关生，无所不入。</t>
+  </si>
+  <si>
+    <t>殷中军为庾公长史，〈按，庾亮僚属名及《中兴书》，浩为亮司马，非为长史也。〉下都，王丞相为之集，桓公、王长史、王蓝田、〈《王述别传》曰：「述字怀祖，太原晋阳人。祖湛，父承，并有髙名。述蚤孤，事亲孝谨，箪瓢陋巷，宴安永日。由是为有识所知，袭爵蓝田侯。」〉谢镇西并在。丞相自起解帐带麈尾，语殷曰：「身今日当与君共谈析理。」既共淸言，遂达三更。丞相与殷共相往反，其余诸贤，略无所关。既彼我相尽，丞相乃叹曰：「向来语，乃竟未知理源所归，至于辞喩不相负。正始之音，正当尔耳！」明旦，桓宣武语人曰：「昨夜听{{ProperNoun|殷}]王淸言甚佳，仁祖亦不寂寞，我亦时复造心，顾看两王掾，〈王蒙、王述，并为王导所辟。〉輙翣如生母狗馨。」</t>
+  </si>
+  <si>
+    <t>殷中军见佛经云：「理亦应阿堵上。」〈佛经之行中国尚矣，莫详其始。《牟子》曰：「汉明帝夜梦神人，身有日光，明日，博问群臣。通人傅毅对曰：『臣闻天竺有道者号曰佛，轻举能飞，身有日光，殆将其神也。』于是遣羽林将军秦景、博士弟子王遵等十二人之大月氏国，写取佛经四十二部，在兰台石室。」刘子政《列仙传》曰：「歴观百家之中，以相检验，得仙者百四十六人，其七十四人已在佛经，故撰得七十。可以多闻博识者遐观焉。」如此，即汉成哀之间，已有经矣。与《牟子》、传记便为不同。《魏略·西戎传》曰：「天竺城中有临儿国。《浮屠经》云：『其国王生浮图。浮图者，太子也。父曰屑头邪，母曰莫邪。浮屠者，身服色黄，发如靑丝，爪如铜。其母梦白象而孕。及生。从右胁出，而有髻，坠地能行七歩。』天竺又有神人曰沙津。昔汉哀帝元寿元年，博士弟子景虑，受大月氏王使伊存口传《浮屠经》。曰复豆者，其人也。」《汉武故事》曰：「昆邪王杀休屠王，以其众来降，得其金人之神，置之甘泉宫。金人皆长丈余，其祭不用牛羊，唯烧香礼拜。上使依其国俗祀之。」此神全类于佛，岂当汉武之时，其经未行于中土，而但神明事之邪。故验刘向、鱼豢之说，佛至自哀成之世明矣。然则《牟》、传所言四十二者，其文今存非妄。盖明帝遣使广求异闻，非是时无经也。〉</t>
+  </si>
+  <si>
+    <t>谢安年少时，请阮光禄道白马论。〈《孔丛子》曰：「赵人公孙龙云：『白马非马。马者所以命形，白者所以命色。夫命色者非命形，故曰白马非马也。』」〉为论以示谢，于时谢不即解阮语，重相咨尽。阮乃叹曰：「非但能言人不可得，正索解人亦不可得！」〈《中兴书》曰：「裕甚精论难。」〉</t>
+  </si>
+  <si>
+    <t>褚季野语孙安国〈褚裒、孙盛并已见。〉云：「北人学问，渊综广博。」孙答曰：「南人学问，淸通简要。」支道林闻之曰：「圣贤固所忘言。自中人以还，北人看书，如显处视月；南人学问，如牖中窥日。」〈支所言，但譬成孙褚之理也。然则学广则难周，难周则识暗，故如显处视月；学寡则易核，易核则智明，故如牖中窥日也。〉</t>
+  </si>
+  <si>
+    <t>刘真长与殷渊源谈，刘理如小屈，殷曰：「恶，卿不欲作将善云梯仰攻。」〈《墨子》曰：「公输般为髙云梯，欲以攻宋。墨子闻之，自鲁往。裂裳裹足，日夜不休，十日十夜而至于郢。见楚王曰：『闻大王将攻宋，有之乎？』王曰：『然！』墨子曰：『请令公输般设攻宋之具，臣请试守之。』于是公输般设攻宋之计，墨子萦带守之。输九攻之，而墨子九却之。不能入，遂辍兵。」〉</t>
+  </si>
+  <si>
+    <t>殷中军云：「康伯未得我牙后慧。」〈《浩别传》曰：「浩善《老》《易》，能淸言。」康伯，浩甥也，甚爱之。〉</t>
+  </si>
+  <si>
+    <t>谢镇西少时，闻殷浩能淸言，故往造之。殷未过有所通，为谢标榜诸义，作数百语。既有佳致，兼辞条丰蔚，甚足以动心骇听。谢注神倾意，不觉流汗交面。殷徐语左右：「取手巾与谢郎拭面。」〈按，殷浩大谢尚三歳，便是时流。或当贵其胜致，故为之挥汗。〉</t>
+  </si>
+  <si>
+    <r>
+      <t>宣武集诸名胜讲《易》，〈《易·干·凿度》曰：「孔子曰：『易者，易也，变易也，不易也。三成德，为道包籥者，易也。其德也光明四通，日月星辰布，八卦序，四时和也。变也者，天地不变，不能成朝；夫妇不变，不能成家。不易者，其位也。天在上，地在下；君南面，臣北面；父坐，子伏。此其不易也。故易者天地人道也。』」郑玄序《易》曰：「易之为名也，一言而函三义：简易一也，变易二也，不易三也。《系辞》曰：『乾坤，易之蕴也，易之门戸也。』又曰：『干确然示人易矣，坤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𬯎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然示人简矣。易则易知，简则易从。』此言其简易法则也。又曰：『其为道也屡迁，变动不居，周流六虚，上下无常，刚柔相易，不可以为典要，唯变所适。』此则言其从时出入移动也。又曰：『天尊地卑，乾坤定矣；卑髙以陈，贵贱位矣；动静有常，刚柔断矣。』此则言其张设布列不易也。」据此三义而说，易之道，广矣，大矣。〉日说一卦。简文欲听，闻此便还。曰：「义自当有难易，其以一卦为限邪？」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有北来道人好才理，与林公相遇于瓦官寺，讲小品。于时竺法深、孙兴公悉共听。此道人语，屡设疑难，林公辩答淸析，辞气倶爽。此道人毎輙摧屈。孙问深公：「上人当是逆风家，向来何以都不言？」〈庾法畅《人物论》曰：「法深学义渊博，名声蚤著，弘道法师也。」〉深公笑而不答。林公曰：「白旃檀非不馥，焉能逆风？」〈《成实论》曰：「波利质多天树，其香则逆风而闻。」〉深公得此义，夷然不屑。</t>
+  </si>
+  <si>
+    <t>孙安国往殷中军许共论，往反精苦，客主无间。左右进食，冷而复煗者数四。彼我奋掷麈尾，悉脱落满餐饭中。宾主遂至莫忘食。殷乃语孙曰：「卿莫作强口马，我当穿卿鼻。」孙曰：「卿不见决鼻牛，人当穿卿颊。」〈《续晋阳秋》曰：「孙盛善理义。时中军将军殷浩擅名一时，能与剧谈相抗者，唯盛而已。」〉</t>
+  </si>
+  <si>
+    <t>《庄子·逍遥篇》，旧是难处，诸名贤所可钻味而不能拔理于郭向之外。支道林在白马寺中，将冯太常共语，〈《冯氏谱》曰：「冯怀字祖思，长乐人。歴太常、护国将军。」〉因及《逍遥》。支卓然标新理于二家之表，立异义于众贤之外，皆是诸名贤寻味之所不得。后遂用支理。〈向子期、郭子玄《逍遥义》曰：「夫大鹏之上九万，尺鷃之起楡枋，小大虽差，各任其性。苟当其分，逍遥一也。然物之芸芸，同资有待，得其所待，然后逍遥耳。唯圣人与物冥而循大变，为能无待而常通，岂独自通而已。又从有待者不失其所待；不失，则同于大通矣。」支氏《逍遥论》曰：「夫逍遥者，明至人之心也。庄生建言人道，而寄指鹏、鷃。鹏以营生之路旷，故失适于体外；鷃以在近而笑远，有矜伐于心内。至人乘天正而髙兴，游无穷于放浪；物物而不物于物，则遥然不我得，玄感不为，不疾而速，则逍然靡不适。此所以为逍遥也。若夫有欲当其所足；足于所足，快然有似天真。犹饥者一饱，渇者一盈，岂忘烝尝于糗粮，绝觞爵于醪醴哉？苟非至足，岂所以逍遥乎？」此向郭之注所未尽。〉</t>
+  </si>
+  <si>
+    <t>殷中军〈浩也〉尝至刘尹所淸言。良久，殷理小屈，游辞不已，刘亦不复答。殷去后，乃云：「田舍儿，强学人作尔馨语。」〈刘惔，已见。〉</t>
+  </si>
+  <si>
+    <t>殷中军虽思虑通长，然于才性偏精。忽言及四本，便苦汤池铁城，无可攻之势。〈《神农书》曰：「夫有石城七仞，汤池百歩，带甲百万而无粟者，不能自固也。」〉</t>
+  </si>
+  <si>
+    <t>支道林造《即色论》，〈支道林《集妙观章》云：「夫色之性也，不自有色。色不自有，虽色而空。故曰色即为空，色复异空。」〉论成，示王中郎。〈王坦之，已见。〉中郎都无言。支曰：「默而识之乎？」〈《论语》曰：「默而识之，诲人不倦，何有于我哉？」〉王曰：「既无文殊，谁能见赏？」〈《维摩诘经》曰：「文殊师利问维摩诘云：『何者是菩萨入不二法门？』时维摩诘默然无言。文殊师利叹曰：『是真入不二法门也。』」〉</t>
+  </si>
+  <si>
+    <t>王逸少作会稽，初至，支道林在焉。孙兴公谓王曰：「支道林拔新领异，胸怀所及，乃自佳，卿欲见不？」王本自有一往隽气，殊自轻之。后孙与支共载往王许，王都领域，不与交言。须臾，支退，后正値王当行，车已在门。支语王曰：「君未可去，贫道与君小语。」因论《庄子·逍遥游》。支作数千言，才藻新奇，花烂映发。王遂披襟解带，留连不能已。〈《支法师传》曰：「法师研十地，则知顿悟于七住；寻庄周，则辩圣人之逍遥。当时名胜，咸味其音旨。」道贤论以七沙门比竹林七贤。遁比向秀，雅尚《庄》《老》。二子异时，风尚玄同也。〉</t>
+  </si>
+  <si>
+    <t>三乘佛家滞义，支道林分判，使三乘炳然。诸人在下坐听，皆云可通。支下坐，自共说，正当得两，入三便乱。今义弟子虽传，犹不尽得。〈《法华经》曰：「三乘者：一曰声闻乘，二曰縁觉乘，三曰菩萨乘。声闻者，悟四谛而得道也。縁觉者，悟因縁而得道也。菩萨者，行六度而得道也。然则罗汉得道，全由佛教，故以声闻为名也。辟支佛得道，或闻因縁而解，或听环珮而得悟。神能独达，故以縁觉为名也。菩萨者，大道之人也。方便则止行六度，真教则通修万善，功不为己，志存广济，故以大道为名也。」〉</t>
+  </si>
+  <si>
+    <t>许掾〈询也〉年少时，人以比王苟子，〈苟子，王修小字也。《文字志》曰：「修字敬仁，太原晋阳人。父蒙，司徒左长史。修明秀有美称，善隶行书，号曰『流奕淸举』。起家著作佐郎，琅邪王文学，转中军司马，未拜而卒，时年二十四。昔王弼之没，与修同年，故修弟熙乃叹曰：『无愧于古人，而年与之齐也。』」〉许大不平。时诸人士及于法师并在会稽西寺讲，王亦在焉。许意甚忿，便往西寺与王论理，共决优劣。苦相折挫，王遂大屈。许复执王理，王执许理，更相覆疎；王复屈。许谓支法师曰：「弟子向语何似？」支从容曰：「君语佳则佳矣，何至相苦邪？岂是求理中之谈哉！」</t>
+  </si>
+  <si>
+    <t>林道人诣谢公，东阳时始总角，新病起，体未堪劳。与林公讲论，遂至相苦。〈东阳，谢朗也，已见。《中兴书》曰：「朗博渉有逸才，善言玄理。」〉母王夫人在壁后听之，再遣信令还，而太傅留之。王夫人因自出云：「新妇少遭家难，一生所寄，唯在此儿。」因流涕抱儿以归。谢公语同坐曰：「家嫂辞情忼慨，致可传述，恨不使朝士见。」〈《谢氏谱》曰：「朗父据，取太康王韬女，名绥。」〉</t>
+  </si>
+  <si>
+    <t>支道林、许掾诸人共在会稽王斋头。〈简文〉支为法师，许为都讲。〈《髙逸沙门传》曰：「道林时讲《维摩诘经》。」〉支通一义，四坐莫不厌心。许送一难，众人莫不抃舞。但共嗟咏二家之美，不辩其理之所在。</t>
+  </si>
+  <si>
+    <t>谢车骑在安西艰中，〈安西，谢奕。已见。〉林道人往就语，将夕乃退。有人道上见者问云：「公何处来？」答云：「今日与谢孝剧谈一出来。」〈《玄别传》曰：「玄能淸言，善名理。」〉</t>
+  </si>
+  <si>
+    <t>支道林初从东出，住东安寺中。〈《髙逸沙门传》曰：「遁居会稽，晋哀帝钦其风味，遣中使至东迎之。遁遂辞丘壑，髙歩天邑。」〉王长史宿构精理，并撰其才藻，往与支语，不大当对。王叙致作数百语，自谓是名理奇藻。支徐徐谓曰：「身与君别多年，君义言了不长进。」王大惭而退。</t>
+  </si>
+  <si>
+    <t>殷中军读小品，〈释氏《辨空经》，有详者焉，有略者焉。详者为大品，略者为小品。〉下二百签，皆是精微，世之幽滞。尝欲与支道林辩之，竟不得。今小品犹存。〈《髙逸沙门传》曰：「殷浩能言名理，自以有所不达，欲访之于遁。遂邂逅不遇，深以为恨。其为名识赏重，如此之至焉。」《语林》曰：「浩于佛经有所不了，故遣人迎林公，林乃虚怀欲往。王右军驻之曰：『渊源思致渊富，既未易为敌，且己所不解，上人未必能通。纵复服从，亦名不益髙。若佻脱不合，便丧十年所保。可不须往！』林公亦以为然，遂止。」〉</t>
+  </si>
+  <si>
+    <t>佛经以为袪练神明，则圣人可致。〈释氏经曰：「一切众生，皆有佛性。但能修智慧，断烦恼，万行具足，便成佛也。」〉简文云：「不知便可登峰造极不？然陶练之功，尚不可诬。」</t>
+  </si>
+  <si>
+    <t>于法开始与支公争名，后情渐归支，意甚不分，遂遁迹剡下。遣弟子出都，语使过会稽。于时支公正讲小品。开戒弟子：「道林讲，比汝至，当在某品中。」因示语攻难数十番，云：「旧此中不可复通。」弟子如言诣支公。正値讲，因谨述开意。往反多时，林公遂屈。厉声曰：「君何足复受人寄载来！」〈《名德沙门题目》曰：「于法开才辨从横，以数术弘教。」《髙逸沙门传》曰：「法开初以义学著名，后与支遁有竞，故遁居剡县，更学医术。」〉</t>
+  </si>
+  <si>
+    <t>殷中军问：「自然无心于禀受，何以正善人少，恶人多？」诸人莫有言者。刘尹答曰：「譬如写水著地，正自纵横流漫，略无正方圆者。」一时绝叹，以为名通。〈《庄子》曰：「天籁者，吹万不同，而使其自己也。」郭子玄注曰：「无既无矣，则不能生有。有之未生，又不能为生。然则生生者谁哉？块然而自生耳，非我生也。我不生物，物不生我，则自然而已然，谓之天然。天然非为也，故以天言之，所以明其自然故也。」〉</t>
+  </si>
+  <si>
+    <t>康僧渊初过江，未有知者，恒周旋市肆，乞索以自营。忽往殷渊源许，値盛有宾客，殷使坐，麤与寒温，遂及义理。语言辞旨，曾无愧色。领略麤举，一往参诣。由是知之。〈僧渊氏族，所出未详。疑是胡人。尚书令沈约撰《晋书》，亦称其有义学。〉</t>
+  </si>
+  <si>
+    <t>殷谢诸人共集。〈殷浩、谢安〉谢因问殷：「眼往属万形，万形来入眼不？」〈《成实论》曰：「眼识不待到而知虚尘，假空与明，故得见色。若眼到色到，色闲则无空明。如眼触目，则不能见彼。当知眼识不到而知。」依如此说，则眼不往，形不入，遥属而见也。谢有问，殷无答，疑阙文。〉</t>
+  </si>
+  <si>
+    <t>人有问殷中军：「何以将得位而梦棺器，将得财而梦矢秽？」殷曰：「官本是臭腐，所以将得而梦棺尸；财本是粪土，所以将得而梦秽污。」时人以为名通。</t>
+  </si>
+  <si>
+    <t>殷中军被废东阳，〈浩黜废事，别见。〉始看佛经。初视《维摩诘》，〈僧肇注《维摩经》曰：「维摩诘者，秦言净名，盖法身之大士，见居此土，以弘道也。」〉疑般若波罗密太多，后见小品，恨此语少。〈波罗密，此言到彼岸也。经云：「到者有六焉：一曰檀；檀者，施也。二曰毗黎；毗黎者，持戒也。三曰羼提；羼提者，忍辱也。四曰尸罗；尸罗者，精进也。五曰禅；禅者，定也。六曰般若；般若者，智慧也。然则五者为舟，般若为导，导则倶绝有相之流，升无相之彼岸也。故曰波罗密也。」渊源未畅其致，少而疑其多；已而究其宗，多而患其少也。〉</t>
+  </si>
+  <si>
+    <t>支道林、殷渊源倶在相王许。{{*|简文}相王谓二人：「可试一交言。而才性殆是渊源崤函之固，〈崤，谓二陵之地；函，函谷关也。并秦之险塞，王者之居。左思《魏都赋》曰：「崤函，帝王之宅。」〉君其愼焉！」支初作，改辙远之，数四交，不觉入其玄中。相王抚肩笑曰：「此自是其胜塲，安可争锋！」</t>
+  </si>
+  <si>
+    <t>谢公因子弟集聚，问毛《诗》何句最佳？遏称曰〈谢玄小字，已见。〉：「昔我往矣，杨柳依依；今我来思，雨雪霏霏。」公曰：「𬣙谟定命，远猷辰告。」〈《大雅诗》也。毛苌注曰：「𬣙，大也。谟，谋也。辰，时也。」郑玄注曰：「猷，图也。大谋定命，谓正月始和，布政于邦国都鄙。」〉谓此句偏有雅人深致。</t>
+  </si>
+  <si>
+    <t>张凭举孝廉出都，负其才气，谓必参时彦。欲诣刘尹，鄕里及同举者共笑之。张遂诣刘。刘洗濯料事，处之下坐，唯通寒暑，神意不接。张欲自发无端。顷之，长史诸贤来淸言。客主有不通处，张乃遥于末坐判之，言约旨远，足畅彼我之怀，一坐皆惊。真长延之上坐，淸言弥日，因留宿至晓。张退，刘曰：「卿且去，正当取卿共诣抚军。」张还船，同侣问何处宿？张笑而不答。须臾，真长遣传教觅张孝廉船，同侣惋愕。即同载诣抚军。至门，刘前进谓抚军曰：「下官今日为公得一太常博士妙选！」既前，抚军与之话言，咨嗟称善曰：「张凭勃窣为理窟。」即用为太常博士。〈宋明帝《文章志》曰：「凭字长宗，呉郡人。有意气，为鄕闾所称。学尚所得，敏而有文。太守以才选举孝廉，试策髙第。为惔所举，补太常博士。累迁吏部郎、御史中丞。」〉</t>
+  </si>
+  <si>
+    <t>汰法师云：「『六通』、『三明』同归，正异名耳。」〈《安法师传》曰：「竺法汰者，体器弘简，道情冥到，法师友而善焉。」一说法汰即安公弟子也。经云：「六通者，三乘之功德也。一曰天眼通，见远方之色；二曰天耳通，闻障外之声；三曰身通，飞行隐显；四曰它心通，水镜万虑；五曰宿命通，神知已往；六曰漏尽通，慧解累世。三明者：解脱在心，朗照三世者也。」然则天眼、天耳、身通、它心、漏尽此五者，皆见在心之明也。宿命则过去心之明也。因天眼发未来之智，则未来心之明也。同归异名，义在斯矣。〉</t>
+  </si>
+  <si>
+    <t>支道林、许、谢盛德，共集王家。〈许询、谢安、王蒙。〉谢顾谓诸人：「今日可谓彦会，时既不可留，此集固亦难常。当共言咏，以写其怀。」许便问主人，有《庄子》不？正得《渔父》一篇。〈《庄子》曰：「孔子游乎缁帷之林，休坐乎杏坛之上。孔子弦歌鼓琴，奏曲未半，有渔者下船而来，须眉交白，被发揄袂，行原以上，距陆而止，左手据膝，右手持颐以听。曲终而招子贡、子路语曰：『彼何为者也？』曰：『孔氏。』曰：『孔氏何治？』子贡曰：『服忠信，行仁义，饰礼乐，选人伦，孔氏之所治也。』曰：『有土之君欤？』曰：『非也。』渔父曰：『仁则仁矣，恐不免其身。』孔子闻而求问之，遂言八疵、四病，以诫孔子。」〉谢看题，便各使四坐通。支道林先通，作七百许语，叙致精丽，才藻奇拔，众咸称善。于是四坐各言怀毕。谢问曰：「卿等尽不？」皆曰：「今日之言，少不自竭。」谢后麤难，因自叙其意，作万余语，才峰秀逸。〈《文字志》曰：「安神情秀悟，善谈玄速。」〉既自难干，加意气拟托，萧然自得，四坐莫不厌心。支谓谢曰：「君一往奔诣，故复自佳耳。」</t>
+  </si>
+  <si>
+    <t>殷中军、孙安国、王、谢能言诸贤，悉在会稽王许。殷与孙共论《易》象妙于见形。〈其论略曰：「圣人知观器不足以达变，故表圆应于蓍龟。圆应不可为典要，故寄妙迹于六爻。六爻周流，唯化所适，故虽一画，而吉凶并彰，微一则失之矣。拟器托象，而庆咎交著，系器则失之矣。故设八卦者，盖縁化之影迹也。天下者，寄见之一形也。圆影备未备之象，一形兼未形之形。故尽二仪之道，不与干、坤齐妙。风雨之变，不与巽、坎同体矣。」〉孙语道合，意气干云。一坐咸不安孙理，而辞不能屈。会稽王慨然叹曰：「使真长来，故应有以制彼。」既迎真长，孙意己不如。真长既至，先令孙自叙本理。孙麤说己语，亦觉殊不及向。刘便作二百许语，辞难简切，孙理遂屈。一坐同时拊掌而笑，称美良久。</t>
+  </si>
+  <si>
+    <t>僧意在瓦官寺中，〈未详僧意氏族所出〉王苟子来，〈苟子，王修小字。〉与共语，便使其唱理。意谓王曰：「圣人有情不？」王曰：「无。」重问曰：「圣人如柱邪？」王曰：「如筹算，虽无情，运之者有情。」僧意云：「谁运圣人邪？」苟子不得答而去。〈诸本无僧意最后一句，意疑其阙，庆校众本皆然。唯一书有之，故取以成其义。然王修善言理，如此论，特不近人情，犹疑斯文为谬也。〉</t>
+  </si>
+  <si>
+    <t>司马太傅问谢车骑：「惠子其书五车，何以无一言入玄？」谢曰：「故当是其妙处不传。」〈《庄子》曰：「惠施多方，其书五车，其道舛駮，其言不中。谓卵有毛，鸡三足，马有卵，犬可为羊，火不热，目不见，龟长于蛇，丁子有尾，白狗黑，连环可解。能胜人之口，不能服人之心。盖辩者之囿也。」〉</t>
+  </si>
+  <si>
+    <t>殷中军被废，徙东阳，大读佛经，皆精解。唯至「事数」处不解。〈事数：谓若五阴、十二入、四谛、十二因縁、五根、五九、七觉之声。〉遇见一道人，问所签，便释然。</t>
+  </si>
+  <si>
+    <t>殷仲堪精核玄论，人谓莫不研究。殷乃叹曰：「使我解四本，谈不翅尔。」〈周祗《隆安记》曰：「仲堪好学而有理思也。」〉</t>
+  </si>
+  <si>
+    <t>殷荆州曾问远公：〈《张野远法师铭》曰：「沙门释惠远，鴈门楼烦人。本姓贾氏，世为冠族。年十二，随舅令狐氏游学许洛。年二十一，欲南渡，就范宣子学，道阻不通，遇释道安以为师。抽簪落发，研求法藏。释昙翼毎资以灯烛之费。诵鉴淹远，髙悟冥赜。安常叹曰：『道流东国，其在远乎？』襄阳既没，振锡南游，结宇灵岳。自年六十，不复出山。名被流沙，彼国僧众，皆称汉地有大乘沙门。毎至然香礼拜，輙东向致敬。年八十三而终。」〉「易以何为体？」答曰：「易以感为体。」殷曰：「铜山西崩，灵钟东应，便是易耶？」〈《东方朔传》曰：「孝武皇帝时，未央宫前殿钟无故自鸣，三日三夜不止。诏问太史待诏王朔，朔言恐有兵气。更问东方朔，朔曰：『臣闻：铜者，山之子；山者，铜之母，以阴阳气类言之，子母相感，山恐有崩弛者，故钟先鸣。《易》曰：「鸣鹤在阴，其子和之。」精之至也。其应在后五日内。』居三日，南郡太守上书言山崩，延袤二十余里。」樊英别传曰：「汉顺帝时，殿下钟鸣，问英。对曰：『蜀瑉山崩。山于铜为母，母崩子鸣，非圣朝灾。』后蜀果土山崩，日月相应。」二说微异，故并载之。〉远公}笑而不答。</t>
+  </si>
+  <si>
+    <t>羊孚弟娶王永言女。〈孚弟，辅也。《羊氏谱》曰：「辅字幼仁，泰山人。祖楷，尚书郎。父绥，中书郎。辅仕至衞军功曹。娶琅邪王讷之女，字僧首。」〉及王家见壻，孚送弟倶往。时永言父东阳尚在，〈《王氏谱》曰：「讷之字永言，琅邪人。祖彪之，光禄大夫。父临之，东阳太守。讷之歴尚书左丞、御史中丞。」〉殷仲堪是东阳女壻，〈《殷氏谱》曰：「仲堪娶琅邪王临之女，字英彦。」〉亦在坐。孚雅善理义，乃与仲堪道《齐物》。〈《庄子》篇也〉殷难之，羊云：「君四番后，当得见同。」殷笑曰：「乃可得尽，何必相同？」乃至四番后一通。殷咨嗟曰：「仆便无以相异。」叹为新拔者久之。</t>
+  </si>
+  <si>
+    <t>殷仲堪云：「三日不读《道德经》，便觉舌本间强。」〈《晋安帝纪》曰：「仲堪有思理，能淸言。」〉</t>
+  </si>
+  <si>
+    <t>提婆初至，为东亭第讲《阿毗昙》。〈《出经叙》曰：「僧伽提婆，罽宾人，姓瞿氏。俊朗有深鉴，苻坚至长安，出诸经。后渡江，远法师请译《阿毗昙》。」远法师《阿毗昙叙》曰：「阿毗昙，心者，三藏之要领，咏歌之微言。源流广大，管综众经，领其宗会，故作者以心为名焉。有出家开士字法胜，以阿毗昙源流广大，卒难寻究，别撰斯部，凡二百五十偈，以为要解，号之曰『心』。罽宾沙门僧伽提婆，少玩斯文，因请令译焉。」阿毗昙者，晋言大法也。道标法师曰：「阿毗昙者，秦言无比法也。」〉始发讲，坐裁半，僧弥便云：「都已晓。」即于坐分数四有意道人更就余屋自讲。提婆讲竟，东亭问法冈道人曰：〈法冈，未详氏族。〉「弟子都未解，阿弥那得已解？所得云何？」曰：「大略全是，故当小未精核耳。」〈《出经叙》曰：「提婆以隆安初游京师，东亭侯王珣迎至舍讲《阿毗昙》。提婆宗致既明，振发义奥，王僧弥一听便自讲，其明义易启人心如此。未详年卒。」〉</t>
+  </si>
+  <si>
+    <t>桓南郡与殷荆州共谈，毎相攻难。年余后，但一两番。桓自叹才思转退。殷云：「此乃是君转解。」〈周祗《隆安记》曰：「玄善言理，弃郡还国，常与殷荆州仲堪终日谈论不辍。」〉</t>
+  </si>
+  <si>
+    <t>文帝尝令东阿王七歩中作诗，不成者行大法。应声便为诗曰：「煮豆持作羹，漉菽以为汁。萁在釜下然，豆在釜中泣。本自同根生，相煎何太急？」帝深有惭色。〈《魏志》曰：「陈思王植字子建，文帝同母弟也。年十余歳诵诗论及辞赋数万言。善属文，太祖尝视其文曰：『汝倩人邪？』植跪曰：『出言为论，下笔成章，顾当面试，柰何倩人？』时邺铜雀台新成，太祖悉将诸子登之，使各为赋。植援笔立成，可观。性简易，不治威仪，舆马服饰，不尚华丽。毎见难问，应声而答，太祖宠爱之，几为太子者数矣。文帝即位，封鄄城侯，后徙雍丘，复封东阿。植毎求试不得，而国亟迁易，汲汲无懽。年四十一薨。」〉</t>
+  </si>
+  <si>
+    <t>魏朝封晋文王为公，备礼九锡，文王固让不受。公卿将校当诣府敦喩。司空郑冲〈冲，已见。〉驰遣信就阮籍求文。籍时在袁孝尼家，〈《袁氏世纪》曰：「准字孝尼，陈郡阳夏人。父涣，魏郎中令。准忠信居正，不耻下问，唯恐人不胜己也。世事多险，故治退不敢求进。著书十万余言。」荀绰《兖州记》曰：「准有隽才，泰始中，位给事中。」〉宿醉扶起，书札为之，无所点定，乃写付使。时人以为神笔。〈顾恺之《晋文章记》曰：「阮籍劝进，落落有宏致，至转说徐而摄之也。」一本注阮籍《劝进文》略曰：「窃闻明公固让，冲等眷眷，实怀愚心。以为圣王作制，百代同风，褒德赏功，其来久矣。周公藉已成之业，据既安之势，光宅曲阜，奄有龟蒙。明公宜奉圣旨，受兹介福也。」〉</t>
+  </si>
+  <si>
+    <t>左太冲作《三都赋》初成，〈《思别传》曰：「思字太冲，齐国临淄人。父雍起于笔札，多所掌练，为殿中御史。思蚤丧母，雍怜之，不甚教其书学。及长，博览名文，遍阅百家。司空张华辟为祭酒，贾谧举为秘书郎。谧诛，归鄕里，专思著述。齐王冏请为记室参军，不起。时为《三都赋》未成也。后数年疾终。其《三都赋》改定，至终乃上。初，作《蜀都赋》云：『金马电发于髙冈，碧鸡振翼而云披。鬼弹飞丸以礌礉，火井腾光以赫曦。』今无鬼弹，故其赋往往不同。思为人无吏干而有文才，又颇以椒房自矜，故齐人不重也。」〉时人互有讥訾，思意不惬。后示张公。〈张华，已见。〉张曰：「此二《京》可三，然君文未重于世，宜以经髙名之士。」思乃询求于皇甫谧。〈王隐《晋书》曰：「谧字士安，安定朝那人，汉太尉嵩曾孙也。祖叔献，灞陵令。父叔侯，举孝廉。谧族从皆累世富贵，独守寒素。所养叔母叹曰：『昔孟母以三徙成子，曾父以亨家存教，岂我居不卜邻，何尔鲁之甚乎？修身笃学，自汝得之，于我何有？』因对之流涕，谧乃感激。年二十余，就鄕里席坦受书，遭人而问，少有宁日。武帝借其书二车，遂博览。太子中庶子、议郎徴，并不就，终于家。」〉谧见之嗟叹，遂为作叙。于是先相非贰者，莫不敛袵赞述焉。〈《思别传》曰：「思造张载，问瑉蜀事，交接亦疎。皇甫谧西州髙士，挚仲治宿儒知名，非思伦匹。刘渊林、衞伯舆并蚤终，皆不为思赋序注也。凡诸注解，皆思自为，欲重其文，故假时人名姓也。」〉</t>
+  </si>
+  <si>
+    <t>刘伶著《酒德颂》，意气所寄。〈《名士传》曰：「伶字伯伦，沛郡人。肆意放荡，以宇宙为狭。常乘鹿车，携一壶酒，使人荷锸随之，云：『死便掘地以埋。』土木形骸，遨游一世。」《竹林七贤》论曰：「伶处天地闲，悠悠荡荡，无所用心。尝与俗士相牾，其人攘袂而起，欲必筑之。伶和其色曰：『鸡肋岂足以当尊拳！』其人不觉废然而返。未尝措意文章，终其世，凡著《酒德颂》一篇而已。其辞曰：『有大人先生者，以天地为一朝，万期为须臾，日月为扃牖，八荒为庭衢。行无辙迹，居无室庐，幕天席地，纵意所如。行则操巵执瓢，动则挈榼提壶，唯酒是务，焉知其余？有贵介公子，缙绅处士，闻吾风声，议其所以。乃奋袂攘襟，怒目切齿，陈说礼法，是非锋起。先生于是方捧罂承糟，衔杯漱醪，奋髯箕踞，枕曲藉糟。无思无虑，其乐陶陶。兀然而醉，慌尔而醒，静听不闻雷霆之声，熟视不见太山之形，不觉寒暑之切肌，利欲之感情。俯观万物之扰扰，如江、汉之载浮萍。二豪侍侧焉，如蜾蠃之与螟蛉』。」〉</t>
+  </si>
+  <si>
+    <t>乐令善于淸言，而不长于手笔。将让河南尹，请潘岳为表。〈《晋阳秋》曰：「岳字安仁，荥阳人。夙以才颖发名。善属文，淸绮绝世，蔡邕未能过也。仕至黄门侍郎，为孙秀所害。」〉潘云：「可作耳。要当得君意。」乐为述己所以为让，标位二百许语。潘直取错综，便成名笔。时人咸云：「若乐不假潘之文，潘不取乐之旨，则无以成斯矣。」</t>
+  </si>
+  <si>
+    <t>夏侯湛作《周诗》成，〈《文士传》曰：「湛字孝若，谯国人，魏征西将军夏侯渊曾孙也。有盛才，文章巧思，善补雅词，名亚潘岳。歴中书侍郎。」《湛集》载其叙曰：「《周诗》者，《南陔》、《白华》、《华黍》、《由庚》、《崇丘》、《由仪》六篇，有其义而亡其辞。湛续其亡，故云《周诗》也。」〉示潘安仁。安仁曰：「此非徒温雅，乃别见孝悌之性。」〈其诗曰：「既殷斯虔，仰说洪恩。夕定辰省，奉朝侍昏。宵中告退，鸡鸣在门。孳孳恭诲，夙夜是敦。」〉潘因此遂作《家风诗》。〈岳《家风诗》载其宗祖之德及自戒也。〉</t>
+  </si>
+  <si>
+    <t>孙子荆除妇服，作诗以示王武子。〈《孙楚集》云：「妇胡毋氏也。」其诗曰：「时迈不停，日月电流。神爽登遐，忽已一周。礼制有叙，告除灵丘。临祠感痛，中心若抽。」〉王曰：「未知文生于情，情生于文。〈一作「文于情生，情于文生」。〉览之凄然，增伉俪之重。」</t>
+  </si>
+  <si>
+    <t>太叔广甚辩给，而挚仲治长于翰墨，倶为列卿。毎至公坐，广谈，仲治不能对。退著笔难广，广又不能答。〈王隐《晋书》曰：「广字季思，东平人。拜成都王为太弟。欲使诣洛，广子孙多在洛，虑害，乃自杀。挚虞字仲治，京兆长安人。祖茂，秀才。父模，太仆卿。虞少好学，师事皇甫谧，善校练文义，多所著述。歴秘书监、太常卿。从惠帝至长安，遂流离鄠杜间。性好博古，而文籍荡尽。永嘉五年，洛中大饥，遂饿而死。虞与广名位略同，广长口才，虞长笔才，倶少政事。众坐广谈，虞不能对；虞退笔难广，广不能答。于是更相嗤笑，纷然于世。广无可记，虞多所录，于斯为胜也。」〉</t>
+  </si>
+  <si>
+    <t>江左殷太常父子，并能言理，亦有辩讷之异。扬州口谈至剧，太常輙云：「汝更思吾论。」〈《中兴书》曰：「殷融字洪远，陈郡人。桓彝有人伦鉴，见融甚叹美之。著象不尽意、大贤须易论，理义精微，谈者称焉。兄子浩亦能淸言，毎与浩谈，有时而屈，退而著论，融更居长。为司徒左西属。饮酒善舞，终日啸咏，未尝以世务自婴。累迁吏部尚书、太常卿，卒。」〉</t>
+  </si>
+  <si>
+    <t>庾子嵩作《意赋》成，〈《晋阳秋》曰：「敳，永嘉中为石勒所害。先是敳见王室多难，知终婴其祸，乃作意赋以寄怀。」〉从子文康见，问曰：「若有意邪？非赋之所尽；若无意邪？复何所赋？」答曰：「正在有意无意之间。」</t>
+  </si>
+  <si>
+    <t>郭景纯诗云：「林无静树，川无停流。」〈王隐《晋书》曰：「郭璞字景纯，河东闻喜人。父瑗，建平太守。」《璞别传》曰：「璞奇博多通，文藻粲丽，才学赏豫，足参上流。其诗赋诔颂，并传于世，而讷于言。造次咏语，常人无异。又不持仪检，形质穨索，纵情嫚惰，时有醉饱之失。友人干令升戒之曰：『此伐性之斧也。』璞曰：『吾所受有分，恒恐用之不尽，岂酒色之能害！』王敦取为参军。敦纵兵都辇，乃咨以大事，璞极言成败，不为回屈。敦忌而害之。」诗，璞《幽思篇》者。〉阮孚云〈阮孚，别见。〉：「泓峥萧瑟，实不可言。毎读此文，輙觉神超形越。」</t>
+  </si>
+  <si>
+    <t>庾阐始作《扬都赋》，道温庾云：「温挺义之标，庾作民之望。方响则金声，比德则玉亮。」庾公闻赋成，求看，兼赠贶之。阐更改「望」为「隽」，以「亮」为「润」云。〈《中兴书》曰：「阐字仲初，颍川人，太尉亮之族也。少孤，九歳便能属文。迁散骑侍郎，领大著作。为《扬都赋》，邈绝当时。五十四卒。」〉</t>
+  </si>
+  <si>
+    <t>孙兴公作《庾公诔》。袁羊曰：「见此张缓。」于时以为名赏。〈《袁氏家传》曰：「乔有文才。」〉</t>
+  </si>
+  <si>
+    <t>庾仲初作《扬都赋》成，以呈庾亮；亮以亲族之怀，大为其名价云：「可三二京，四三都。」于此人人竞写，都下纸为之贵。谢太傅云：「不得尔。此是屋下架屋耳！事事拟学，而不免俭狭。」〈王隐论扬雄《太玄经》》曰：「《玄经》虽妙，非益也。是以古人谓其屋下架屋。」〉</t>
+  </si>
+  <si>
+    <t>习凿齿史才不常，宣武甚器之，未三十，便用为荆州治中。凿齿谢牋亦云：「不遇明公，荆州老从事耳！」后至都见简文，返命，宣武问「见相王何如？」答云：「一生不曾见此人！」从此忤旨，出为衡阳郡，性理遂错。于病中犹作《汉晋春秋》，品评卓逸。〈《续晋阳秋》曰：「凿齿少而博学，才情秀逸，温甚奇之。自州从事歳中三转至治中。后以忤旨，左迁戸曹参军、衡阳太守。在郡著《汉晋春秋》，斥温觊觎之心也。」《凿齿集》载其论，略曰：「静汉末累世之交争，廓九域之蒙晦，大定千载之盛功者，皆司马氏也。若以魏有代王之德，则不足；有静乱之功，则孙刘鼎立，共王、秦政，犹不见叙于帝王，况暂制数州之众哉？且汉有系周之业，则晋无所承魏之迹矣。春秋之时，呉楚称王。若推有德，彼必自系于周，不推呉楚也。况长辔庙堂，呉蜀两定，天下之功也。」〉</t>
+  </si>
+  <si>
+    <t>孙兴公云：「三都、二京，五经鼓吹。」〈言此五赋是经典之羽翼。〉</t>
+  </si>
+  <si>
+    <t>谢太傅问主簿陆退〈《陆氏谱》曰：「退字黎民，呉郡人。髙祖凯，呉丞相。祖仰，吏部郎。父伊，州主簿。退仕至光禄大夫。」〉「张凭何以作母诔而不作父诔？」退答曰：「故当是丈夫之德，表于事行；妇人之美，非诔不显。」〈《陆氏谱》曰：「退，凭婿也。」〉</t>
+  </si>
+  <si>
+    <t>王敬仁年十三，作《贤人论》。长史送示真长，真长答云：「见敬仁所作论，便足参微言。」〈《修集》载其论曰：「或问『易称贤人，黄裳元吉，苟未能暗与理会，何得不求通？求通则有损，有损则元吉之称将虚设乎？』答曰：『贤人诚未能暗与理会，当居然人从，比之理尽，犹一豪之领一梁。一豪之领一梁，虽于理有损，不足以挠梁。贤有情之至寡，豪有形之至小，豪不至挠梁，于贤人何有损之者哉？』」〉</t>
+  </si>
+  <si>
+    <t>孙兴公云：「潘文烂若披锦，无处不善；〈《续文章志》曰：「岳为文选言简章，淸绮绝伦。」〉陆文若排沙简金，往往见宝。」〈《文章传》曰：「机善属文，司空张华见其文章，篇篇称善，犹讥其作文大治。谓曰：『人之作文，患于不才；至子为文，乃患太多也。』」〉</t>
+  </si>
+  <si>
+    <t>简文称许掾云：「玄度五言诗，可谓妙绝时人。」〈《续晋阳秋》曰：「询有才藻，善属文。自司马相如、王裦、扬雄诸贤，世尚赋颂，皆体则《诗》《骚》，傍综百家之言。及至建安，而诗章大盛。逮乎西朝之末，潘陆之徒虽时有质文，而宗归不异也。正始中，王弼、何晏好《庄》《老》玄胜之谈，而世遂贵焉。至江左李充尤盛。故郭璞五言始会合道家之言而韵之。询及太原孙绰转相祖尚，又加以三世之辞，而《诗》《骚》之体尽矣。询绰并为一时文宗，自此作者悉体之。至义熙中，谢混始改。〉</t>
+  </si>
+  <si>
+    <t>孙兴公作《天台赋》成，以示范荣期，〈《中兴书》曰：「范启字荣期，愼阳人。父坚，护军。启以才义显于世，仕至黄门郎。」〉云：「卿试掷地，要作金石声。」范曰：「恐子之金石，非宫商中声！」然毎至佳句，〈「赤城霞起而建标，瀑布飞流而界道」，此赋之佳处。〉輙云：「应是我辈语。」</t>
+  </si>
+  <si>
+    <t>桓公见谢安石作《简文谥议》，看竟，掷与坐上诸客曰：「此是安石碎金。」〈刘谦之《晋纪》载安《议》曰：「谨按谥法：『一德不懈曰简，道德博闻曰文。』易简而天下之理得，观乎人文，化成天下，仪之景行，犹有仿佛。宜尊号曰太宗，谥曰简文。」〉</t>
+  </si>
+  <si>
+    <t>袁虎少贫，〈虎，袁宏小字也。〉尝为人佣载运租。谢镇西经船行，其夜淸风朗月，闻江渚间估客船上有咏诗声，甚有情致。所诵五言，又其所未尝闻，叹美不能已。即遣委曲讯问，乃是袁自咏其所作咏史诗。因此相要，大相赏得。〈《续晋阳秋》曰：「虎少有逸才，文章绝丽，曾为咏史诗，是其风情所寄。少孤而贫，以运租为业。镇西谢尚，时镇牛渚，乘秋佳风月，率尔与左右微服泛江。会虎在运租船中讽咏，声既淸会，辞文藻拔。非尚所曾闻，遂住听之，乃遣问讯。答曰：『是袁临汝郎诵诗，即其咏史之作也。』尚佳其率有胜致，即遣要迎，谈话申旦。自此名誉日茂。」〉</t>
+  </si>
+  <si>
+    <t>孙兴公云：「潘文浅而净，陆文深而芜。」</t>
+  </si>
+  <si>
+    <t>裴郎作《语林》，始出，大为远近所传。时流年少，无不传写，各有一通。载王东亭作《经王公酒垆下赋》，甚有才情。〈《裴氏家传》曰：「裴荣字荣期，河东人。父稚，丰城令。荣期少有风姿才气，好论古今人物。撰《语林》数巻，号曰《裴子》。」檀道鸾谓裴松之，以为启作《语林》，荣傥别名启乎？〉</t>
+  </si>
+  <si>
+    <t>谢万作《八贤论》，与孙兴公往反，小有利钝。〈《中兴书》曰：「万善属文，能谈论。」《万集》载其叙四隐四显，为八贤之论，谓渔父、屈原、季主、贾谊、楚老、龚胜、孙登、嵇康也。其旨以处者为优，出者为劣。孙绰难之，以谓体玄识远者，出处同归。文多不载。〉谢后出以示顾君齐，〈《顾氏谱》曰：「夷字君齐，呉郡人。祖𫷷，孝廉。父霸，少府卿。夷辟州主簿，不就。」〉顾曰：「我亦作，知卿当无所名。」</t>
+  </si>
+  <si>
+    <t>桓宣武命袁彦伯作《北征赋》，〈《续晋阳秋》曰：「宏从温征鲜卑，故作《北征赋》，宏文之髙者。」〉既成，公与时贤共看，咸嗟叹之。时王珣在坐云：「恨少一句，得『写』字足韵，当佳。」袁即于坐揽笔益云：「感不绝于余心，溯流风而独写。」公谓王曰：「当今不得不以此事推袁。」〈《宏集》载其赋云：「闻所闻于相传，云获麟于此野。诞灵物以瑞德，奚授体于虞者。悲尼父之恸泣，似实恸而非假。岂一物之足伤，实致伤于天下。感不绝于余心，溯流风而独写。」《晋阳秋》曰：「宏尝与王珣、伏滔同侍温坐，温令滔读其赋，至『致伤于天下』，于此改韵。云：『此韵所咏，慨深千载。今于「天下」之后便移韵，于写送之致，如为未尽。』滔乃云：『得益「写」一句，或当小胜。』桓公语宏：『卿试思益之。』宏应声而益，王伏称善。」〉</t>
+  </si>
+  <si>
+    <t>孙兴公道：「曹辅佐才如白地明光锦，〈《中兴书》曰：「曹毗字辅佐，谯国人，魏大司马休曾孙也。好文籍，能属词，累迁太学博士、尚书郎、光禄勋。」〉裁为负版绔，〈《论语》曰：「孔子式负版者。」郑氏注曰：「版，谓邦国籍也。负之者，贱隶人也。」〉非无文采，酷无裁制。」</t>
+  </si>
+  <si>
+    <t>袁伯彦作《名士传》成，〈宏以夏侯太初、何平叔、王辅嗣为正始名士，阮嗣宗、嵇叔夜、山巨源、向子期、刘伯伦、阮仲容、王濬仲为竹林名士，裴叔则、乐彦辅、王夷甫、庾子嵩、王安期、阮千里、衞叔宝、谢幼舆为中朝名士。〉见谢公。公笑曰：「我尝与诸人道江北事，特作狡狯耳！」彦伯遂以箸书。</t>
+  </si>
+  <si>
+    <t>王东亭到桓公吏，既伏阁下；桓公令人窃取其白事。东亭即于阁下更作，无复向一字。〈《续晋阳秋》曰：「珣学渉通敏，文髙当世。」〉</t>
+  </si>
+  <si>
+    <t>桓宣武北征，〈《温别传&gt;曰：「温以太和四年上疎自征鲜卑。」〉袁虎时从，被责免官。会须露布文，唤袁倚马前会作；手不辍笔，俄得七纸，绝可观。东亭在侧，极叹其才。袁虎云：「当令齿舌间得利。」</t>
+  </si>
+  <si>
+    <t>袁宏始作《东征赋》，都不道陶公。胡奴诱之狭室中，临以白刃，〈胡奴，陶范。别见。〉曰：「先公勋业如是！君作《东征赋》，云何相忽略？」宏窘蹙无计，便答：「我大道公，何以云无？」因诵曰：「精金百炼，在割能断。功则治人，职思靖乱。长沙之勋，为史所赞。」〈《续晋阳秋》曰：「宏为大司马记室参军，后为《东征赋》，悉称过江诸名望。时桓温在南州，宏语众云：『我决不及桓宣城。』时伏滔在温府，与宏善，苦谏之，宏笑而不答。滔密以启温，温甚忿，以宏一时文宗，又闻此赋有声，不欲令人显闻之。后游靑山饮酌，既归，公命宏同载，众为危惧。行数里，问宏曰：『闻君作《东征赋》，多称先贤，何故不及家君？』宏答曰：『尊公称谓，自非下官所敢专，故未呈启，不敢显之耳。』温乃云：『君欲为何辞？』宏即答云：『风鉴散朗，或搜或引。身虽可亡，道不可陨。则宣城之节，信为允也。』温泫然而止。」二说不同，故详载焉。〉</t>
+  </si>
+  <si>
+    <t>或问顾长康：「君《筝赋》何如嵇康《琴赋》？」顾曰：「不赏者作后出相遗，深识者亦以髙奇见贵。」〈《中兴书》曰：「恺之博学有才气，为人迟钝而自矜尚，为时所笑。」宋明帝《文章志》曰：「桓温云：『顾长康体中痴黠各半，合而论之，正平平耳。』世云有三绝，画绝、文绝、痴绝。」《续晋阳秋》曰：「恺之矜伐过实，诸年少因相称誉，以为戏弄。为散骑常侍，与谢瞻连省，夜于月下长咏，自云得先贤风制，瞻毎遥赞之。恺之得此，弥自力忘倦。瞻将眠，语搥脚人令代，恺之不觉有异，遂几申旦而后止。」〉</t>
+  </si>
+  <si>
+    <t>殷仲文天才宏赡，〈《续晋阳秋》曰：「仲文雅有才藻，著文数十篇。」〉而读书不甚广，博亮叹曰：〈亮，别见。〉「若使殷仲文读书半袁豹，〈丘渊之《文章叙》曰：「豹字士蔚，陈郡人。祖耽，歴阳太守。父质，琅邪内史。豹隆安中著作佐郎，累迁太尉长史、丹阳尹。义熙九年卒。」〉才不减班固。」〈《续汉书》曰：「固字孟坚，右扶风人。幼有俊才，学无常师，善属文，经传无不究览。」〉</t>
+  </si>
+  <si>
+    <t>羊孚作《雪赞》云：「资淸以化，乘气以霏。遇象能鲜，即洁成辉。」桓胤遂以书扇。〈《中兴书》曰：「胤字茂祖，谯国人。祖冲，太尉。父嗣，江州刺史。胤少有淸操，以恬退见称，仕至中书令。玄败，徙安成郡，后见诛。」〉</t>
+  </si>
+  <si>
+    <t>王孝伯在京行散，至其弟王睹戸前，〈睹，王爽小字也。《中兴书》曰：「爽字季明，恭第四弟也。仕至侍中，恭事败，赠太常。」〉问：「古诗中何句为最？」睹思未答。孝伯咏「所遇无故物，焉得不速老」，此句为佳。</t>
+  </si>
+  <si>
+    <t>桓玄尝登江陵城南楼云：「我今欲为王孝伯作诔。」因吟啸良久，随而下笔。一坐之间，诔以之成。〈《晋安帝纪》曰：「玄文翰之美，髙于一世。」《玄集》载其诔叙曰：「隆安二年九月十七日，前将军、靑兖二州刺史、太原王孝伯薨。川岳降神，哲人是育。既爽其灵，不贻其福。天道茫昧，孰测倚伏？犬马反噬，豺狼翘陆。岭摧髙梧，林残故竹。人之云亡，邦国丧牧。于以诔之，爰旌芳郁。」文多不尽载。〉</t>
+  </si>
+  <si>
+    <t>桓玄初并西夏，领荆江二州，二府一国。〈《玄别传》曰：「玄既克殷仲堪，后杨佺期，遣使讽朝廷，朝廷以玄都督八州，领江州、荆州二刺史。」〉于时始雪，五处倶贺，五版并入。玄在听事上，版至即答。版后皆粲然成章，不相揉杂。</t>
+  </si>
+  <si>
+    <t>桓玄下都，羊孚时为兖州别驾，从京来诣门，牋云：「自顷世故睽离，心事沦蕰。明公启晨光于积晦，澄百流以一源。」桓见牋，驰唤前，云：「子道，子道，来何迟？」即用为记室参军。孟昶〈别。〉为刘牢之主簿，〈《续晋阳秋》曰：「牢之字道坚，彭城人，世以将显。父遁，征虏将军。牢之沈毅多计数，为谢玄参军。苻坚之役，以骁猛成功。及平王恭，转徐州刺史。桓玄下都，以牢之为前锋，行征西将军。玄至归降，用为会稽内史。欲解其兵，奔而缢死。」〉诣门谢，见云：「羊侯，羊侯，百口赖卿！」</t>
+  </si>
+  <si>
+    <t>郑玄,马融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑玄,服虔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服虔, 崔烈</t>
+  </si>
+  <si>
+    <t>钟会，嵇康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅嘏,李丰,王广</t>
+  </si>
+  <si>
+    <t>何晏,王弼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王黎,荀融</t>
+  </si>
+  <si>
+    <t>裴徽,王弼</t>
+  </si>
+  <si>
+    <t>傅嘏，荀粲，裴徽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>王衍,裴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𬱟</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>裴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𬱟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,王衍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯玄,阮籍,乐广,刘汉,戴奥,庾敳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛厷, 王衍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫玠,乐广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庾敳</t>
+  </si>
+  <si>
+    <t>乐广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向秀,郭象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵇康,吕安</t>
+  </si>
+  <si>
+    <t>阮修，王衍，卫玠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴遐，王衍，郭象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫玠，王敦，谢鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷浩，王导，桓温，王濛，王述，谢尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢安，阮裕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚裒,孙盛,支道林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘惇,殷浩</t>
+  </si>
+  <si>
+    <t>公输般,墨子</t>
+  </si>
+  <si>
+    <t>殷浩,韩伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢尚,殷浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓温，司马昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支道林，竺法深，孙绰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙盛,殷浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支道林,冯怀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向秀，郭象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷浩,刘惔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支道林,王坦之</t>
+  </si>
+  <si>
+    <t>支道林，孙绰，王羲之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许询，王修，支道林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支道林，谢安，谢朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支道林,许掾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢玄,支道林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王濛，支道林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷浩，支道林，王羲之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于法开，支道林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康僧渊,殷浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷浩,谢安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1459,7 +2017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,6 +2048,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1511,7 +2083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1533,6 +2105,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1816,7 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -4628,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE9305-C10F-44E2-8466-D0787367732C}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5066,4 +5644,1398 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC8CDF6-DC99-4F70-BE22-B42B3BF4E4A4}">
+  <dimension ref="A1:E105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="331.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="331.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="357" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="408" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="408" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="382.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B65" s="1">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="382.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B74" s="1">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B76" s="1">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="1">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="331.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="331.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="357" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B100" s="1">
+        <v>99</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B102" s="1">
+        <v>101</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B103" s="1">
+        <v>102</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B104" s="1">
+        <v>103</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B105" s="1">
+        <v>104</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/shishuoxinyu.xlsx
+++ b/shishuoxinyu.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\shishuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B6D04-A315-4B41-BB8A-564FF26639E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3A1FB7-9131-4F66-87C1-FACBC82F4EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="326">
   <si>
     <t>division</t>
   </si>
@@ -417,809 +416,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>边文礼见袁奉髙〈闳也〉，失次序。〈《文士传》曰：“边让字文礼，陈留人。才俊辩逸，大将军何进闻其名，召署令史，以礼见之。让占对闲雅，声气如流，坐客皆慕之。让出就曹，时孔融、王朗等並前为掾，共书刺从让，让平衡与交接。後为九江太守，为魏武帝所杀。”〉奉髙曰：“昔尧聘许由，面无怍色；〈皇甫谧曰：“由字武仲，阳城槐里人也。尧舜皆师而学事焉，後隐於沛泽之中，尧乃致天下而让焉。由为人据义履方，邪席不坐，邪膳不食，闻尧让而去。其友巣父闻由为尧所让，以为污己，乃临池洗耳。池主怒曰：‘何以污我水？’由於是遁耕於中嶽颍水之阳，箕山之下，终身无经天下色。死葬箕山之巓，在阳城之南十里。尧因就其墓，号曰‘箕山公神’，以配食五嶽，世世奉祀，至今不绝也。”〉先生何为‘颠倒衣裳’？”文礼答曰：“明府初临，尧德未彰，是以贱民颠倒衣裳耳。”〈按：袁闳卒於太尉掾，未尝为汝南，斯说谬矣。〉</t>
-  </si>
-  <si>
-    <t>边让，袁阆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐孺子〈穉也〉年九歳，尝月下戏，人语之曰：“若令月中无物，当极明邪！”〈《五经通议》曰：“月中有兔、蟾蜍者何？月，阴也；蟾蜍，亦阴也；而与兔並明，阴繫於阳也。”〉徐曰：“不然，譬如人眼中有瞳子，无此必不明。”</t>
-  </si>
-  <si>
-    <t>徐穉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔文举〈融也〉年十歳，随父到洛。时李元礼有盛名，为司隶校尉，诣门者皆隽才淸称，及中表亲戚乃通。文举至门，谓吏曰：“我是李府君亲。”既通，前坐。元礼问曰：“君与僕有何亲？”对曰：“昔先君仲尼与君先人伯阳，有师资之尊；是僕与君奕世为通好也。”元礼及宾客莫不奇之。太中大夫陈韪後至，人以其语语之。韪曰：“小时了了，大未必佳！”文举曰：“想君小时，必当了了！”韪大踧踖。〈《续汉书》曰：“孔融字文举，鲁国人，孔子二十四世孙也。髙祖父尚，巨鹿太守。父宙，泰山都尉。”《融别传》曰：“融四歳，与兄食梨，辄引小者。人问其故？答曰：‘小儿，法当取小者。’年十歳，随父诣京师。河南尹李膺有重名，融欲观其为人，遂造之。膺问：‘髙明父祖，尝与僕周旋乎？’融曰：‘然。先君孔子与君先人李老君，同德比义，而相师友。则融与君累世通家也。’众坐莫不叹息，佥曰：‘异童子也！’太中大夫陈韪後至，同坐以告。韪曰：‘人小时了了者，长大未必能奇。’融应声曰：‘即如所言，君之幼时，岂实慧乎？’膺大笑，顾谓融曰：‘长大必为伟器。’”〉</t>
-  </si>
-  <si>
-    <t>孔融，李膺，陈韪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔文举有二子，大者六歳，小者五歳。昼日父眠，小者床头盗酒饮之。大儿谓曰：“何以不拜？”答曰：“偸，那得行礼！”</t>
-  </si>
-  <si>
-    <t>孔融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔融被收，中外惶怖。时融儿大者九歳，小者八歳。二儿故琢钉戏，了无遽容。融谓使者曰：“冀罪止於身，二儿可得全不？”儿徐进曰：“大人岂见覆巣之下，復有完卵乎？”寻亦收至。〈《魏氏春秋》曰：“融对孙权使有讪谤之言，坐弃市。二子方八歳、九歳，融见收，奕棋端坐不起。左右曰：‘而父见执。’二子曰：‘安有巣覆而卵不破者哉！’遂倶见杀。”《世语》曰：“魏太祖以歳俭禁酒，融谓酒以成礼，不宜禁。由是惑众，太祖收寘法焉。二子龆龀见收，顾谓二子曰：‘何以不辟？’二子曰：‘父尚如此，復何所辟？’”裴松之以为《世语》云融儿不辟，知必倶死，犹差可安。孙盛之言，诚所未譬。八歳小儿，能悬了祸患，聪明特达，卓然既远，则其忧乐之情，固亦有过成人矣。安有见父被执，而无变容，奕棋不起，若在暇豫者乎？昔申生就命，言不忘父，不以己之将死而废念父之情也。父安尚犹若兹，而况颠沛哉！盛以此为美谈，无乃贼夫人之子与？盖由好奇情多，而不知言之伤理也。〉</t>
-  </si>
-  <si>
-    <t>颍川太守髡陈仲弓。〈按，寔之在鄕里，州郡有疑狱不能决者，皆将诣寔，或到而情首，或中途改辞，或託狂悸，皆曰“寧为刑戮所苦，不为陈君所非。”岂有盛德感人若斯之甚，而不自卫，反招刑辟，殆不然乎？此所谓东野之言耳！〉客有问元方：“府君何如？”元方曰：“髙明之君也。”“足下家君何如？”曰：“忠臣孝子也。”客曰：“《易》称‘二人同心，其利断金；同心之言，其臭如兰。’〈王廙注《繫辞》曰：“金，至坚矣，同心者，其利无不入。兰，芳物也，无不乐者。言其同心者，物无不乐也。”〉何有髙明之君而刑忠臣孝子者乎？”元方曰：“足下言何其谬也！故不相荅。”客曰：“足下但因伛为恭不能答。”元方曰：“昔髙宗放孝子孝己，〈《帝王世纪》曰：“殷髙宗武丁有贤子孝己，其母蚤死，髙宗惑後妻之言，放之而死，天下哀之。”〉尹吉甫放孝子伯奇，〈《琴操》曰：“尹吉甫，周卿也，有子伯奇，母死更娶。後妻生子曰伯邽。乃谮伯奇於吉甫，於是放伯奇於野。宣王出遊，吉甫从，伯奇乃作歌，以言感之。宣王闻之曰：‘此孝子之辞也。’吉甫乃求伯奇於野，而射杀後妻。”〉董仲舒放孝子符起〈未详〉。唯此三君，髙明之君；唯此三子，忠臣孝子。”客惭而退。</t>
-  </si>
-  <si>
-    <t>陈纪</t>
-  </si>
-  <si>
-    <t>武丁，尹吉甫，董仲舒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荀慈明与汝南袁阆相见，〈荀爽，一名谞。《汉南纪》曰：“谞文章典籍无不渉，时人谚曰：‘荀氏八龙，慈明无双。’潜处笃志，徴聘无所就。”张璠《汉纪》曰：“董卓秉政，復徴爽，爽欲遁去，吏持之急。起布衣，九十五日而至三公。”〉问颍川人士，慈明先及诸兄。阆笑曰：“士但可因亲旧而已乎？”慈明曰：“足下相难，依據者何经？”阆曰：“方问国士而及诸兄，是以尤之耳。”慈明曰：“昔者祁奚内举不失其子，外举不失其讎，以为至公。〈《春秋传》曰：“祁奚为中军尉，请老，晋侯问嗣焉。称解狐，其讎也。将立之而卒。又问焉。对曰：‘午也可。’其子也。君子谓祁奚可谓能举善矣。称其讎不为谄，立其子不为比。”〉公旦《文王》之诗，不论尧舜之德，而颂文武者，亲亲之义也。《春秋》之义，内其国而外诸夏。且不爱其亲而爱他人者，不为悖德乎？”</t>
-  </si>
-  <si>
-    <t>荀爽，袁阆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈奚，周公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祢衡被魏武谪为鼓吏，正月半试鼓。衡扬枹为渔阳掺挝，渊渊有金石声，四坐为之改容。〈《典略》曰：“衡字正平，平原般人也。”《文士传》曰：“衡不知先所出，逸才飘举。少与孔融作尔汝之交，时衡未满二十，融已五十。敬衡才秀，共结殷勤，不能相违。以建安初北遊，或劝其诣京师贵遊者，衡怀一刺，遂至漫灭，竟无所诣。融数与武帝牋，称其才，帝倾心欲见。衡称疾不肯往，而数有言论。帝甚忿之，以其才名不杀，图欲辱之，乃令录为鼓吏。後至八月朝会，大阅试鼓节，作三重阁，列坐宾客。以帛绢製衣，作一岑牟，一单绞及小裈。鼓吏度者，皆当脱其故衣，著此新衣。次传衡，衡撃鼓为渔阳掺檛，蹋地来前，蹑𫘈脚足，容态不常，鼓声甚悲，音节殊妙。坐客莫不慷慨，知必衡也。既度，不肯易衣。吏呵之曰：‘鼓吏何独不易服？’衡便止。当武帝前，先脱裈，次脱餘衣，裸身而立。徐徐乃著岑牟，次著单绞，後乃著裈。毕，復撃鼓掺槌而去，颜色无怍。武帝笑谓四坐曰：‘本欲辱衡，衡反辱孤。’至今有渔阳掺檛，自衡造也。为黄祖所杀。”〉孔融曰：“祢衡罪同胥靡，不能發明王之梦。”〈皇甫谧《帝王世纪》曰：“武丁梦天赐己贤人，使百工写其象，求诸天下。见築者胥靡，衣褐於傅岩之野，是谓傅说。”张晏曰：“胥靡，刑名。胥，相也；靡，从也。谓相从坐轻刑也。”〉魏武惭而赦之。</t>
-  </si>
-  <si>
-    <t>祢衡，孔融，曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傅说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南郡庞士元闻司马德操在颍川，故二千里候之。至，遇德操采桑，士元从车中谓曰：“吾闻丈夫处世，当带金佩紫，焉有屈洪流之量，而执丝妇之事。”〈《蜀志》曰：“庞统字士元，襄阳人。少时樸钝，未有识者。颍川司马徽有知人之鑒，士元弱冠往见徽，徽采桑树上，坐士元树下，共语，自昼至夜。徽异之曰：‘生当为南州士人之冠冕。’由是渐显。”《襄阳记》曰：“士元，德公之从子也。年少未有识者，唯德公重之。年十八，使往见德操，与语，叹曰：‘德公诚知人，实盛德也。’後刘备访世事於德操，德操曰：‘俗士岂识时务，此闲自有伏龙、凤雏。’谓诸葛孔明与士元也。”《华阳国志》曰：“刘备引士元为军师中郎将，从攻洛，为流矢所中，卒。时年三十八。”〉德操曰：〈《司马徽别传》曰：“徽字德操，颍川阳翟人。有人伦鑒识，居荆州。知刘表性暗，必害善人，乃括囊不谈议时人。有以人物问徽者，初不辨其髙下，毎辄言‘佳’。其妇谏曰：‘人质所疑，君宜辨论，而一皆言佳，岂人所以咨君之意乎？’徽曰：‘如君所言，亦復佳。’其婉约逊遁如此。尝有妄认徽猪者，便推与之。後得其猪，叩头来还，徽又厚辞谢之。刘表子琮往候徽，遣问在不？会徽自锄园，琮左右问：‘司马君在邪？’徽曰：‘我是也。’琮左右见其醜陋，骂曰：‘死佣，将军诸郎欲求见司马君，汝何等田奴，而自称是邪！’徽归，刈头著帻出见。琮左右见徽故是向老翁，恐，向琮道之。琮起，叩头辞谢。徽乃谓曰：‘卿真不可，然吾甚羞之。此自锄园，唯卿知之耳。’有人临蠶求簇箔者，徽自弃其蠶而与之。或曰：‘凡人损己以赡人者，谓彼急我缓也。今彼此正等，何为与人？’徽曰：‘人未尝求己，求之不与将惭。何有以财物令人惭者！’人谓刘表曰：‘司马德操，奇士也，但未遇耳。’表後见之，曰：‘世闲人为妄语，此直小书生耳。’其智而能愚皆此类。荆州破，为曹操所得，操欲大用，会其病死。”〉“子且下车，子適知邪径之速，不虑失道之迷。昔伯成耦耕，不慕诸侯之荣；〈《庄子》曰：“尧治天下，伯成子髙立为诸侯，禹为天子，伯成辞诸侯而耕於野。禹往见之，趋就下风而问焉。子髙曰：‘昔尧治天下，不赏而民劝，不罚而民畏。今子赏罚而民且不仁，德自此衰，刑自此立。夫子盍行邪？毋落吾事！’”〉原宪桑枢，不易有官之宅。〈《家语》曰：“原宪字子思，宋人，孔子弟子。居鲁，环堵之室，茨以生草，蓬戸不完，桑枢而瓮牖，上漏下湿，坐而絃歌。子贡轩车不容巷，往见之，曰：‘先生何病也？’宪曰：‘宪闻无财谓之贫，学而不能行谓之病。今宪贫也，非病也。夫希世而行，比周而友，学以为人，教以为己。仁义之慝，舆马之饰，宪不忍为也。’”〉何有坐则华屋，行则肥马，侍女数十，然後为奇。此乃许父〈许由、巣父。〉所以忼慨，夷齐所以长叹。〈《孟子》曰：“伯夷、叔齐目不视恶色，耳不聽恶声，与鄕人居，若在涂炭，盖圣人之淸也。”〉虽有窃秦之爵，千驷之富，〈《古史考》曰：“吕不韦为秦子楚行千金货於华阳夫人，请立子楚为嗣。及子楚立，封不韦洛阳十万戸，号文信侯。”以诈获爵，故曰窃也。《论语》曰：“齐景公有马千驷，民无德而称焉。”孔安国曰：“千驷，四千匹。”〉不足贵也！”士元曰：“僕生出边垂，寡见大义。若不一叩洪鐘，伐雷鼓，则不识其音响也。”</t>
-  </si>
-  <si>
-    <t>庞统，司马徽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 伯成子高，原思，许由，巢父，伯夷，叔齐，吕不韦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘公幹以失敬罹罪，〈《典略》曰：“刘桢字公幹，东平寧阳人。建安十六年，世子为五官中郎将，妙选文学，使桢随侍太子。酒酣坐欢，乃使夫人甄氏出拜，坐上客多伏，而桢独平视。他日公闻，乃收桢，减死输作部。”《文士传》曰：“桢性辩捷，所问应声而答。坐平视甄夫人，配输作部，使磨石。武帝至尚方观作者，见桢匡坐正色磨石。武帝问曰：‘石何如？’桢因得喩己自理，跪而对曰：‘石出荆山悬岩之巓，外有五色之章，内含卞氏之珍。磨之不加莹，雕之不增文，禀气坚贞，受之自然。顾其理枉屈纡绕而不得申。’帝顾左右大笑，即日赦之。”〉文帝问曰：“卿何以不谨於文宪？”桢荅曰：“臣诚庸短，亦由陛下纲目不疏。”〈《魏志》曰：“帝讳丕，字子桓，受汉禅。”按，诸书或云桢被刑魏武之世，建安二十年病亡。後七年，文帝乃即位。而谓桢得罪黄初之时，谬矣。〉</t>
-  </si>
-  <si>
-    <t>刘桢，曹丕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍾毓、鍾会少有令誉。〈《魏书》曰：“毓字穉叔，颍川长社人，相国繇长子也。年十四，为散骑侍郎，機捷谈笑有父风，仕至车骑将军。”〉年十三，魏文帝闻之，语其父鍾繇〈《魏志》曰：“繇字元常，家贫好学，为《周易》、《老子》训。历大理、相国，迁太傅。”〉曰：“可令二子来。”於是敕见。毓面有汗，帝曰：“卿面何以汗？”毓对曰：“战战惶惶，汗出如浆。”復问会：“卿何以不汗？”对曰：“战战栗栗，汗不敢出。”</t>
-  </si>
-  <si>
-    <t>钟毓，钟会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍾毓兄弟小时，値父昼寝，因共偸服药酒。其父时觉，且託寐以观之。毓拜而後饮，会饮而不拜。〈《魏志》曰：“会字士季，繇少子也。敏惠夙成。中护军蒋济著论，谓观其眸子，足以知人。会年五歳，繇遣见济。济甚异之，曰：‘非常人也！’及壮，有才数，精练名理，累迁黄门侍郎。诸葛诞反，文王征之，会谋居多，时人谓之子房。拜镇西将军。伐蜀，蜀平，进位司徒。自谓功名盖世，不可復为人下。谓所亲曰：‘我淮南已来，画无遗策，四海共知，持此欲安归乎？’遂谋反，见诛，时年四十。”〉既而问毓何以拜？毓曰：“‘酒以成礼’，不敢不拜。”又问会何以不拜？会曰：“偸本非礼，所以不拜。”</t>
-  </si>
-  <si>
-    <t>魏明帝为外祖母築馆於甄氏。〈《魏本传》曰：“帝讳叡，字元仲，文帝太子。以其母废，未立为嗣。文帝与倶猎，见子母鹿，文帝射其母，应絃而倒。復令帝射其子，帝置弓泣曰：‘陛下已杀其母，臣不忍復杀其子。’文帝曰：‘好语动人心。’遂定为嗣。是为明帝。”《魏书》曰：“文昭甄皇后，明帝母也。父逸，上蔡令。烈宗即位，追封上蔡君。嫡孙象袭爵，象薨，子畅嗣，起大第，车驾亲自临之。”〉既成，自行视，谓左右曰：“馆当以何为名？”侍中缪袭曰：〈《文章叙录》曰：“袭字熙伯，东海兰陵人。有才学，累迁侍中、光禄勋。”〉“陛下圣思齐於哲王；罔极过於曾闵。此馆之兴，情鍾舅氏，宜以‘渭阳’为名。”〈《秦诗》曰：“渭阳，康公念母也。康公之母，晋献公之女。文公遭骊姬之难，未反而秦姬卒。穆公纳文公，康公时为太子，赠送文公於渭之阳，念母之不见也。我见舅氏，如母存焉。”按，《魏书》：“帝於後园为象母起观，名其里曰渭阳。”然则象母即帝之舅母，非外祖母也。且“渭阳”为馆名，亦乖旧史也。〉</t>
-  </si>
-  <si>
-    <t>曹叡，缪袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦康公罃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何平叔云：“服五石散，非唯治病，亦觉神明开朗。”〈《魏略》曰：“何晏字平叔，南阳宛人，汉大将军进孙也。或云何苗孙也。尚主，又好色，故黄初时无所事任。正始中，曹爽用为中书，主选举，宿旧者多得济拔。为司马宣王所诛。”秦丞相《寒食散论》曰：“寒食散之方虽出汉代，而用之者寡，靡有传焉。魏尚书何晏首获神效，由是大行於世，服者相寻也。”〉</t>
-  </si>
-  <si>
-    <t>何晏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵇中散语赵景真：〈嵇绍《赵至叙》曰：“至字景真，代郡人。汉末，其祖流宕客缑氏。令新之官，至年十二，与母共道傍看，母曰：‘汝先世非微贱家也，汝後能如此不？’至曰：‘可尔耳。’归便求师诵书，蚤闻父耕叱牛声，释书而泣。师问之，答曰：‘自伤不能致荣华，而使老父不免勤苦。’年十四，入太学观，时先君在学写石经古文，事讫去。遂随车问先君姓名。先君曰：‘年少何以问我？’至曰：‘观君风器非常，故问耳。’先君具告之。至年十五，阳病，数数狂走五里三里，为家追得，又炙身体十数处。年十六，遂亡命，径至洛阳，求索先君不得。至邺，沛国史仲和是魏领军史涣孙也，至便依之，遂名翼，字阳和。先君到邺，至具道太学中事，便逐先君归山阳经年。至长七尺三寸，洁白黑髮，赤唇明目，鬓鬚不多，闲详安谛，体若不胜衣。先君尝谓之曰：‘卿头小而锐，瞳子白黑分明，视瞻停谛，有白起风。’至论议淸辩，有从横才，然亦不以自长也。孟元基辟为辽东从事，在郡断九狱，见称淸当。自痛弃亲远遊，母亡不见，吐血發病，服未竟而亡。”〉“卿瞳子白黑分明，有白起之风；〈严尤《三将叙》曰：“白起，平原君劝赵孝成王受冯亭，王曰：‘受之，秦兵必至，武安君必将，谁能当之者乎？’对曰：‘渑池之会，臣察武安君小头而面锐，瞳子白黑分明，视瞻不转。小头而面锐者，敢断决也；瞳子白黑分明者，见事明也；视瞻不转者，执志强也。可与持久，难与争锋。廉颇为人，勇鸷而爱士，知难而忍耻，与之野战则不如，持守足以当之。’王从其计。”〉恨量小狭。”赵云：“尺表能审璣衡之度，〈《周髀》曰：“夏至，北方二万六千里，冬至，南方十三万五千里，日中树表则无影矣。周髀长八尺，夏至日，晷尺六寸。髀，股也；晷，句也。正南千里，句尺五寸；正北千里，句尺七寸。周髀之书也。”〉寸管能测往復之气；〈《吕氏春秋》曰：“黄帝使伶伦自大夏之西、崑崙之阴，取竹之嶰谷生，其窍厚薄均者，断两节，闲而吹之，以为黄鐘之管。製十二笛，以聽凤凰之鸣。雄鸣六，雌鸣六，以为律吕。”《续汉书·律暦志》曰：“十二律之变，至於六十，以律候气。候气之法：为室三重，戸闭，涂衅必周，密布缇幔，以木为案，加律其上，以葭莩灰抑其内，为气所动者，其灰散也。以此候之。”〉何必在大？但问识如何耳！”</t>
-  </si>
-  <si>
-    <t>嵇康，赵至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马景王东征，〈《魏书》曰：“司马师字子元，相国宣文侯长子也。以道德淸粹，重於朝廷，为大将军、录尚书事。毋丘俭反，师自征之，薨谥景王。”〉取上党李喜，以为从事中郎。因问喜曰：“昔先公辟君不就，今孤召君，何以来？”喜对曰：“先公以礼见待，故得以礼进退；明公以法见绳，喜畏法而至耳！”〈《晋诸公赞》曰：“喜字季和，上党铜鞮人也。少有髙行，研精艺学。宣帝为相国，辟喜，喜固辞疾。景帝辅政，为从事中郎，累迁光禄大夫，特进。赠太保。”〉</t>
-  </si>
-  <si>
-    <t>司马师，李喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓艾口吃，语称“艾艾……”〈《魏志》曰：“艾字士载，棘阳人，少为农人养犊。年十二，随母至颍川，读故太丘长碑文曰‘言为世範，行为士则’。遂名範，字士则。後宗族有同者，故改焉。毎见髙山大泽，辄规度指画军营处所，时人多笑焉。後见司马宣王，三辟为掾，累迁征西将军。伐蜀，蜀平，进位太尉。为卫瓘所害。”〉。晋文王戏之曰：“卿云‘艾艾……’，为是幾艾？”对曰：“‘凤兮，凤兮’，故是一‘凤’。”〈朱凤《晋纪》曰：“文王讳昭，字子上，宣帝次子也。”《列仙传》曰：“陆通者，楚狂接舆也。好养性，遊诸名山。尝遇孔子而歌曰：‘凤兮凤兮，何德之衰！往者不可谏，来者犹可追。’後入蜀，在峨嵋山中也。”〉</t>
-  </si>
-  <si>
-    <t>邓艾，司马昭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵇中散既被诛，向子期举郡计入洛，文王引进，问曰：“闻君有箕山之志，何以在此？”对曰：“巣许狷介之士，不足多慕。”王大咨嗟。〈《向秀别传》曰：“秀字子期，河内人。少为同郡山涛所知，又与谯国嵇康、东平吕安友善，並有拔俗之韵，其进止无不同，而造事营生业亦不异。常与嵇康偶锻於洛邑，与吕安灌园於山阳，不虑家之有无，外物不足怫其心。弱冠著儒道论，弃而不录，好事者或存之。或云是其族人所作，困於不行，乃告秀，欲假其名。秀笑曰：‘可復尔耳。’後康被诛，秀遂失图。乃应歳举，到京师，诣大将军司马文王，文王问曰：‘闻君有箕山之志，何能自屈？’秀曰：‘常谓彼人不达尧意，本非所慕也。’一坐皆说，随次转至黄门侍郎、散骑常侍。”〉</t>
-  </si>
-  <si>
-    <t>向秀，司马昭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许由，巢父</t>
-  </si>
-  <si>
-    <t>晋武帝始登阼，探策得“一”。〈《晋世谱》曰：“世祖讳炎，字安宇，咸熙二年受魏禅。”〉王者世数，繫此多少。帝既不说，群臣失色，莫能有言者。侍中裴楷进曰：“臣闻：‘天得一以淸，地得一以寧，侯王得一以为天下贞。’”帝说。群臣叹服。〈王弼《老子注》云：“一者，数之始，物之极也。各是一物，所以为主也。各以其一，致此淸、寧、贞。”〉</t>
-  </si>
-  <si>
-    <t>裴楷，司马炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满奋畏风，在晋武帝坐；北窗作琉璃屏，实密似疏，奋有难色。帝笑之。〈荀绰《冀州记》曰：“奋字武秋，髙平人，魏太尉宠之孙也。性淸平有识，自吏部郎出为冀州刺史。”《晋诸公赞》曰：“奋体量淸雅，有曾祖宠之风，迁尚书令，为荀𫖮所害。”〉奋荅曰：“臣犹呉牛，见月而喘。”〈今之水牛，唯生江淮间，故谓之呉牛也。南土多暑，而此牛畏热，见月疑是日，所以见月则喘。〉</t>
-  </si>
-  <si>
-    <t>满奋，司马炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛靓在呉，於朝堂大会。〈《晋诸公赞》曰：“靓字仲思，琅邪人，司空诞少子也。雅正有才望。诞以寿阳叛，遣靓入质於呉，以靓为右将军、大司马。”〉孙皓问：“卿字仲思，为何所思？”对曰：“在家思孝，事君思忠，朋友思信，如斯而已。”</t>
-  </si>
-  <si>
-    <t>诸葛靓，孙皓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡洪〈《洪集录》曰：“洪字叔开，呉郡人，有才辩，初仕呉朝。太康中，本州从事，举秀才。”王隐《晋书》曰：“洪仕至松滋令。”〉赴洛，洛中人问曰：“幕府初开，群公辟命，求英奇於仄陋，采贤㒞於岩穴。君呉楚之士，亡国之餘，有何异才而应斯举？”蔡荅曰：“夜光之珠，不必出於孟津之河；〈旧说云：“隋侯出行，有蛇斩而中断者，侯连而续之，蛇遂得生而去。後衔明月珠以报其德，光明照夜同昼，因曰‘隋珠’。”左思《蜀都赋》所谓“隋侯鄙其夜光也”。〉盈握之璧，不必采於崑崙之山。大禹生於东夷，文王生於西羌，〈按，《孟子》曰：“舜生於诸冯，东夷人也；文王生於岐周，西戎人也。”则东夷是舜非禹也。〉圣贤所出，何必常处？昔武王伐纣，迁顽民於洛邑，〈《尚书》曰：“成周既成，迁殷顽民，作多士。”孔安国注曰：“殷大夫心不则德义之经，故徙於王都，迩教诲也。”〉得无诸君是其苗裔乎？”〈按，华令思举秀才入洛，与王武子相酬对，皆与此言不异，无容二人同有此辞。疑《世说》穿凿也。〉</t>
-  </si>
-  <si>
-    <t>蔡洪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大禹，姬昌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸名士共至洛水戏。〈《竹林七贤论》曰：“王济诸人尝至洛水解禊事。明日，或问济曰：‘昨遊，有何语议？’济云云。”〉还，乐令〈广也〉问王夷甫曰：“今日戏，乐乎？”〈虞预《晋书》曰：“王衍字夷甫，琅邪临沂人，司徒戎从弟。父乂，平北将军。夷甫蚤知名，以淸虚通理称，仕至太尉，为石勒所害。”〉王曰：“裴僕射善谈名理，混混有雅致；〈《晋惠帝起居注》曰：“裴𬱟字逸民，河东闻喜人，司空秀之少子也。”《冀州记》曰：“𬱟弘济有淸识，稽古善言名理。履行髙整，自少知名。历侍中、尚书左僕射，为赵王伦所害。”〉张茂先论《史》《汉》，靡靡可聽；〈晋阳秋曰：“华博览洽闻，无不贯综。世祖尝问汉事，及建章千门万戸。华画地成图，应对如流，张安世不能过也。”〉我与王安豐〈戎也〉说延陵、子房，亦超超玄箸。”〈《晋诸公赞》曰：“夷甫好尚谈称，为时人物所宗。”〉</t>
-  </si>
-  <si>
-    <t>乐广，王衍，裴頠，张华，王戎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王武子、〈《晋诸公赞》曰：“王济字武子，太原晋阳人，司徒浑第二子也。有俊才，能淸言。起家中书郎，终太僕。”〉孙子荆、〈《文士传》曰：“孙楚字子荆，太原中都人也。”《晋阳秋》曰：“楚，骠骑将军资之孙，南阳太守弘之子。鄕人王济，豪俊公子，为本州大中正，访问弘为鄕里品状，济曰：‘此人非鄕评所能名，吾自状之曰：“天才英特，亮拔不群。”’仕至冯翊太守。”〉各言其土地人物之美。王云：“其地坦而平，其水淡而淸，其人廉且贞。”孙云：“其山㠑巍以嵯峨，其水㳌渫而扬波，其人磊砢而英多。”〈按，《三秦记》、《语林》载蜀人伊籍称呉土地人物，与此语同。〉</t>
-  </si>
-  <si>
-    <t>王济，孙楚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐令女適大将军成都王颖。〈虞预《晋书》曰：“乐广字彦辅，南阳人。淸夷沖旷，加有理识。累迁侍中、河南尹。在朝廷用心虚淡，时人重其贞贵，代王戎为尚书令。”《八王故事》曰：“司马颖字叔度，世祖第十九子，封成都王、大将军。”〉王兄长沙王执权於洛，〈《晋百官名》曰：“司马乂字士度，封长沙王。”《八王故事》曰：“世祖第十七子。”〉遂构兵相图。长沙王亲近小人，远外君子，凡在朝者，人怀危惧。乐令既允朝望，加有婚亲，群小谗於长沙。长沙尝问乐令，乐令神色自若，徐荅曰：“岂以五男易一女？”〈《晋阳秋》曰：“成都王之起兵，长沙王猜广，广曰：‘寧以一女而易五男？’乂犹疑之，遂以忧卒。”〉由是释然，无復疑虑。</t>
-  </si>
-  <si>
-    <t>乐广，司马乂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆機诣王武子，〈《晋阳秋》曰：“機字士衡，呉郡人。祖逊，呉丞相。父抗，大司马。機与弟雲並有俊才。司空张华见而说之，曰：‘平呉之利，在获二俊。’”《機别传》曰：“博学善属文，非礼不动。入晋，仕著作郎，至平原内史。”〉武子前置数斛羊酪，指以示陆曰：“卿江东何以敌此？”陆云：“有千里莼羹，但未下盐豉耳！”</t>
-  </si>
-  <si>
-    <t>陆机，王济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中朝有小儿，父病，行乞药。主人问病，曰：“患疟也。”主人曰：“尊侯明德君子，何以病疟？”〈俗传行疟鬼小，多不病巨人。故光武尝谓景丹曰：“尝闻壮士不病疟，大将军反病疟耶？”〉荅曰：“来病君子，所以为疟耳。”</t>
-  </si>
-  <si>
-    <t>小儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔正熊诣都郡。都郡将姓陈，问正熊：“君去崔杼幾世？”荅曰：“民去崔杼，如明府之去陈恒。”〈《晋百官名》曰：“崔豹字正熊，燕国人，惠帝时官至太傅丞。”〉</t>
-  </si>
-  <si>
-    <t>崔豹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元帝始过江，〈朱凤《晋书》曰：“帝讳叡，字景文。祖伷，封琅邪王，父恭王瑾嗣。帝袭爵为琅邪王。少而明惠，因乱过江起义，遂即皇帝位。谥法曰：‘始建国都曰元。’”〉谓顾骠骑曰：“寄人国土，心常怀惭。”荣跪对曰：“臣闻王者以天下为家，是以耿亳无定处，〈《帝王世纪》曰：“殷祖乙徙耿，为河所毁，今河东皮氏耿鄕是也。盘庚五迁，復南居亳，今景亳是也。”〉九鼎迁洛邑。〈《春秋传》曰：“武王克商，迁九鼎於洛邑。”今之偃师是也。〉願陛下勿以迁都为念。”</t>
-  </si>
-  <si>
-    <t>司马睿，顾荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庾公造周伯仁，〈虞预《晋书》曰：“周𫖮字伯仁，汝南安城人，扬州刺史浚长子也。”《晋阳秋》曰：“𫖮有风流才气，少知名，正体嶷然，侪辈不敢媟也。汝南贲泰渊通淸操之士，尝叹曰：‘汝颍固多贤士，自顷陵迟，雅道殆衰，今復见周伯仁。伯仁将祛旧风，淸我邦族矣。’举寒素，累迁尚书僕射，为王敦所害。”〉伯仁曰：“君何所欣说而忽肥？”庾曰：“君復何所忧惨而忽瘦？”伯仁曰：“吾无所忧，直是淸虚日来，滓秽日去耳。”</t>
-  </si>
-  <si>
-    <t>庾亮，周顗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过江诸人，毎至美日，辄相邀新亭，藉卉饮宴。〈《丹阳记》曰：“新亭，呉旧立，先基崩沦。隆安中，丹阳尹司马恢之徙创今地。”〉周侯〈𫖮。〉中坐而叹曰：“风景不殊，正自有山河之异。”皆相视流涕，唯王丞相〈导也〉愀然变色曰：“当共戮力王室，克復神州，何至作楚囚相对邪？”〈《春秋传》曰：“楚伐郑，诸侯救之。郑执郧公鍾仪献晋，景公观军府，见而问之曰：‘南冠而絷者为谁？’有司对曰：‘楚囚也。’使税之。问其族，对曰：‘伶人也。’‘能为乐乎？’曰：‘先父之职，敢有二事。’与之琴，操南音。范文子曰：‘楚囚，君子也。乐操土风，不忘旧也。君盍归之？以合晋楚之成。’”〉</t>
-  </si>
-  <si>
-    <t>周顗，王导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫洗马初欲渡江，形神惨悴，语左右云：“见此芒芒，不觉百端交集。苟未免有情，亦復谁能遣此！”〈《晋诸公赞》曰：“卫玠字叔宝，河东安邑人。祖父瓘，太尉。父恒，黄门侍郎。”《玠别传》曰：“玠颖识通达，天韵标令，陈郡谢幼舆敬以亚父之礼。论者以为出王眉子、平子、武子之右。世咸谓‘诸王三子，不如卫家一儿’。娶乐广女。裴叔道曰：‘妻父有冰淸之姿，婿有璧润之望，所谓秦晋之匹也。’为太子洗马。永嘉四年，南至江夏，与兄别於梁里涧，语曰：‘在三之义，人之所重，今日忠臣致身之道，可不勉乎？’行至豫章，乃卒。”〉</t>
-  </si>
-  <si>
-    <t>卫玠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾司空未知名，诣王丞相。丞相小极，对之疲睡。顾思所以叩会之，〈《顾和别传》曰：“和字君孝，呉郡人。祖容，呉荆州刺史。父相，晋临海太守。和总角知名，族人顾荣雅相器爱，曰‘此吾家之骐骥也，必振衰族。’累迁尚书令。”〉因谓同坐曰：“昔毎闻元公〈顾荣〉、道公协赞中宗，保全江表；〈邓粲《晋纪》曰：“导与元帝有布衣之好，知中国将乱，劝帝渡江，求为安东司马，政皆决之，号‘仲父’。晋中兴之功，导实居其首。”〉体小不安，令人喘息。”丞相因觉，谓顾曰：“此子圭璋特达，機警有锋。”</t>
-  </si>
-  <si>
-    <t>顾和，王导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会稽贺生，体识淸远，言行以礼。〈贺循别见〉不徒东南之美，〈《尔雅》曰：“东南之美者，有会稽之竹箭焉。”〉实为海内之秀。</t>
-  </si>
-  <si>
-    <t>贺循</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘琨虽隔阂寇戎，志存本朝，〈王隐《晋书》曰：“琨字越石，中山魏昌人。祖迈，有经国之才。父璠，光禄大夫。琨少称俊朗，累迁司徒长史、尚书右丞。迎大驾於长安，以有殊勋，封广武侯。年三十五，出为并州刺史，为段日䃅所害。”〉谓温峤曰：“班彪识刘氏之復兴，马援知汉光之可辅。〈《汉书·叙传》曰：“彪字叔皮，扶风人，客於天水。陇西隗嚣有窥觎之志，彪作《王命论》以讽之。”《东观汉记》曰：“马援字文渊，茂陵人。从公孙述、隗嚣遊，後见光武曰：‘天下反复，盗名字者不可胜数，今见陛下寥廓大度，同符髙祖，乃知帝王自有真也。’帝甚壮之。”〉今晋阼虽衰，天命未改。吾欲立功於河北，使卿延誉於江南。子其行乎？”温曰：“峤虽不敏，才非昔人，明公以桓文之姿，建匡立之功，岂敢辞命！”〈虞预《晋书》曰：“峤字太真，太原祁人。少标俊淸彻，英颖显名，为司空刘琨左司马。是时二都倾覆，天下大乱，琨闻元皇受命中兴，慷慨幽朔，志存本朝。使峤奉使，峤喟然对曰：‘峤虽乏管张之才，而明公有桓文之志，敢辞不敏，以违髙旨？’以左长史奉使劝进，累迁骠骑大将军。”〉</t>
-  </si>
-  <si>
-    <t>刘琨，温峤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班彪，马援</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温峤初为刘琨使来过江。於时江左营建始尔，纲纪未举。温新至，深有诸虑。既诣王丞相，陈主上幽越，社稷焚灭，山陵夷毁之酷，有黍离之痛。温忠慨深烈，言与泗倶，丞相亦与之对泣。叙情既毕，便深自陈结，丞相亦厚相酬纳。既出，欢然言曰：“江左自有管夷吾，此復何忧？”〈《史记》曰：“管仲夷吾者，颍上人。相齐桓公，九合诸侯，一匡天下。”《语林》曰：“初温奉使劝进，晋王大集宾客见之。温公始入，姿形甚陋，合坐尽惊。既坐，陈说九服分崩，皇室弛绝，晋王君臣莫不歔欷。及言天下不可以无主，闻者莫不踊跃，植髮穿冠。王丞相深相付託。温公既见丞相，便遊乐不住，曰‘既见管仲，天下事无復忧。’”〉</t>
-  </si>
-  <si>
-    <t>温峤，王导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王敦兄含为光禄勋。〈《含别传》曰：“含字处弘，琅邪临沂人。累迁徐州刺史、光禄勋，与弟敦作逆，伏诛。”〉敦既逆谋，屯據南州，含委职奔姑孰。〈邓粲《晋纪》曰：“初，王导协赞中兴，敦有方面之功。敦以刘隗为闲己，举兵讨之。故含南奔武昌，朝廷始警备也。”〉王丞相诣阙谢。〈《中兴书》曰：“导从兄敦，举兵讨刘隗，导率子弟二十餘人，旦旦到公车，泥首谢罪。”〉司徒、丞相、扬州官僚问讯，仓卒不知何辞。顾司空时为扬州别驾，援翰曰：“王光禄远避流言，明公蒙尘路次，群下不寧，不审尊体起居何如？”</t>
-  </si>
-  <si>
-    <t>王导，顾和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郗太尉拜司空，语同坐曰：“平生意不在多，値世故纷纭，遂至臺鼎。朱博翰音，实愧於怀。”〈《汉书》曰：“朱博字子元，杜陵人。为丞相，临拜，延登受策，有大声如鐘鸣。上问扬雄，李寻对曰：‘洪範所谓鼓妖者也。人君不聪，空名得进，则有无形之声。’博後坐事自杀。”《故序传》曰：“博之翰音，鼓妖先作。”《易·中孚》曰：“上九，翰音登於天，贞凶。”王弼注曰：“翰，髙飞也。飞者，音飞而实不从也。”〉</t>
-  </si>
-  <si>
-    <t>郗鉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髙坐道人不作汉语，或问此意，简文曰：“以简应对之烦。”〈《髙坐别传》曰：“和尚胡名尸黎密，西域人。传云国王子，以国让弟，遂为沙门。永嘉中，始到此土，止於大市中。和尚天姿髙朗，风韵遒迈。丞相王公一见奇之，以为吾之徒也。周僕射领选，抚其背而叹曰：‘若选得此贤，令人无恨。’俄而周侯遇害，和尚对其灵坐，作胡祝数千言，音声髙畅，既而挥涕收涙，其哀乐废兴皆此类。性髙简，不学晋语。诸公与之言，皆因传译。然神领意得，顿在言前。”《塔寺记》曰：“尸黎密冢曰髙坐，在石子冈。常行头陀，卒於梅冈，即葬焉。晋元帝於冢边立寺，因名髙坐。”〉</t>
-  </si>
-  <si>
-    <t>尸黎密多罗，司马昱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周僕射雍容好仪形，诣王公，初下车，隐数人，王公含笑看之。既坐，傲然啸咏。王公曰：“卿欲希嵇阮邪？”荅曰：“何敢近舍明公，远希嵇阮！”〈邓粲《晋纪》曰：“伯仁仪容弘伟，善於俛仰应答，精神足以荫映数人。深自持，能致人，而未尝往焉。”〉</t>
-  </si>
-  <si>
-    <t>嵇康，阮籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庾公尝入佛图，见卧佛，〈《涅槃经》云：“如来背痛，於双树闲北首而卧，故後之图绘者为此象。”〉曰：“此子疲於津梁。”於时以为名言。</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挚瞻曾作四郡太守、大将军戸曹参军，復出作内史，〈《挚氏世本》曰：“瞻字景游，京兆长安人，太常虞兄子也。父育，凉州刺史。瞻少善属文，起家著作郎。中朝乱，依王敦为戸曹参军。历安豐、新蔡、西阳太守。见敦以故坏裘赐老病外部都督。瞻谏曰‘尊裘虽故，不宜与小吏。’敦曰：‘何为不可？’瞻时因醉，曰：‘若上服皆可用赐，貂蝉亦可赐下乎？’敦曰：‘非喩，所引如此，不堪二千石。’瞻曰：‘瞻视去西阳，如脱屣耳！’敦反，乃左迁随郡内史。”〉年始二十九。尝别王敦，敦谓瞻曰：“卿年未三十，已为万石，亦太蚤！”瞻曰：“方於将军，少为太蚤；比之甘罗，已为太老。”〈《挚氏世本》曰：“瞻髙亮有气节，故以此答敦。後知敦有异志。建兴四年，与第五琦據荆州以距敦，竟为所害。”《史记》曰：“甘罗，秦相茂之孙也。年十二，而秦相吕不韦欲使张唐相燕，唐不肯行，甘罗说而行之。又请车五乘以使赵，还报秦，秦封甘罗为上卿，赐以甘茂田宅。”〉</t>
-  </si>
-  <si>
-    <t>挚瞻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁国杨氏子，九歳，甚聪惠。孔君平〈王隐《晋书》曰：“孔坦字君平，会稽山阴人。善《春秋》，有文辩。历太子舍人，累迁廷尉卿。”〉诣其父，父不在，乃呼儿出，为设果。果有杨梅，孔指以示儿曰：“此是君家果。”儿应声荅曰：“未闻孔雀是夫子家禽。”</t>
-  </si>
-  <si>
-    <t>孔坦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔廷尉以裘与从弟沈，〈《孔氏谱》曰：“沈字德度，会稽山阴人。祖父奕，全椒令。父群，鸿胪卿。沈至琅邪王文学。”〉沈辞不受。廷尉曰：“晏平仲之俭，祠其先人，豚肩不掩豆，犹狐裘数十年，〈《刘向别录》曰：“晏平仲名婴，东莱夷维人。事齐灵公、庄公，以节俭力行重於齐。”《礼记》曰：“晏平仲祀其先人，豚肩不掩豆，君子以为俭也。”又曰：“晏子一狐裘三十年，晏子焉知礼？”注：“豚，俎实也。豆，径尺。言併豚之两肩不能掩豆，喩少也。”〉卿復何辞此？”於是受而服之。</t>
-  </si>
-  <si>
-    <t>孔坦，孔沈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晏婴</t>
-  </si>
-  <si>
-    <t>佛图澄与诸石遊，〈《澄别传》曰：“道人佛图澄，不知何许人，出於炖煌，好佛道，出家为沙门。永嘉中，至洛阳，値京师有难，潜遁草泽间。石勒雄异好杀害，因勒大将军郭默略见勒。以麻油涂掌，占见吉凶。数百里外聽浮图铃声，逆知祸福。勒甚敬信之。虎即位，亦师澄，号大和尚。自知终日，开棺无屍，唯袈裟法服在焉。”〉林公曰：“澄以石虎为海鸥鸟。”〈《赵书》曰：“虎字季龙，勒从弟也。征伐毎斩将搴旗。勒死，诛勒诸儿，袭位。”《庄子》曰：“海上之人好鸥者，毎旦之海上，从鸥遊，鸥之至者数百而不止。其父曰‘吾闻鸥鸟从汝遊，取来玩之。’明日之海上，鸥舞而不下。”〉</t>
-  </si>
-  <si>
-    <t>佛图澄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢仁祖年八歳，谢豫章〈鲲子别见〉将送客，尔时语已神悟，自参上流。诸人咸共叹之曰：“年少一坐之颜回。”仁祖曰：“坐无尼父，焉别颜回？”〈《晋阳秋》曰：“谢尚字仁祖，陈郡人，鲲之子也。龆龀丧兄，哀恸过人。及遭父丧，温峤唁之，尚号叫极哀。既而收涕告诉，有异常童。峤奇之，由是知名，仕至镇西将军、豫州刺史。”〉</t>
-  </si>
-  <si>
-    <t>谢尚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶公疾笃，都无献替之言，朝士以为恨。〈《陶氏叙》曰：“侃字士衡，其先鄱阳人，後徙寻阳。侃少有远概纲维宇宙之志。察孝廉入洛，司空张华见而谓曰：‘後来匡主寧民，君其人也。’刘弘镇沔南，取为长史，谓侃曰：‘昔吾为羊太傅参佐，见语云：“君後当居身处。”今相观，亦復然矣。’累迁湘广荆三州刺史，加羽葆鼓吹，封长沙郡公、大将军。赞拜不名，剑履上殿。进太尉，赠大司马，谥桓公。”按，王隐《晋书》载侃临终表曰：“臣少长孤寒，始願有限，过蒙先朝历世异恩。臣年垂八十，位极人臣，启手启足，当復何恨！但以餘寇未诛，山陵未復，所以愤慨兼怀，唯此而已！犹冀犬马之齿，尚可少延，欲为陛下北呑石虎，西诛李雄，势遂不振，良图永息。临书振腕，涕泗横流。伏願遴选代人，使必得良才，足以奉宣王猷，遵成志业。则虽死之日，犹生之年。”有表若此，非无献替。〉仁祖闻之曰：“时无竖刁，故不贻陶公话言。”〈《吕氏春秋》曰：“管仲病，桓公问曰：‘子如不讳，谁代子相者？竖刁何如？’管仲曰‘自宫以事君，非人情，必不可用！’後果乱齐。”〉时贤以为德音。</t>
-  </si>
-  <si>
-    <t>竺法深在简文坐，刘尹问：“道人何以遊朱门？”荅曰：“君自见其朱门，贫道如遊蓬戸。”〈《髙逸沙门传》曰：“法师居会稽，皇帝重其风德，遣使迎焉，法师暂出应命。司徒会稽王天性虚澹，与法师结殷勤之欢。师虽升履丹墀，出入朱邸，泯然旷达，不异蓬宇也。”〉或云卞令。〈别见。〉</t>
-  </si>
-  <si>
-    <t>竺法深，刘尹，卞壸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙盛为庾公记室参军，〈《中兴书》曰：“盛字安国，太原中都人。博学强识，历著作郎，浏阳令。庾亮为荆州，以为征西主簿，累迁祕书监。”〉从獵，将其二儿倶行。庾公不知，忽於獵场见齐庄，时年七八歳。庾谓曰：“君亦復来邪？”应声荅曰：“所谓‘无小无大，从公于迈’。”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">庾亮，孙放                                              </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙齐由、齐庄二人，少时诣庾公，公问：“齐由何字？”荅曰：“字齐由。”公曰：“欲何齐邪？”曰：“齐许由。”〈《晋百官名》曰：“孙潜字齐由，太原人。”《中兴书》曰：“潜，盛长子也。豫章太守殷仲堪下讨王国宝，潜时在郡，逼为咨议参军，固辞不就，遂以忧卒。”〉“齐庄何字？”答曰：“字齐庄。”公曰：“欲何齐？”曰：“齐庄周。”公曰：“何不慕仲尼而慕庄周？”对曰：“圣人生知，故难企慕。”庾公大喜小儿对。〈《孙放别传》曰：“放字齐庄，监君次子也。年八歳，太尉庾公召见之。放淸秀，欲观试，乃授纸笔令书，放便自疏名字。公题後问之曰：‘为欲慕庄周邪？’放书答曰：‘意欲慕之。’公曰：‘何故不慕仲尼而慕庄周？’放曰：‘仲尼生而知之，非希企所及；至於庄周，是其次者，故慕耳。’公谓宾客曰：‘王辅嗣应答，恐不能胜之。’卒长沙王相。”〉</t>
-  </si>
-  <si>
-    <t>庾亮，孙潜，孙放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张玄之、顾敷，是顾和中外孙，皆少而聪惠。和並知之，而常谓顾胜，亲重偏至，张颇不懕。〈敷别见。《续晋阳秋》曰：“张玄之字祖希，呉郡太守澄之孙也。少以学显，历吏部尚书，出为冠军将军、呉兴太守。会稽内史谢玄同时之郡，论者以为南北之望。玄之名亚谢玄，时亦称‘南北二玄’，卒於郡。”〉於时张年九歳，顾年七歳，和与倶至寺中。见佛般泥洹像，弟子有泣者，有不泣者，和以问二孙。玄谓“被亲故泣，不被亲故不泣”。敷曰：“不然，当由忘情故不泣，不能忘情故泣。”〈《大智度论》曰：“佛在阴菴罗双树闲入般涅槃，卧北首，大地震动。诸三学人，佥然不乐，郁伊交涕。诸无学人，但念诸法，一切无常。”〉</t>
-  </si>
-  <si>
-    <t>顾和，张玄之，顾敷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庾法畼造庾太尉，握麈尾至佳，公曰：“此至佳，那得在？”法畼曰：“廉者不求，贪者不与，故得在耳。”〈法畼氏族所出未详。法畼著《人物论》，自叙其美云：“悟锐有神，才辞通辩。”〉</t>
-  </si>
-  <si>
-    <t>康法畅，庾亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庾穉恭为荆州，〈《庾翼别传》曰：“翼字穉恭，颍川鄢陵人也。少有大度、时论以经略许之。兄太尉亮薨、朝议推才，乃以翼都督七州。进征南将军、荆州刺史。”〉以毛扇上武帝。武帝疑是故物。〈傅咸《羽扇赋》序曰：“昔呉人直截鸟翼而摇之，风不减方圆二扇，而功无加，然中国莫有生意者。灭呉之後，翕然贵之，无人不用。”按，庾怿以白羽扇献武帝，帝嫌其非新，反之，不闻翼也。〉侍中刘劭曰：〈《文字志》曰：“劭，字彦祖，彭城丛亭人。祖讷，司隶校尉。父松，成皋令。劭博识好学，多艺能，善草隶。初仕领军参军，太傅出东，劭谓京洛必危，乃单马奔扬州。历侍中、豫章太守。”〉“柏梁雲构，工匠先居其下；管弦繁奏，鍾夔先聽其音。〈鍾，鍾期也。夔，舜乐正。〉穉恭上扇，以好不以新。”庾後闻之曰：“此人宜在帝左右。”</t>
-  </si>
-  <si>
-    <t>庾怿，司马衍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何骠骑亡後，〈何充别见。〉徴褚公入。既至石头，王长史、刘尹同诣褚。褚曰：“真长何以处我？”真长顾王曰：“此子能言。”褚因视王，王曰：“国自有周公。”〈《晋阳秋》曰：“充之卒，议者谓太后父裒宜秉朝政，裒自丹徒入朝。吏部尚书刘遐劝裒曰‘会稽王令德，国之周公也，足下宜以大政付之。’裒长史王胡之亦劝归藩，於是固辞归京。”〉</t>
-  </si>
-  <si>
-    <t>褚裒，王胡之，刘惔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓公北征经金城，见前为琅邪时種柳，皆已十围，慨然曰：“木犹如此，人何以堪！”攀枝执条，泫然流涙。〈《桓温别传》曰：“温字元子，谯国龙亢人，汉五更桓荣後也。父彝，有识鑒。温少有豪迈风气，为温峤所知，累迁琅邪内史，进征西大将军，镇西夏。时逆胡未诛，餘烬假息，温亲勒郡卒，建旗致讨，淸荡伊洛，展敬园陵。薨，谥宣武侯。”〉</t>
-  </si>
-  <si>
-    <t>桓温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简文作抚军时，尝与桓宣武倶入朝，更相让在前。宣武不得已而先之，因曰：“伯也执殳，为王前驱。”〈《卫诗》也。殳，长一丈二尺，无刃。〉简文曰：“所谓‘无小无大，从公于迈’。”</t>
-  </si>
-  <si>
-    <t>司马昱，桓温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾悦与简文同年，而髮蚤白。〈《中兴书》曰：“悦字君叔，晋陵人。初为殷浩扬州别驾。浩卒，上疏理浩。或谏以浩为太宗所废，必不依许，悦固争之，浩果得申，物论称之。後至尚书左丞。”〉简文曰：“卿何以先白？”对曰：“蒲柳之姿，望秋而落；松柏之质，凌霜犹茂。”〈顾凯之为父传曰：“君以直道陵迟於世。入见王，王髮无二毛，而君已斑白，问君年，乃曰：‘卿何偏蚤白？’君曰：‘松柏之姿，经霜犹茂；臣蒲柳之质，望秋先零。受命之异也。’王称善久之。”〉</t>
-  </si>
-  <si>
-    <t>顾悦，司马昱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓公入峡，绝壁天悬，腾波迅急。〈《晋阳秋》曰：“温以永和二年，率所领七千餘人伐蜀，拜表辄行。”〉迺叹曰：“既为忠臣，不得为孝子，如何？”〈《汉书》曰：“王阳为益州刺史，行部至邛僰九折阪，叹曰：‘奉先人遗体，奈何数乘此险！’以病去官。後王尊为刺史，至其阪，问吏曰：‘非王阳所畏之道邪？’吏曰：‘是！’叱其驭曰：‘驱之，王阳为孝子，王尊为忠臣。’”〉</t>
-  </si>
-  <si>
-    <t>初，荧惑入太微，寻废海西。〈《晋阳秋》曰：“泰和六年闰十月，荧惑守太微端门。十一月，大司马桓温废帝为海西公。”《晋安帝纪》曰：“桓温於枋头奔败，知民望之去也，乃屠袁真於寿阳。既而谓郗超曰：‘足以雪枋头之耻乎？’超曰：‘未厌有识之情也。公六十之年，败於大举，不建髙世之勋，未足以镇厌民望。’因说温以废立之事。时温夙有此谋，深纳超言，遂废海西。”〉简文登阼，復入太微，帝恶之。〈徐广《晋纪》曰：“咸安元年十二月，荧惑逆行入太微，至二年七月，犹在焉。帝惩海西之事，心甚忧之。”〉时郗超为中书在直。〈《中兴书》曰：“超字景兴，髙平人，司空愔之子也。少而卓荦不羁，有旷世之度。累迁中书郎、司徒左长史。”〉引超入曰：“天命脩短，故非所计，政当无復近日事不？”超曰：“大司马方将外固封疆，内镇社稷，必无若此之虑。臣为陛下以百口保之。”帝因诵庾仲初诗〈庾阐《从征诗》也〉曰：“志士痛朝危，忠臣哀主辱。”声甚凄厉。郗受假还东，帝曰：“致意尊公，家国之事，遂至於此！由是身不能以道匡卫，思患预防，愧叹之深，言何能喩？”因泣下流襟。〈《续晋阳秋》曰：“帝外压彊臣，忧愤不得志，在位二年而崩。”〉</t>
-  </si>
-  <si>
-    <t>司马昱，郗超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庾阐</t>
-  </si>
-  <si>
-    <t>简文在暗室中坐，召宣武。宣武至，问上何在？简文曰：“某在斯。”时人以为能。〈《论语》曰：“师冕见，及阶，子曰：‘阶也。’及席，子曰：‘席也。’皆坐，子告之曰：‘某在斯，某在斯。’”注：“历告坐中人也。”〉</t>
-  </si>
-  <si>
-    <t>简文入华林园，顾谓左右曰：“会心处，不必在远。翳然林水，便自有濠濮闲想也。〈濠濮，二水名也。《庄子》曰：“庄子与惠子遊濠梁水上，庄子曰：‘倏鱼出游从容，是鱼乐也。’惠子曰：‘子非鱼，安知鱼之乐邪？’庄子曰：‘子非我，安知我之不知鱼之乐也？’”“庄周钓在濮水，楚王使二大夫造焉，曰：‘願以境内累庄子。’庄子持竿不顾，曰：‘吾闻楚有神龟者，死已三千年矣，巾笥而藏於庙。此寧曳尾於塗中，寧留骨而贵乎？’二大夫曰：‘寧曳尾於塗中。’庄子曰：‘往矣！吾亦寧曳尾於塗中。’”〉觉鸟兽禽鱼，自来亲人。”</t>
-  </si>
-  <si>
-    <t>谢太傅语王右军曰：“中年伤於哀乐，与亲友别，辄作数日恶。”王曰：〈《文字志》曰：“王羲之字逸少，琅邪临沂人。父矿，淮南太守。羲之少朗拔，为叔父廙所赏。善草隶，累迁江州刺史、右军将军、会稽内史。”〉“年在桑楡，自然至此，正赖丝竹陶写。恒恐儿辈觉，损欣乐之趣。”</t>
-  </si>
-  <si>
-    <t>谢安，王羲之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支道林常养数匹马。或言，道人畜马不韵，支曰：“贫道重其神骏。”〈《髙逸沙门传》曰：“支遁字道林，河内林虑人，或曰陈留人，本姓关氏。少而任心独往，风期髙亮，家世奉法。尝於餘杭山沈思道行，泠然独畅。年二十五始释形入道。年五十三终於洛阳。”〉</t>
-  </si>
-  <si>
     <t>支道林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘尹与桓宣武共聽讲《礼记》。桓云：“时有入心处，便觉咫尺玄门。”刘曰：“此未关至极，自是金华殿之语。”〈《汉书·叙传》曰：“班伯少受诗於师丹。大将军王凤薦伯於成帝，宜劝学，召见宴昵，拜为中常侍。时上方向学，郑宽中、张禹朝夕入说《尚书》、《论语》於金华殿，诏伯受之。”〉</t>
-  </si>
-  <si>
-    <t>刘惔，桓温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊秉为抚军参军，少亡，有令誉。夏侯孝若为之叙，极相讚悼。〈《羊秉叙》曰：“秉字长达，太山平阳人。汉南阳太守续曾孙。大父魏郡府君，即车骑掾元子也。府君夫人郑氏无子，乃养秉。龆龀而佳，小心敬愼。十歳而郑夫人薨，秉思容尽哀，俄而公府掾及夫人並卒，秉群从父率礼相承，人不闲其亲，雍雍如也。仕参抚军将军事，将奋千里之足，挥沖天之翼，惜乎春秋三十有二而卒。昔罕虎死，子产以为无与为善，自夫子之没，有子产之叹矣！亡後有子男又不育，是何行善而祸繁也？岂非司马生之所惑欤？”〉羊权为黄门侍郎，侍简文坐。帝问曰：“夏侯湛〈别见〉作《羊秉叙》绝可想。是卿何物？有後不？”〈羊氏谱曰：“权字道舆，徐州刺史悦之子也。仕至尚书左丞。”〉权潸然对曰：“亡伯令问夙彰，而无有继嗣。虽名播天聽，然胤绝圣世。”帝嗟慨久之。</t>
-  </si>
-  <si>
-    <t>羊权，司马昱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊秉，夏侯湛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王长史与刘真长别後相见，〈《王长史别传》曰：“濛字仲祖，太原晋阳人。其先出自周室，经汉魏，世为大族。祖父佐，北军中候。父讷，葉令。濛神气淸韶，年十餘歳，放迈不群。弱冠检尚，风流雅正，外绝荣竞，内寡私慾。辟司徒掾、中书郎，以后父赠光禄大夫。”〉王谓刘曰：“卿更长进。”荅曰：“此若天之自髙耳。”〈《语林》曰：“仲祖语真长曰：‘卿近大进。’刘曰‘卿仰看邪？’王问何意？刘曰：‘不尔，何由测天之髙也。’”〉</t>
-  </si>
-  <si>
-    <t>王濛，刘惔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘尹云：“人想王荆产佳，此想长松下当有淸风耳。”〈荆产，王微小字也。《王氏谱》曰：“微字幼仁，琅邪人。祖父乂，平北将军。父澄，荆州刺史。微历尚书郎、右军司马。”〉</t>
-  </si>
-  <si>
-    <t>刘惔，王微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王仲祖闻蛮语不解，茫然曰：“若使介葛卢来朝，故当不昧此语。”〈《春秋传》曰：“介葛卢来朝鲁，闻牛鸣曰：‘是生三牺，皆用之矣。其音云。’问之而信。”杜预注曰：“介，东夷国。葛卢，其君名也。”〉</t>
-  </si>
-  <si>
-    <t>王濛</t>
-  </si>
-  <si>
-    <t>葛卢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘真长为丹阳尹，许玄度出都就刘宿，〈《续晋阳秋》曰：“许询字玄度，髙阳人，魏中领军允玄孙。总角秀惠，众称神童，长而风情简素，司徒掾辟，不就，蚤卒。”〉床帷新丽，饮食豐甘。许曰：“若保全此处，殊胜东山。”刘曰：“卿若知吉凶由人，吾安得不保此！”〈《春秋传》曰：“吉凶无门，唯人所召。”〉王逸少在坐曰：“令巣许遇稷契，当无此言。”二人並有愧色。</t>
-  </si>
-  <si>
-    <t>刘惔，许询，王羲之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巢父，许由，稷弃，契</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王右军与谢太傅共登冶城。〈《扬州记》曰：“冶城，呉时鼓铸之所。呉平，犹不废。王茂弘所治也。”〉谢悠然远想，有髙世之志。王谓谢曰：“夏禹勤王，手足胼胝；〈《帝王世纪》曰：“禹治洪水，手足胼胝。世传禹病偏枯，足不相过，今称禹歩是也。”〉文王旰食，日不暇给。〈《尚书》曰：“文王自朝至於日昃，不遑暇食。”〉今四郊多垒，〈《礼记》曰：“四郊多垒，卿大夫之辱也。”〉宜人人自效。而虚谈废务，浮文妨要，恐非当今所宜。”谢荅曰：“秦任商鞅，二世而亡，〈《战国策》曰：“卫商鞅，诸庶孽子，名鞅，姓公孙氏。少好刑名学，为秦孝公相，封於商。”〉岂淸言致患邪？”</t>
-  </si>
-  <si>
-    <t>王羲之，谢安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏禹，姬昌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢太傅寒雪日内集，与儿女讲论文义。俄而雪骤，公欣然曰：“白雪纷纷何所似？”兄子胡儿曰：〈胡儿，谢朗小字也。《续晋阳秋》曰：“朗字长度，安次兄據之长子。安蚤知之。文义艳發，名亚於玄，仕至东阳太守。”〉“撒盐空中差可拟。”兄女曰：“未若柳絮因风起。”公大笑乐。即公大兄无奕女，左将军王凝之妻也。〈《王氏谱》曰：“凝之字叔平，右将军羲之第二子也。历江州刺史、左将军、会稽内史。”《晋安帝纪》曰：“凝之事五斗米道。孙恩之攻会稽，凝之谓民吏曰：‘不须备防，吾已请大道，许遣鬼兵相助，贼自破矣。’既不设备，遂为恩所害。”《妇人集》曰：“谢夫人名道蕴，有文才。所著诗、赋、诔、颂传於世。”〉</t>
-  </si>
-  <si>
-    <t>谢安，谢朗，谢道韫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王中郎令伏玄度、习凿齿〈《王中郎传》曰：“坦之字文度，太原晋阳人。祖东海太守承，淸淡平远。父述，贞贵简正。坦之器度淳深，孝友天至，誉辑朝野，标的当时。累迁侍中、中书令，领北中郎将，徐兖二州刺史。”《中兴书》曰：“伏滔，字玄度，平昌安丘人。少有才学，举秀才。大司马桓温参军，领大著作，掌国史，遊撃将军，卒。习凿齿，字彦威，襄阳人。少以文称，善尺牍。桓温在荆州，辟为从事。历治中别驾，迁荥阳太守。”〉论靑楚人物。〈滔集载其论略曰：“滔以春秋时鲍叔、管仲、隰朋、召忽、轮扁、甯戚、麦丘人、逢丑父、晏婴、涓子；战国时公羊髙、孟轲、邹衍、田单、荀卿、邹奭、莒大夫、田子方、檀子、鲁连、淳于髡、盻子、田光、颜歜、黔子、於陵仲子、王叔、即墨大夫；前汉时伏徴君、终军、东郭先生、叔孙通、万石君、东方朔、安期先生；後汉时大司徒伏三老、江革、逢萌、禽庆、承幼子、徐防、薛方、郑康成、周孟玉、刘祖荣、临孝存、侍其、元矩、孙宾硕、刘仲谋、刘公山、王仪伯、郎宗、祢正平、刘成国；魏时管幼安、邴根矩、华子鱼、徐伟长、任昭先、伏髙阳。此皆靑士有才德者也。凿齿以神农生於黔中，《邵南》咏其美化，春秋称其多才，《汉广》之风，不同《鸡鸣》之篇，子文、叔敖，羞与管仲比德。接舆之歌《凤兮》，《渔父》之咏沧浪，汉阴丈人之折子贡，市南宜僚、屠羊说之不为利回，鲁仲连不及老莱夫妻，田光之於屈原，邓禹、卓茂无敌於天下，管幼安不胜庞公，庞士元不推华子鱼，何邓二尚书，独歩於魏朝，乐令无对於晋世。昔伏羲葬南郡，少昊葬长沙，舜葬零陵。比其人，则准的如此；论其土，则群圣之所葬；考其风，则诗人之所歌；寻其事，则未有赤眉、黄巾之贼。此何如靑州邪？”滔与相往反，凿齿无以对也。〉临成，以示韩康伯。康伯都无言，王曰：“何故不言？”韩曰：“无可无不可。”〈马融注《论语》曰：“唯义所在。”〉</t>
-  </si>
-  <si>
-    <t>王坦之，韩伯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏滔，习凿齿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘尹云：“淸风朗月，辄思玄度。”〈《晋中兴士人书》曰：“许珣能淸言，於时士人皆钦慕仰爱之。”〉</t>
-  </si>
-  <si>
-    <t>刘惔，许询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荀中郎在京口，〈《晋阳秋》曰：“荀羡字令则，颍川人，光禄大夫崧之子也。淸和有识裁，少以主婿为驸马都尉。是时殷浩参谋百揆，引羡为援，频莅义兴、呉郡，超授北中郎将、徐州刺史，以蕃屏焉。”《中兴书》曰：“羡年二十八，出为徐兖二州。中兴方伯之少，未有若羡者也。”〉登北固望海云：〈《南徐州记》曰：“城西北有别岭入江，三面临水，髙数十丈，号曰北固。”〉“虽未睹三山，便自使人有凌雲意。若秦汉之君，必当褰裳濡足。”〈《史记·封禅书》曰：“蓬莱、方丈、瀛洲此三山，世传在海中，去人不远。尝有至者，言诸仙人不死药在焉。黄金白银为宫阙，草物禽兽尽白，望之如雲。及至，反居水下。欲到，即风引船而去，终莫能至。秦始皇登会稽，並海上，冀遇三神山之奇药。汉武帝既封泰山，无风雨变至，方士更言蓬莱诸药可得，於是上欣然东至海，冀获蓬莱者。”〉</t>
-  </si>
-  <si>
-    <t>荀羡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢公云：“贤圣去人，其间亦迩。”子姪未之许。公叹曰：“若郗超闻此语，必不至河汉。”〈《超别传》曰：“超精於理义，沙门支道林以为一时之俊。”《庄子》曰：“肩吾问於连叔曰：‘吾闻言於接舆，大而无当，往而不反。怪怖其言，犹河汉而无极也。’”〉</t>
-  </si>
-  <si>
-    <t>谢安，郗超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支公好鹤，住剡东𡵙山，〈《支公书》曰：“山去会稽二百里。”〉有人遗其双鹤；少时，翅长欲飞。支意惜之，乃铩其翮。鹤轩翥不能復起，乃舒翼反头视之，如有懊丧意。林曰：“既有凌霄之姿，何肯为人作耳目近玩？”养令翮成，置使飞去。</t>
-  </si>
-  <si>
-    <t>谢中郎经曲阿後湖，问左右：“此是何水？”〈《中兴书》曰：“谢万字万石，太傅安弟也。才气髙俊，蚤知名，历吏部郎、西中郎将、豫州刺史、散骑常侍。”〉荅曰：“曲阿湖。”〈《太康地记》曰：“曲阿本名雲阳，秦始皇以有王气，凿北坑山以败其势，截其直道，使其阿曲，故曰曲阿也。呉还为雲阳，今復名曲阿。”〉谢曰：“故当渊注渟著，纳而不流。”</t>
-  </si>
-  <si>
-    <t>谢万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晋武帝毎饷山涛恒少。谢太傅〈安也〉以问子弟，车骑〈玄也〉荅曰：“当由欲者不多，而使与者忘少。”〈谢车骑家传曰：“玄字幼度，镇西奕第三子也。神理明俊，善微言。叔父太傅尝与子姪燕集，问：‘武帝任山公以三事，任以官人。至於赐予，不过斤合。当有旨不？’玄答：‘有辞致也。’”〉</t>
-  </si>
-  <si>
-    <t>谢安，谢玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马炎，山涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢胡儿语庾道季：〈道季，庾龢小字。徐广《晋纪》曰：“龢字道季，太尉亮子也。风情率悟，以文谈致称於时。历仕至丹阳尹，兼中领军。”〉“诸人莫当就卿谈，可坚城垒。”庾曰：“若文度来，我以偏师待之；康伯来，济河焚舟。”〈《春秋传》曰：“秦伯伐晋，济河焚舟。”杜预曰：“示必死。”〉</t>
-  </si>
-  <si>
-    <t>谢朗，庾龢，王坦之，韩伯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李弘度常叹不被遇。〈《中兴书》曰：“李充字弘度，江夏郢人也。祖康、父矩，皆有美名。充初辟丞相掾、记室参军，以贫，求剡县，迁大著作、中书郎。”〉殷扬州〈殷浩别见〉知其家贫，问：“君能屈志百里不？”李荅曰：“北门之叹，久已上闻；〈《卫诗》：“北门，刺仕不得志也。”〉穷猿奔林，岂暇择木？”遂授剡县。</t>
-  </si>
-  <si>
-    <t>李充，殷浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王司州至呉兴印渚中看，〈《王胡之别传》曰：“胡之字脩龄，琅邪临沂人，王廙之子也。历呉兴太守，徴侍中、丹阳尹、祕书监，並不就。拜使持节，都督司州诸军事、西中郎将、司州刺史。”《呉兴记》曰：“於潜县东七十里，有印渚，渚傍有白石山，峻壁四十丈。印渚盖众溪之下流也。印渚已上至县，悉石濑恶道，不可行船；印渚已下，水道无险，故行旅集焉。”〉叹曰：“非唯使人情开涤，亦觉日月淸朗。”</t>
-  </si>
-  <si>
-    <t>王胡之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢万作豫州都督，新拜，当西之都邑，相送累日，谢疲顿。於是髙侍中往，〈《中兴书》曰：“髙崧字茂琰，广陵人。父悝，光禄大夫。崧少好学，善史传，累迁吏部郎、侍中，以公累免官。”〉径就谢坐，因问：“卿今仗节方州，当疆理西蕃，何以为政？”谢粗道其意。髙便为谢道形势，作数百语。谢遂起坐。髙去後，谢追曰：“阿酃故麤有才具。”〈阿酃，崧小字也。〉谢因此得终坐。</t>
-  </si>
-  <si>
-    <t>谢万，高崧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁彦伯为谢安南司马，〈安南，谢奉，别见。〉都下诸人送至濑鄕。将别，既自凄惘，叹曰：“江山辽落，居然有万里之势。”〈《续晋阳秋》曰：“袁宏字彦伯，陈郡人，魏郎中令焕六世孙也。祖猷，侍中。父勖，临汝令。宏起家建威参军，安南司马记室。太傅谢安赏宏機捷辩速，自吏部郎出为东阳郡，乃祖之於冶亭，时贤皆集。安欲卒迫试之，执手将别，顾左右取一扇而赠之。宏应声答曰：‘辄当奉扬仁风，慰彼黎庶。’合坐叹其要捷。性直亮，故位不显也。在郡卒。”〉</t>
-  </si>
-  <si>
-    <t>袁宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙绰赋《遂初》，築室畎川，自言见止足之分。〈《中兴书》曰：“绰字兴公，太原中都人。少以文称，历太学博士、大著作、散骑常侍。”《遂初赋》叙曰：“余少慕老庄之道，仰其风流久矣。却感於陵贤妻之言，怅然悟之。乃经始东山，建五亩之宅，带长阜，倚茂林，孰与坐华幕撃鐘鼓者同年而语其乐哉！”〉斋前種一株松，恒自手壅治之。髙世远时亦邻居，〈世远，髙柔字也。别见。〉语孙曰：“松树子非不楚楚可怜，但永无栋梁用耳！”孙曰：“枫柳虽合抱，亦何所施？”</t>
-  </si>
-  <si>
-    <t>孙绰，高柔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓征西治江陵城甚丽，〈盛弘之《荆州记》曰：“荆州城临汉江，临江王所治。王被徴，出城北门而车轴折，父老泣曰：‘吾王去不还矣！’从此不开北门。”〉会宾僚出江津望之，云：“若能目此城者有赏。”顾长康时为客，在坐，目曰：“遥望层城，丹楼如霞。”桓即赏以二婢。</t>
-  </si>
-  <si>
-    <t>桓温，顾恺之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王子敬语王孝伯曰：“羊叔子自復佳耳，然亦何与人事？”〈《晋诸公赞》曰：“羊祜字叔子，太山平阳人也。世长吏二千石，至祜九世，以淸德称。为儿时，遊汶滨，有行父止而观焉，叹息曰：‘处士大好相，善为之，未六十，当有重功於天下。即富贵，无相忘。’遂去，莫知所在。累迁都督荆州诸军事。自在南夏，呉人说服，称曰羊公，莫敢名者。南州人闻公丧，号哭罢市。”〉故不如铜雀臺上妓。”〈魏武遗令曰：“以吾妾与妓人皆著铜雀臺上，施六尺床穗帷，月朝十五日，辄使向帐作伎。”〉</t>
-  </si>
-  <si>
-    <t>王恭，羊祜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林公见东阳长山曰：“何其坦迤！”〈《会稽土地志》曰：“山靡迤而长，县因山得名。”〉</t>
-  </si>
-  <si>
-    <t>顾长康从会稽还，人问山川之美。顾云：“千岩竞秀，万壑争流，草木蒙笼其上，若雲兴霞蔚。”〈丘渊之《文章录》曰：“顾恺之字长康，晋陵人。父说，尚书左丞。恺之，义熙初为散骑常侍。”〉</t>
-  </si>
-  <si>
-    <t>顾恺之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简文崩，孝武年十餘歳立，至暝不临。〈宋明帝《文章志》曰：“孝武皇帝讳昌明，简文第三子也。初，简文观谶书曰：‘晋氏阼尽昌明。’及帝诞育，东方始明，故因生时以为讳，而相与忘告。简文问之，乃以讳对。简文流涕曰：‘不意我家昌明便出。’帝聪惠，推贤任才，年三十五崩。”〉左右启“依常应临”。帝曰：“哀至则哭，何常之有！”</t>
-  </si>
-  <si>
-    <t>司马曜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孝武将讲《孝经》，谢公兄弟与诸人私庭讲习，〈《续晋阳秋》曰：“寧康三年九月九日，帝讲《孝经》。僕射谢安侍坐，吏部尚书陆纳兼侍中卞耽读，黄门侍郎谢石、吏部袁宏兼执经，中书郎车胤、丹阳尹王混摘句。”〉车武子难苦问谢，〈车胤别见。〉谓袁羊曰：“不问则德音有遗；多问则重劳二谢。”〈袁羊，乔小字也。《袁氏家传》曰：“乔字彦升，陈郡人。父瑰，光禄大夫。乔历尚书郎、江夏相。从桓温平蜀，封湘西伯、益州刺史。”〉袁曰：“必无此嫌。”车曰：“何以知尔？”袁曰：“何尝见明镜疲於屡照，淸流惮於惠风？”</t>
-  </si>
-  <si>
-    <t>车胤，袁乔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢安，谢石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王子敬云：“从山阴道上行，〈《会稽土地志》曰：“邑在山阴，故以名焉。”〉山川自相映發，使人应接不暇；若秋冬之际，尤难为坏。”〈《会稽郡记》曰：“会稽境特多名山水，峰崿隆峻，吐纳雲雾。松栝枫柏，擢榦竦条，潭壑镜彻，淸流泻注。王子敬见之曰：‘山水之美，使人应接不暇。’”〉</t>
-  </si>
-  <si>
-    <t>谢太傅问诸子姪：“子弟亦何预人事，而正欲使其佳？”诸人莫有言者，车骑荅曰：〈谢玄〉“譬如芝兰玉树，欲使其生於阶庭耳。”</t>
-  </si>
-  <si>
-    <t>道壹道人好整饰音辞，〈王珣《遊严陵濑诗》叙曰：“道壹姓竺氏，名德。”沙门题目曰：“道壹文锋富赡，孙绰为之赞曰：‘驰骋遊说，言固不虚。唯兹壹公，绰然有餘。譬若春圃，载芬载敷。条柯猗蔚，枝榦扶疏。’”〉从都下还东山，经呉中。已而会雪下，未甚寒。诸道人问在道所经。壹公曰：“风霜固所不论，乃先集其惨淡。郊邑正自飘瞥，林岫便已皓然。”</t>
-  </si>
-  <si>
-    <t>竺道壹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张天锡为凉州刺史，称制西隅。既为苻坚所禽，用为侍中。後於寿阳倶败，至都，〈张资《凉州记》曰：“天锡字纯嘏，安定乌氏人，张耳後也。曾祖轨，永嘉中为凉州刺史，値京师大乱，遂據凉土。天锡篡位，自立为凉州牧。苻坚使将姚苌攻没凉州，天锡归长安，坚以为侍中、比部尚书、归义侯。从坚至寿阳，坚军败，遂南归。拜散骑常侍、西平公。”《中兴书》曰：“天锡後以贫拜庐江太守。薨，赠侍中。”〉为孝武所器；毎入，言论无不竟日。颇有嫉之者，於坐问张：“北方何物可贵？”张曰：“桑椹甘香，鸱鸮革响；〈《诗·鲁颂》曰：“翩彼飞鸮，集於泮林。食我桑椹，怀我好音。”〉淳酪养性，人无嫉心。”〈《西河旧事》曰：“河西牛羊肥，酪过精好，但写酪置革上，都不解散也。”〉</t>
-  </si>
-  <si>
-    <t>张天锡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾长康拜桓宣武墓，作诗云：“山崩溟海竭，鱼鸟将何依。”〈宋明帝《文章志》曰：“恺之为桓温参军，甚被亲昵。”〉人问之曰：“卿凭重桓乃尔，哭之状其可见乎？”顾曰：“鼻如广莫长风，眼如悬河决溜。”〈《春秋考异邮》曰：“距不周风四十五日，广莫风至。广莫者，精大备也。盖北风也，一日寒风。”〉或曰：“声如震雷破山，涙如倾河注海。”</t>
-  </si>
-  <si>
-    <t>毛伯成既负其才气，常称：“寧为兰摧玉折，不作萧敷艾荣。”〈《征西寮属名》曰：“毛玄字伯成，颍川人。仕至征西行军参军。”〉</t>
-  </si>
-  <si>
-    <t>毛玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范甯作豫章，〈《中兴书》曰：“甯字武子，愼阳县人。博学通览，累迁中书郎、豫章太守。”〉八日请佛有板。众僧疑，或欲作荅。有小沙弥在坐末曰：“世尊默然，则为许可。”众从其义。</t>
-  </si>
-  <si>
-    <t>范宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马太傅斋中夜坐，〈《孝文王传》曰：“王讳道子，简文皇帝第五子也。封会稽王，领司徒、扬州刺史，进太傅。为桓玄所害，赠丞相。”〉於时天月明净，都无纖翳；太傅叹以为佳。谢景重在坐，〈《续晋阳秋》曰：“谢重字景重，陈郡人。父朗，东阳太守。重明秀有才会，终骠骑长史。”〉荅曰：“意谓乃不如微雲点缀。”太傅因戏谢曰：“卿居心不净，乃復强欲滓秽太淸邪？”</t>
-  </si>
-  <si>
-    <t>司马道子，谢重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王中郎甚爱张天锡，问之曰：“卿观过江诸人经纬，江左轨辙，有何伟异？後来之彦，復何如中原？”张曰：“研求幽邃，自王何以还；因时脩制，荀乐之风。”〈荀𫖮、荀勗脩定法制，乐则未闻。〉王曰：“卿知见有餘，何故为苻坚所制？”〈张资《凉州记》曰：“天锡明鑒颖發，英声少著。”〉荅曰：“阳消阴息，故天歩屯蹇；否剥成象，岂足多讥？”</t>
-  </si>
-  <si>
-    <t>王坦之，张天锡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何晏，王弼，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢景重女適王孝伯儿，二门公甚相爱美。〈《谢女谱》曰：“重女月镜，適王恭子愔之。”〉谢为太傅长史，被弹；王即取作长史，带晋陵郡。太傅已构嫌孝伯，不欲使其得谢，还取作咨议。外示絷维，而实以乖闲之。及孝伯败後，太傅绕东府城行散，〈《丹阳记》曰：“东府城西，有简文为会稽王时第，东则孝文王道子府。道子领扬州，仍住先舍，故俗称东府。”〉僚属悉在南门要望候拜，时谓谢曰：“王甯异谋，〈阿甯，王恭小字也。〉云是卿为其计。”谢曾无惧色，敛笏对曰：“乐彦辅有言：‘岂以五男易一女？’”太傅善其对，因举酒劝之曰：“故自佳！故自佳！”</t>
-  </si>
-  <si>
-    <t>谢重，司马道子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王恭，乐广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓玄义兴还後，见司马太傅，太傅已醉，坐上多客，问人云：“桓温来欲作贼，如何？”〈《晋安帝纪》曰：“温在姑孰，讽朝廷，求九锡。谢安使吏部郎袁宏具其草，以示僕射王彪之。彪之作色曰：‘丈夫岂可以此事语人邪？’安徐问其计。彪之曰：‘闻其疾已笃，且可缓其事。’安从之，故不行。”〉桓玄伏不得起。谢景重时为长史，举板荅曰：“故宣武公黜昏暗，登圣明，功超伊霍。纷纭之议，裁之圣鑒。”太傅曰：“我知！我知！”即举酒云：“桓义兴，劝卿酒。”桓出谢过。〈檀道鸾论之曰：“道子可谓易於由言，谢重能解纷纭矣。”〉</t>
-  </si>
-  <si>
-    <t>桓玄，司马道子，谢重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宣武移镇南州，制街衢平直。人谓王东亭曰：〈《王司徒传》曰：“王珣字元琳，丞相导之孙，领军洽之子也。少以淸秀称。大司马桓温辟为主簿，从讨袁真，封交趾望海县东亭侯，累迁尚书左僕射、领选、进尚书令。”〉“丞相初营建康，无所因承，而制置纡曲，方此为劣。”〈《晋阳秋》曰：“苏峻既诛，大事克平之後，都邑残荒。温峤议徙都豫章，以即豐全。朝士及三呉豪杰，谓可迁都会稽，王导独谓‘不宜迁都。建业，往之秣陵，古者既有帝王所治之表，又孙仲谋、刘玄德倶谓是王者之宅。今虽凋残，宜修劳来旋定之道，镇静群情。且百堵皆作，何患不克復乎！’终至康寧，导之策也。”〉东亭曰：“此丞相乃所以为巧。江左地促，不如中国；若使阡陌条畅，则一览而尽；故纡餘委曲，若不可测。”</t>
-  </si>
-  <si>
-    <t>王珣，王导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓玄诣殷荆州，殷在妾房昼眠，左右辞不之通。桓後言及此事，殷云：“初不眠，纵有此，岂不以‘贤贤易色’也。”〈孔安国注《论语》曰：“言以好色之心好贤人则善。”〉</t>
-  </si>
-  <si>
-    <t>桓玄，殷仲堪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓玄问羊孚：〈《羊氏谱》曰：“孚字子道，泰山人。祖楷，尚书郎。父绥，中书郎。孚历太学博士、州别驾、太尉参军。年四十六卒。”〉“何以共重呉声？”羊曰：“当以其妖而浮。”</t>
-  </si>
-  <si>
-    <t>桓玄，羊孚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢混问羊孚：“何以器举瑚琏？”〈《晋安帝纪》曰：“混字叔源，陈郡人，司空琰少子也。文学砥砺立名。累迁中书令、尚书左僕射。坐党刘毅伏诛。”《论语》：“子贡问曰：‘赐也何如？’子曰：‘汝器也。’曰：‘何器也？’曰：‘瑚琏也。’”郑玄注曰：“黍稷器。夏曰瑚，殷曰琏。”〉羊曰：“故当以为接神之器。”</t>
-  </si>
-  <si>
-    <t>谢混，羊孚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓玄既篡位，後御床微陷，群臣失色。侍中殷仲文进曰：〈《续晋阳秋》曰：“仲文字仲文，陈郡人。祖融，太常。父康，呉兴太守。仲文闻玄平京邑，弃郡投焉。玄甚说之，引为咨议参军。时王谧见礼而不亲，卞範之被亲而少礼。其宠遇隆重，兼於王卞矣。及玄篡位，以佐命亲贵，厚自封崇。舆马器服，穷极绮丽，後房妓妾数十，丝竹不绝音。性甚贪吝，多纳贿赂，家累千金，常若不足。玄既败，先投义军。累迁侍中尚书。以罪伏诛。”〉“当由圣德渊重，厚地所以不能载。”时人善之。</t>
-  </si>
-  <si>
-    <t>桓玄，殷仲文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓玄既篡位，将改置直馆，问左右：“虎贲中郎省，应在何处？”有人荅曰：“无省。”当时殊忤旨。问：“何以知无？”荅曰：“潘岳《秋兴赋》叙曰：‘余兼虎贲中郎将，寓直散骑之省。’〈岳别见。其赋叙曰：“晋十有四年，余年三十二始见二毛，以太尉掾兼虎贲中郎将，寓直散骑之省。髙阁连雲，阳景罕曜。僕野人也，猥厕朝列，譬犹池鱼笼鸟！有江湖山薮之思。於是染翰操纸，慨然而赋。於时秋至，故以秋兴命篇。”〉玄咨嗟称善。〈刘谦之《晋纪》曰：“玄欲復虎贲中郎将，疑应直与不，访之僚佐，咸莫能定。参军刘简之对曰：‘昔潘岳《秋兴赋》叙云：“余兼虎贲中郎将，寓直於散骑之省。”以此言之，是应直也。’玄欢然从之。”此语微异，又答者未知姓名，故详载之。〉</t>
-  </si>
-  <si>
-    <t>桓玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘岳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢灵运好戴曲柄笠，〈丘渊之《新集录》曰：“灵运，陈郡阳夏人。祖玄，车骑将军。父涣，祕书郎。灵运历祕书监、侍中、临川内史。以罪伏诛。”〉孔隐士谓曰：“卿欲希心髙远，何不能遗曲盖之貌？”〈宋书曰：“孔淳之字彦深，鲁国人。少以辞荣就约，徴聘无所就。元嘉初，散骑郎徴，不到，隐上虞山。”〉谢荅曰：“将不畏影者，未能忘怀。”〈《庄子》云：“渔父谓孔子曰：‘人有畏影恶迹而去之走者，举足逾数而迹逾多，走逾疾而影不离，自以尚迟，疾走不休，绝力而死。不知处阴以休影，处静以息迹，愚亦甚矣！子脩心守真，还以物与人，则无异矣。不脩身而求之人，不亦外事者乎？’”〉</t>
-  </si>
-  <si>
-    <t>谢灵运，孔淳之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈穉叔</t>
   </si>
   <si>
@@ -1441,10 +645,6 @@
   </si>
   <si>
     <t>政事第三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>言语第二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2017,7 +1217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2034,14 +1234,6 @@
     </font>
     <font>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -2083,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2093,18 +1285,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2426,7 +1606,7 @@
     </row>
     <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2443,7 +1623,7 @@
     </row>
     <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2460,7 +1640,7 @@
     </row>
     <row r="4" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2477,7 +1657,7 @@
     </row>
     <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -2492,7 +1672,7 @@
     </row>
     <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2504,12 +1684,12 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>340</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -2524,7 +1704,7 @@
     </row>
     <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -2539,7 +1719,7 @@
     </row>
     <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -2554,7 +1734,7 @@
     </row>
     <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -2569,7 +1749,7 @@
     </row>
     <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -2584,7 +1764,7 @@
     </row>
     <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -2599,7 +1779,7 @@
     </row>
     <row r="13" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -2614,7 +1794,7 @@
     </row>
     <row r="14" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -2629,7 +1809,7 @@
     </row>
     <row r="15" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -2644,7 +1824,7 @@
     </row>
     <row r="16" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -2659,7 +1839,7 @@
     </row>
     <row r="17" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -2674,7 +1854,7 @@
     </row>
     <row r="18" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -2691,7 +1871,7 @@
     </row>
     <row r="19" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -2706,7 +1886,7 @@
     </row>
     <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -2721,7 +1901,7 @@
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -2736,7 +1916,7 @@
     </row>
     <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -2753,7 +1933,7 @@
     </row>
     <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -2768,7 +1948,7 @@
     </row>
     <row r="24" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -2785,7 +1965,7 @@
     </row>
     <row r="25" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -2800,7 +1980,7 @@
     </row>
     <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -2815,7 +1995,7 @@
     </row>
     <row r="27" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
@@ -2832,7 +2012,7 @@
     </row>
     <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -2849,7 +2029,7 @@
     </row>
     <row r="29" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -2864,7 +2044,7 @@
     </row>
     <row r="30" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -2879,7 +2059,7 @@
     </row>
     <row r="31" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
@@ -2888,13 +2068,13 @@
         <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>401</v>
+        <v>173</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
@@ -2911,7 +2091,7 @@
     </row>
     <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
@@ -2926,7 +2106,7 @@
     </row>
     <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
@@ -2941,7 +2121,7 @@
     </row>
     <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
@@ -2958,7 +2138,7 @@
     </row>
     <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
@@ -2973,7 +2153,7 @@
     </row>
     <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
@@ -2990,7 +2170,7 @@
     </row>
     <row r="38" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
@@ -3005,7 +2185,7 @@
     </row>
     <row r="39" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
@@ -3022,7 +2202,7 @@
     </row>
     <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
@@ -3037,7 +2217,7 @@
     </row>
     <row r="41" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
@@ -3052,7 +2232,7 @@
     </row>
     <row r="42" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
@@ -3069,7 +2249,7 @@
     </row>
     <row r="43" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
@@ -3084,7 +2264,7 @@
     </row>
     <row r="44" spans="1:5" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
@@ -3101,7 +2281,7 @@
     </row>
     <row r="45" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
@@ -3116,7 +2296,7 @@
     </row>
     <row r="46" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
@@ -3131,7 +2311,7 @@
     </row>
     <row r="47" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
@@ -3146,7 +2326,7 @@
     </row>
     <row r="48" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
@@ -3166,2047 +2346,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3EF012-E510-45EB-BAF8-1A1BA8893935}">
-  <dimension ref="A1:H109"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A109"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="237.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B8" s="6">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B9" s="6">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="395.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B12" s="6">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B13" s="6">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B15" s="6">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="279" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B16" s="6">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B18" s="6">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B19" s="6">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B20" s="6">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B21" s="6">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B22" s="6">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B23" s="6">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="209.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B24" s="6">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B25" s="6">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B26" s="6">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B27" s="6">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B28" s="6">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B29" s="6">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B30" s="6">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B31" s="6">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B32" s="6">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B33" s="6">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B34" s="6">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B35" s="6">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B36" s="6">
-        <v>35</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B37" s="6">
-        <v>36</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B38" s="6">
-        <v>37</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B39" s="6">
-        <v>38</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B40" s="6">
-        <v>39</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B41" s="6">
-        <v>40</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B42" s="6">
-        <v>41</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B43" s="6">
-        <v>42</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B44" s="6">
-        <v>43</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B45" s="6">
-        <v>44</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B46" s="6">
-        <v>45</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B47" s="6">
-        <v>46</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="139.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B48" s="6">
-        <v>47</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B49" s="6">
-        <v>48</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B50" s="6">
-        <v>49</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B51" s="6">
-        <v>50</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B52" s="6">
-        <v>51</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B53" s="6">
-        <v>52</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B54" s="6">
-        <v>53</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B55" s="6">
-        <v>54</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B56" s="6">
-        <v>55</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B57" s="6">
-        <v>56</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B58" s="6">
-        <v>57</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B59" s="6">
-        <v>58</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" ht="162.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B60" s="6">
-        <v>59</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B61" s="6">
-        <v>60</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B62" s="6">
-        <v>61</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B63" s="6">
-        <v>62</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B64" s="6">
-        <v>63</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B65" s="6">
-        <v>64</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B66" s="6">
-        <v>65</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B67" s="6">
-        <v>66</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B68" s="6">
-        <v>67</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B69" s="6">
-        <v>68</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B70" s="6">
-        <v>69</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B71" s="6">
-        <v>70</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B72" s="6">
-        <v>71</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" ht="232.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B73" s="6">
-        <v>72</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B74" s="6">
-        <v>73</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B75" s="6">
-        <v>74</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B76" s="6">
-        <v>75</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B77" s="6">
-        <v>76</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B78" s="6">
-        <v>77</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B79" s="6">
-        <v>78</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B80" s="6">
-        <v>79</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B81" s="6">
-        <v>80</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B82" s="6">
-        <v>81</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B83" s="6">
-        <v>82</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B84" s="6">
-        <v>83</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B85" s="6">
-        <v>84</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B86" s="6">
-        <v>85</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B87" s="6">
-        <v>86</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B88" s="6">
-        <v>87</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B89" s="6">
-        <v>88</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B90" s="6">
-        <v>89</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B91" s="6">
-        <v>90</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B92" s="6">
-        <v>91</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B93" s="6">
-        <v>92</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="1:8" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B94" s="6">
-        <v>93</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B95" s="6">
-        <v>94</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B96" s="6">
-        <v>95</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B97" s="6">
-        <v>96</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="1:8" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B98" s="6">
-        <v>97</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B99" s="6">
-        <v>98</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B100" s="6">
-        <v>99</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B101" s="6">
-        <v>100</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B102" s="6">
-        <v>101</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B103" s="6">
-        <v>102</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B104" s="6">
-        <v>103</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B105" s="6">
-        <v>104</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B106" s="6">
-        <v>105</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B107" s="6">
-        <v>106</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="1:8" ht="93" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B108" s="6">
-        <v>107</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B109" s="6">
-        <v>108</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E109" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE9305-C10F-44E2-8466-D0787367732C}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -5236,408 +2379,408 @@
     </row>
     <row r="2" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>342</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>343</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>344</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>346</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>347</v>
+        <v>120</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>348</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>349</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>350</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>351</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>352</v>
+        <v>125</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>353</v>
+        <v>126</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>354</v>
+        <v>127</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>355</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>359</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>360</v>
+        <v>133</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>361</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>362</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>364</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>365</v>
+        <v>138</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>366</v>
+        <v>139</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>367</v>
+        <v>140</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>368</v>
+        <v>141</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>369</v>
+        <v>142</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>370</v>
+        <v>143</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>371</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B16" s="3">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>372</v>
+        <v>145</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>366</v>
+        <v>139</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="357" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>373</v>
+        <v>146</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B18" s="3">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>375</v>
+        <v>148</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>376</v>
+        <v>149</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>377</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>378</v>
+        <v>151</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>379</v>
+        <v>152</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>380</v>
+        <v>153</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>381</v>
+        <v>154</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>382</v>
+        <v>155</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>383</v>
+        <v>156</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>384</v>
+        <v>157</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>385</v>
+        <v>158</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>386</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B23" s="3">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>387</v>
+        <v>160</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B24" s="3">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>389</v>
+        <v>162</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>390</v>
+        <v>163</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B25" s="3">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>391</v>
+        <v>164</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>392</v>
+        <v>165</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B26" s="3">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>393</v>
+        <v>166</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>394</v>
+        <v>167</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="B27" s="3">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>395</v>
+        <v>168</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>396</v>
+        <v>169</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>397</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5646,19 +2789,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC8CDF6-DC99-4F70-BE22-B42B3BF4E4A4}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E50"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="97.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5682,672 +2825,672 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>403</v>
+        <v>175</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>404</v>
+        <v>176</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>508</v>
+        <v>280</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>509</v>
+        <v>281</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>510</v>
+        <v>282</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>407</v>
+        <v>179</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>511</v>
+        <v>283</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>512</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>513</v>
+        <v>285</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>514</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>513</v>
+        <v>285</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>513</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>287</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>288</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>513</v>
+        <v>285</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>413</v>
+        <v>185</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>518</v>
+        <v>290</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>519</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>520</v>
+        <v>292</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="357" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>416</v>
+        <v>188</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>521</v>
+        <v>293</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>522</v>
+        <v>294</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>523</v>
+        <v>295</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>419</v>
+        <v>191</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>524</v>
+        <v>296</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>525</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>420</v>
+        <v>192</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>526</v>
+        <v>298</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>527</v>
+        <v>299</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>528</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>366</v>
+        <v>139</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>424</v>
+        <v>196</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>529</v>
+        <v>301</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>425</v>
+        <v>197</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>530</v>
+        <v>302</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>531</v>
+        <v>303</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>427</v>
+        <v>199</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>532</v>
+        <v>304</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>428</v>
+        <v>200</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>533</v>
+        <v>305</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>534</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>535</v>
+        <v>307</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>430</v>
+        <v>202</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>536</v>
+        <v>308</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>431</v>
+        <v>203</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>537</v>
+        <v>309</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>432</v>
+        <v>204</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>538</v>
+        <v>310</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>433</v>
+        <v>205</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>539</v>
+        <v>311</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="408" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>434</v>
+        <v>206</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>540</v>
+        <v>312</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>541</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>435</v>
+        <v>207</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>542</v>
+        <v>314</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>436</v>
+        <v>208</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>530</v>
+        <v>302</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>437</v>
+        <v>209</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>543</v>
+        <v>315</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>544</v>
+        <v>316</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>439</v>
+        <v>211</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>440</v>
+        <v>212</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>545</v>
+        <v>317</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>441</v>
+        <v>213</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>546</v>
+        <v>318</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>547</v>
+        <v>319</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>443</v>
+        <v>215</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>548</v>
+        <v>320</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>444</v>
+        <v>216</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>549</v>
+        <v>321</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>445</v>
+        <v>217</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>550</v>
+        <v>322</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>446</v>
+        <v>218</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>87</v>
@@ -6356,682 +3499,682 @@
     </row>
     <row r="46" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>447</v>
+        <v>219</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>551</v>
+        <v>323</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>449</v>
+        <v>221</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>552</v>
+        <v>324</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>450</v>
+        <v>222</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>553</v>
+        <v>325</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>451</v>
+        <v>223</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>530</v>
+        <v>302</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>452</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1">
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>453</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B53" s="1">
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>454</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B54" s="1">
         <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>455</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B55" s="1">
         <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>456</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="408" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B56" s="1">
         <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B57" s="1">
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>458</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B58" s="1">
         <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>459</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B59" s="1">
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>460</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B60" s="1">
         <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B61" s="1">
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>462</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B62" s="1">
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>463</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B63" s="1">
         <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>464</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B64" s="1">
         <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>465</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B65" s="1">
         <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>466</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B66" s="1">
         <v>65</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>467</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B67" s="1">
         <v>66</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>468</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B68" s="1">
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>469</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B69" s="1">
         <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>470</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B70" s="1">
         <v>69</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>471</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B71" s="1">
         <v>70</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>472</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B72" s="1">
         <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>473</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B73" s="1">
         <v>72</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>474</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B74" s="1">
         <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>475</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B75" s="1">
         <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>476</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B76" s="1">
         <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>477</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B77" s="1">
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>478</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B78" s="1">
         <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>479</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B79" s="1">
         <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>480</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B80" s="1">
         <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>481</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B81" s="1">
         <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>482</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B82" s="1">
         <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>483</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B83" s="1">
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>484</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B84" s="1">
         <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>485</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B85" s="1">
         <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>486</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B86" s="1">
         <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>487</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B87" s="1">
         <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>488</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B88" s="1">
         <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>489</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B89" s="1">
         <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>490</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B90" s="1">
         <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>491</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B91" s="1">
         <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>492</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B92" s="1">
         <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>493</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B93" s="1">
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>494</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B94" s="1">
         <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>495</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B95" s="1">
         <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>496</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B96" s="1">
         <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>497</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B97" s="1">
         <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>498</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="357" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B98" s="1">
         <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>499</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B99" s="1">
         <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>500</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B100" s="1">
         <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>501</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B101" s="1">
         <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>502</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B102" s="1">
         <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>503</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B103" s="1">
         <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>504</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B104" s="1">
         <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>505</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B105" s="1">
         <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>506</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
